--- a/public/static/templates/metadata_template.xlsx
+++ b/public/static/templates/metadata_template.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tushar/pdx/pdxfinder-data/template/active_templates/metadata/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tushar/CancerModels/cancer-models/public/static/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AD7A298-2BB7-A747-B7F5-256494151D57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52C289E0-A147-3040-B25D-5DAEB8CB98D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19220" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19220" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="patient" sheetId="1" r:id="rId1"/>
     <sheet name="patient_sample" sheetId="2" r:id="rId2"/>
-    <sheet name="pdx_models" sheetId="3" r:id="rId3"/>
+    <sheet name="pdx_model" sheetId="3" r:id="rId3"/>
     <sheet name="model_validation" sheetId="4" r:id="rId4"/>
     <sheet name="cell_model" sheetId="6" r:id="rId5"/>
     <sheet name="sharing" sheetId="5" r:id="rId6"/>
@@ -3427,7 +3427,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AMK982"/>
   <sheetViews>
-    <sheetView topLeftCell="D55" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
@@ -4719,7 +4719,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF6038AA-9EAD-E846-B5BE-A0ADCFA2926F}">
   <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>

--- a/public/static/templates/metadata_template.xlsx
+++ b/public/static/templates/metadata_template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tushar/CancerModels/cancer-models/public/static/templates/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tushar/CancerModels/pdxfinder-data/template/active_templates/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52C289E0-A147-3040-B25D-5DAEB8CB98D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9588770-7D15-8340-AF5B-913507B94064}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19220" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="840" yWindow="580" windowWidth="33600" windowHeight="19260" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="patient" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,8 @@
     <sheet name="model_validation" sheetId="4" r:id="rId4"/>
     <sheet name="cell_model" sheetId="6" r:id="rId5"/>
     <sheet name="sharing" sheetId="5" r:id="rId6"/>
+    <sheet name="image_study" sheetId="7" r:id="rId7"/>
+    <sheet name="model_image" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -30,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="356">
   <si>
     <t>Field</t>
   </si>
@@ -65,51 +67,9 @@
     <t xml:space="preserve">Sex of the patient </t>
   </si>
   <si>
-    <t>Cancer relevant comorbidity or eviromental exposure.</t>
-  </si>
-  <si>
-    <t>Patient Ethnic group. Can be derived from self-assement or genetic analysis.</t>
-  </si>
-  <si>
     <t>Patient Ethnic group assessment method. Leave blank if ethnicity was not collected/provided</t>
   </si>
   <si>
-    <t>Diagnosis of the patient when first diagnosed at age_at_initial_diagnosis - this can be different than the diagnosis at the time of collection which is collected in the sample section. No acronyms.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF595959"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>T</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF595959"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">his is the age of first diagnostic. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF595959"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>Can be prior to the age at which the tissue sample was collected for PDX implant.</t>
-    </r>
-  </si>
-  <si>
     <t>#Example</t>
   </si>
   <si>
@@ -221,42 +181,7 @@
     <t>model_id</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF595959"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>Unique anonymous/de-identified provider ID for the patient. ID</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF595959"/>
-        <rFont val="DejaVu Sans"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF595959"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>s must be defined in patient sheet.</t>
-    </r>
-  </si>
-  <si>
     <t>Unique ID of the patient tumour sample used to generate PDX(s)</t>
-  </si>
-  <si>
-    <t>Date of collections - if this is not avalaible please indicate in column E, F collection events and the elapsed times between the colletcion. Important for understanding the time relationship between models generated for the same patient.</t>
   </si>
   <si>
     <r>
@@ -282,39 +207,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF595959"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>I</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF595959"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">F DATE ENTERED IN collection_date DO NOT FILL, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF595959"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> provide the time difference between the 1st collection event and the current one (in months) - collection event 1  should be 0, collection event 2 should be 6 if 6 months have elapase between collection 1 and  collection 2 and collection event 3 should be 9 if 9 months have elapsed between collection 1 and collection 3 </t>
-    </r>
-  </si>
-  <si>
     <t>Patient age at collection. Can be exact age or binned in 10 y group (1-9, 10-19, 20-29, ...)</t>
   </si>
   <si>
@@ -337,15 +229,6 @@
   </si>
   <si>
     <t>The implanded tumour grade value.</t>
-  </si>
-  <si>
-    <t>Grade classification corresponding used to describe the stage, or Not Specified Add the version if available.</t>
-  </si>
-  <si>
-    <t>Positive virology status at the time of collection. Any relevent virology information which can infliuence cancer like EBV, HIV,HPV status.</t>
-  </si>
-  <si>
-    <t>Is patient treatement information avalaible and sharable? If yes fill out following treatment columns: treatment_naive_at_collection, treated_at_collection, treated_prior_to_collection.</t>
   </si>
   <si>
     <t>Was the patient treatment naive at the time of collection? This includes the patient being treated at the time of tumour sample collection and if the patient was treated prior to the tumour sample collection. The value will be "yes" if either treated_at_collection or treated_prior_to_collection are "yes".</t>
@@ -839,9 +722,6 @@
     <t>external_ids</t>
   </si>
   <si>
-    <t>Most comman name associate with model. Please use the CCLE name if available</t>
-  </si>
-  <si>
     <t>Type of organoid or cell model</t>
   </si>
   <si>
@@ -851,14 +731,400 @@
     <t>Add crucial comments about the model that cannot be expressed by other fields</t>
   </si>
   <si>
-    <t>Please provide the suplies brief acronym or name followed by a colon and thel number or name use to reference the model</t>
-  </si>
-  <si>
     <t>Depmap accession, Cellusaurus accession or other id. Please place in comma separated list</t>
   </si>
   <si>
+    <t>LAMA84_HAEMATOPOIETIC_AND_LYMPHOID_TISSUE</t>
+  </si>
+  <si>
+    <t>organoid, CRC, 3-D other, cell model</t>
+  </si>
+  <si>
+    <t>embedded 3d culture</t>
+  </si>
+  <si>
+    <t>One of the following: organoid, CRC, 3-D other, cell model</t>
+  </si>
+  <si>
+    <t>One of the following: embedded 3d culture, adherent, mix of adherent and suspension, suspension</t>
+  </si>
+  <si>
+    <t>Observed growth properties of the related model</t>
+  </si>
+  <si>
+    <t>Unique ID of the patient tumour sample used to generate the model</t>
+  </si>
+  <si>
+    <t>CRC0014LM-P1</t>
+  </si>
+  <si>
+    <t>MSI Status, Ploidy status</t>
+  </si>
+  <si>
+    <t>Most common name associate with model. Please use the CCLE name if available</t>
+  </si>
+  <si>
+    <t>DSMZ:ACC-497</t>
+  </si>
+  <si>
+    <t>URL</t>
+  </si>
+  <si>
+    <t>passage</t>
+  </si>
+  <si>
+    <t>magnification</t>
+  </si>
+  <si>
+    <t>staining</t>
+  </si>
+  <si>
+    <t>Description of the image on what was being imaged</t>
+  </si>
+  <si>
+    <t>Type of sample being imaged</t>
+  </si>
+  <si>
+    <t>pdx</t>
+  </si>
+  <si>
+    <t>pdx, pateint, organoid, cell line</t>
+  </si>
+  <si>
+    <t>numeric</t>
+  </si>
+  <si>
+    <t>Passage number imaging was performed. Passage 0 correspond to first engraftment (if this is not the case please define how passages are numbered).</t>
+  </si>
+  <si>
+    <t>Magnification of the mode image</t>
+  </si>
+  <si>
+    <t>20x</t>
+  </si>
+  <si>
+    <t>Staining used for imaging the sample</t>
+  </si>
+  <si>
+    <t>Link to the model image</t>
+  </si>
+  <si>
+    <t>P2 tumor ID018 for PDX model J000077451 stained for H&amp;E.</t>
+  </si>
+  <si>
+    <t>https://www.ebi.ac.uk/biostudies/files/S-BIAD850/submission/J000077451/J000077451180207133606.tiff</t>
+  </si>
+  <si>
+    <t>J000077451</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>The title for your dataset. This will be displayed when search results including your data are shown. Often this will be the same as an associated publication.</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Use this field to describe your dataset. This can be the abstract to an accompanying publication. </t>
+  </si>
+  <si>
+    <t>Licence</t>
+  </si>
+  <si>
+    <t>The licence under which the data are available.</t>
+  </si>
+  <si>
+    <t>contact</t>
+  </si>
+  <si>
+    <t>Add the contact details for the authors involved in the study.</t>
+  </si>
+  <si>
+    <t>What is being imaged</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> High level description of sample</t>
+  </si>
+  <si>
+    <t>sample_description</t>
+  </si>
+  <si>
+    <t>sample_organism</t>
+  </si>
+  <si>
+    <t>Sample_preparation_protocol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How the sample was prepared for imaging. </t>
+  </si>
+  <si>
+    <t>Imaging_instrument</t>
+  </si>
+  <si>
+    <t>Image_acquisition_parameters</t>
+  </si>
+  <si>
+    <t>Imaging_method</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Description of the instrument used to capture the images. </t>
+  </si>
+  <si>
+    <t>How the images were acquired, including instrument settings/parameters.</t>
+  </si>
+  <si>
+    <t>What method was used to capture images.</t>
+  </si>
+  <si>
+    <t>Study_id</t>
+  </si>
+  <si>
+    <t>Accession number for BioImage Archive study</t>
+  </si>
+  <si>
+    <t>S-BIAD850</t>
+  </si>
+  <si>
+    <t>Mouse models of Human Cancer - Histology image</t>
+  </si>
+  <si>
+    <t>This submission contains the histology images for the PDX models available in Mouse models of Human Cancer database.</t>
+  </si>
+  <si>
+    <t>cc0</t>
+  </si>
+  <si>
+    <t>Mus musculus (mouse)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The NOD.Cg-Prkdcscid Il2rgtm1Wjl/SzJ mice, most often known by their branded name, NOD scid gamma (NSG™), do not express the Prkdc gene nor the X-linked Il2rg gene. </t>
+  </si>
+  <si>
+    <t>Patient Derived Xenograft models are generated by engrafting fragments from human tumors in immunodeficient or humanized mouse hosts.</t>
+  </si>
+  <si>
+    <t>Microscope</t>
+  </si>
+  <si>
+    <t>Histology (H&amp;E) an/or immunohistochemistry (IHC) images associated with specific tumor frequency records.</t>
+  </si>
+  <si>
+    <t>microscopy</t>
+  </si>
+  <si>
+    <t>Cancer relevant comorbidity or environmental exposure.</t>
+  </si>
+  <si>
+    <t>Patient Ethnic group. Can be derived from self-assessment or genetic analysis.</t>
+  </si>
+  <si>
+    <t>Diagnosis of the patient when first diagnosed at age_at_initial_diagnosis - this can be different from the diagnosis at the time of collection which is collected in the sample section. No acronyms.</t>
+  </si>
+  <si>
     <r>
-      <t xml:space="preserve">If model has been part of a published study include pubmed IDs </t>
+      <t>T</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF595959"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">his is the age of first diagnosis. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF595959"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>Can be prior to the age at which the tissue sample was collected for PDX implant.</t>
+    </r>
+  </si>
+  <si>
+    <t>age_category</t>
+  </si>
+  <si>
+    <t>Age category at time of sampling </t>
+  </si>
+  <si>
+    <t>Adult</t>
+  </si>
+  <si>
+    <t>smoking_status</t>
+  </si>
+  <si>
+    <t>Patient's smoking history</t>
+  </si>
+  <si>
+    <t>current smoker, 1 pack per day</t>
+  </si>
+  <si>
+    <t>alcohol_status</t>
+  </si>
+  <si>
+    <t>Alcohol intake of the patient, self-reported</t>
+  </si>
+  <si>
+    <t>alcohol_frequency</t>
+  </si>
+  <si>
+    <t>The average number of days per week on which the patient consumes alcohol, self-reported</t>
+  </si>
+  <si>
+    <t>3 days/week</t>
+  </si>
+  <si>
+    <t>family_history_of_cancer</t>
+  </si>
+  <si>
+    <t>If a first-degree relative of the patient has been diagnosed with a cancer of the same or different type</t>
+  </si>
+  <si>
+    <t>Date of collections - if this is not available please indicate in column E, F collection events and the elapsed times between the collection. Important for understanding the time relationship between models generated for the same patient.</t>
+  </si>
+  <si>
+    <r>
+      <t>Unique anonymous/de-identified provider ID for the patient. ID</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF595959"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF595959"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>s must be defined in the patient sheet.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>I</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF595959"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">F DATE ENTERED IN collection_date DO NOT FILL, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF595959"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> provide the time difference between the 1st collection event and the current one (in months) - collection event 1  should be 0, collection event 2 should be 6 if 6 months have elapsed between collection 1 and  collection 2 and collection event 3 should be 9 if 9 months have elapsed between collection 1 and collection 3 </t>
+    </r>
+  </si>
+  <si>
+    <t>Grade classification correspondingly used to describe the stage, or Not Specified Add the version if available.</t>
+  </si>
+  <si>
+    <t>Positive virology status at the time of collection. Any relevant virology information which can influence cancer like EBV, HIV,HPV status.</t>
+  </si>
+  <si>
+    <t>Is patient treatment information available and shareable? If yes fill out following treatment columns: treatment_naive_at_collection, treated_at_collection, treated_prior_to_collection.</t>
+  </si>
+  <si>
+    <t>collection_method</t>
+  </si>
+  <si>
+    <t>Method of collection of the tissue sample</t>
+  </si>
+  <si>
+    <t>biopsy</t>
+  </si>
+  <si>
+    <t>gene_mutation_status</t>
+  </si>
+  <si>
+    <t>Outcome of mutational status tests for the following genes: BRAF, PIK3CA, PTEN, KRAS</t>
+  </si>
+  <si>
+    <t>KRAS:G12C</t>
+  </si>
+  <si>
+    <t>HLA_type</t>
+  </si>
+  <si>
+    <t>HLA type</t>
+  </si>
+  <si>
+    <t>HLA-A</t>
+  </si>
+  <si>
+    <t>HGNC Symbols</t>
+  </si>
+  <si>
+    <t>Adult, Pediatric, Fetus, Not collected, Not provided</t>
+  </si>
+  <si>
+    <t>Current smoker, ex-smoker, non-smoker, never smoked; free text</t>
+  </si>
+  <si>
+    <t>free alphanumerical </t>
+  </si>
+  <si>
+    <t>Biopsy, surgical resection, blood draw, free text</t>
+  </si>
+  <si>
+    <t>response_to_treatment</t>
+  </si>
+  <si>
+    <t>Patient’s response to treatment.</t>
+  </si>
+  <si>
+    <t>Progressive disease</t>
+  </si>
+  <si>
+    <t>RECIST criteria: CR, PR, PD, SD</t>
+  </si>
+  <si>
+    <t>model_name</t>
+  </si>
+  <si>
+    <t>model_name_aliases</t>
+  </si>
+  <si>
+    <t>Additional model names, if known</t>
+  </si>
+  <si>
+    <t>A 549</t>
+  </si>
+  <si>
+    <t>Please provide the supliers brief acronym or name followed by a colon and the number or name use to reference the model</t>
+  </si>
+  <si>
+    <t>Depmap accession, Cellosaurus accession or other id. Please place in comma separated list</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">If the model has been part of a published study, include pubmed IDs </t>
     </r>
     <r>
       <rPr>
@@ -872,38 +1138,230 @@
     </r>
   </si>
   <si>
-    <t>LAMA84_HAEMATOPOIETIC_AND_LYMPHOID_TISSUE</t>
-  </si>
-  <si>
-    <t>organoid, CRC, 3-D other, cell model</t>
-  </si>
-  <si>
-    <t>embedded 3d culture</t>
-  </si>
-  <si>
-    <t>One of the following: organoid, CRC, 3-D other, cell model</t>
-  </si>
-  <si>
-    <t>One of the following: embedded 3d culture, adherent, mix of adherent and suspension, suspension</t>
-  </si>
-  <si>
-    <t>Observed growth properties of the related model</t>
-  </si>
-  <si>
-    <t>Unique ID of the patient tumour sample used to generate the model</t>
-  </si>
-  <si>
-    <t>CRC0014LM-P1</t>
-  </si>
-  <si>
-    <t>MSI Status, Ploidy status</t>
+    <t>media_id</t>
+  </si>
+  <si>
+    <t>MF-002-001</t>
+  </si>
+  <si>
+    <t>growth_media</t>
+  </si>
+  <si>
+    <t>Base media formulation the model was grown in</t>
+  </si>
+  <si>
+    <t>DMEM</t>
+  </si>
+  <si>
+    <t>plate_coating</t>
+  </si>
+  <si>
+    <t>Coating on plate model was grown in</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>Laminin, Matrigel, Collagen, None</t>
+  </si>
+  <si>
+    <t>other_plate_coating</t>
+  </si>
+  <si>
+    <t>Other coating on plate model was grown in (not mentioned above)</t>
+  </si>
+  <si>
+    <t>Peg-based hydrogel, none</t>
+  </si>
+  <si>
+    <t>Passage number at time of sequencing/screening</t>
+  </si>
+  <si>
+    <t>Freetext</t>
+  </si>
+  <si>
+    <t>contaminated</t>
+  </si>
+  <si>
+    <t>Is there contamination present in the model</t>
+  </si>
+  <si>
+    <t>Y/N</t>
+  </si>
+  <si>
+    <t>contamination_details</t>
+  </si>
+  <si>
+    <t>What are the details of the contamination</t>
+  </si>
+  <si>
+    <t>mycoplasma</t>
+  </si>
+  <si>
+    <t>supplements</t>
+  </si>
+  <si>
+    <t>Additional supplements the model was grown with</t>
+  </si>
+  <si>
+    <t>10% R-spondin, 10% Noggin, 10% FBS</t>
+  </si>
+  <si>
+    <t>drug</t>
+  </si>
+  <si>
+    <t>Additional drug/compounds the model was grown with</t>
+  </si>
+  <si>
+    <t>EGF</t>
+  </si>
+  <si>
+    <t>drug_concentration</t>
+  </si>
+  <si>
+    <t>Concentration of Additional drug/compounds the model was grown with</t>
+  </si>
+  <si>
+    <t>50ng/ml</t>
+  </si>
+  <si>
+    <t>Unique identifier for each media formulation (Catalogue number)</t>
+  </si>
+  <si>
+    <t>supplier_type</t>
+  </si>
+  <si>
+    <t>Model supplier type - commercial, academic, other</t>
+  </si>
+  <si>
+    <t>Commercial</t>
+  </si>
+  <si>
+    <t>Commerical, Academic, Other</t>
+  </si>
+  <si>
+    <t>catalog_number</t>
+  </si>
+  <si>
+    <t>Catalogue number of cell model, if commercial</t>
+  </si>
+  <si>
+    <t>CCL-185</t>
+  </si>
+  <si>
+    <t>vendor_link</t>
+  </si>
+  <si>
+    <t>Link to purchasable cell model, if commercial</t>
+  </si>
+  <si>
+    <t>https://www.atcc.org/products/ccl-185</t>
+  </si>
+  <si>
+    <t>rrid</t>
+  </si>
+  <si>
+    <t>Cellosaurus ID</t>
+  </si>
+  <si>
+    <t>CVCL_0023</t>
+  </si>
+  <si>
+    <t>related_models</t>
+  </si>
+  <si>
+    <t>Model_ids of any related models linked to the same patient. </t>
+  </si>
+  <si>
+    <t>A088a</t>
+  </si>
+  <si>
+    <t>free alphanumerical and _~. Separated by commas in case of multiple models</t>
+  </si>
+  <si>
+    <t>msi_status</t>
+  </si>
+  <si>
+    <t>MSI status of the model</t>
+  </si>
+  <si>
+    <t>MSS</t>
+  </si>
+  <si>
+    <t>MSI: Miscosatellite Instable, MSS: Miscrosatellite stable</t>
+  </si>
+  <si>
+    <t>mutational_burden</t>
+  </si>
+  <si>
+    <t>Mutational rate per Mb </t>
+  </si>
+  <si>
+    <t>ploidy</t>
+  </si>
+  <si>
+    <t>Ploidy status of the model</t>
+  </si>
+  <si>
+    <t>morphological_features</t>
+  </si>
+  <si>
+    <t>Morphological features of the model</t>
+  </si>
+  <si>
+    <t>elongated</t>
+  </si>
+  <si>
+    <t>histological_validation</t>
+  </si>
+  <si>
+    <t>Immunofluorescent or immunohistochemical validation of the model </t>
+  </si>
+  <si>
+    <t>High concordance</t>
+  </si>
+  <si>
+    <t>Free text</t>
+  </si>
+  <si>
+    <t>SNP_analysis</t>
+  </si>
+  <si>
+    <t>Was SNP analysis done on the model?</t>
+  </si>
+  <si>
+    <t>Yes, no</t>
+  </si>
+  <si>
+    <t>STR_analysis</t>
+  </si>
+  <si>
+    <t>Was STR analysis done on the model?</t>
+  </si>
+  <si>
+    <t>tumour_status</t>
+  </si>
+  <si>
+    <t>Gene expression validation of established model</t>
+  </si>
+  <si>
+    <t>model_purity</t>
+  </si>
+  <si>
+    <t>Presence of tumour vs stroma or normal cells</t>
+  </si>
+  <si>
+    <t>Comments about the model that cannot be expressed by other fields</t>
+  </si>
+  <si>
+    <t>free text , not collected or not provided</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="30">
+  <fonts count="26">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -1046,22 +1504,9 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FF4A86E8"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color rgb="FF595959"/>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF595959"/>
-      <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
@@ -1079,30 +1524,10 @@
       <family val="2"/>
     </font>
     <font>
-      <i/>
-      <sz val="12"/>
-      <color rgb="FF595959"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color rgb="FF595959"/>
       <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF595959"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="12"/>
-      <color rgb="FF595959"/>
-      <name val="&quot;Arial&quot;"/>
-      <charset val="1"/>
     </font>
     <font>
       <b/>
@@ -1115,6 +1540,12 @@
       <b/>
       <sz val="12"/>
       <color rgb="FF274E13"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -1241,7 +1672,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1312,9 +1743,6 @@
     <xf numFmtId="49" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1363,72 +1791,33 @@
     <xf numFmtId="49" fontId="18" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="18" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="17" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="21" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="17" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="23" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="24" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="24" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="24" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="23" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="25" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="26" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="25" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="25" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="28" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="28" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="29" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="28" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1516,9 +1905,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1556,7 +1945,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1662,7 +2051,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1804,7 +2193,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1814,9 +2203,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMK113"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
-    </sheetView>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <cols>
@@ -1831,7 +2218,7 @@
     <col min="9" max="1025" width="11.1640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="4" customFormat="1" ht="54" customHeight="1">
+    <row r="1" spans="1:13" s="4" customFormat="1" ht="54" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1856,8 +2243,23 @@
       <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
+      <c r="I1" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>250</v>
+      </c>
     </row>
-    <row r="2" spans="1:8" ht="60">
+    <row r="2" spans="1:13" ht="120">
       <c r="A2" s="5" t="s">
         <v>8</v>
       </c>
@@ -1868,126 +2270,212 @@
         <v>10</v>
       </c>
       <c r="D2" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="G2" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="29" customHeight="1">
+      <c r="A3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="B3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="C3" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="D3" s="7" t="s">
         <v>15</v>
       </c>
+      <c r="E3" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="M3" s="7" t="s">
+        <v>74</v>
+      </c>
     </row>
-    <row r="3" spans="1:8" ht="29" customHeight="1">
-      <c r="A3" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="7" t="s">
+    <row r="4" spans="1:13" ht="59" customHeight="1">
+      <c r="A4" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="B4" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="C4" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="D4" s="8" t="s">
         <v>23</v>
       </c>
+      <c r="E4" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="K4" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="L4" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="M4" s="8" t="s">
+        <v>137</v>
+      </c>
     </row>
-    <row r="4" spans="1:8" ht="59" customHeight="1">
-      <c r="A4" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" s="8" t="s">
+    <row r="5" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A5" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="B5" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="F4" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="G4" s="8" t="s">
+      <c r="C5" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="H4" s="8" t="s">
-        <v>30</v>
+      <c r="E5" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="J5" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="K5" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="L5" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="M5" s="11" t="s">
+        <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A5" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="G5" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="H5" s="11" t="s">
-        <v>33</v>
-      </c>
+    <row r="6" spans="1:13" ht="15.75" customHeight="1"/>
+    <row r="7" spans="1:13" ht="15.75" customHeight="1">
+      <c r="H7" s="48"/>
+      <c r="I7" s="49"/>
+      <c r="J7" s="49"/>
     </row>
-    <row r="6" spans="1:8" ht="15.75" customHeight="1"/>
-    <row r="7" spans="1:8" ht="15.75" customHeight="1"/>
-    <row r="8" spans="1:8" ht="15.75" customHeight="1"/>
-    <row r="9" spans="1:8" ht="15.75" customHeight="1"/>
-    <row r="10" spans="1:8" ht="15.75" customHeight="1"/>
-    <row r="11" spans="1:8" ht="15.75" customHeight="1"/>
-    <row r="12" spans="1:8" ht="15.75" customHeight="1"/>
-    <row r="13" spans="1:8" ht="15.75" customHeight="1"/>
-    <row r="14" spans="1:8" ht="15.75" customHeight="1"/>
-    <row r="15" spans="1:8" ht="15.75" customHeight="1"/>
-    <row r="16" spans="1:8" ht="15.75" customHeight="1"/>
-    <row r="17" ht="15.75" customHeight="1"/>
-    <row r="18" ht="15.75" customHeight="1"/>
-    <row r="19" ht="15.75" customHeight="1"/>
-    <row r="20" ht="15.75" customHeight="1"/>
-    <row r="21" ht="15.75" customHeight="1"/>
-    <row r="22" ht="15.75" customHeight="1"/>
-    <row r="23" ht="15.75" customHeight="1"/>
-    <row r="24" ht="15.75" customHeight="1"/>
-    <row r="25" ht="15.75" customHeight="1"/>
-    <row r="26" ht="15.75" customHeight="1"/>
-    <row r="27" ht="15.75" customHeight="1"/>
-    <row r="28" ht="15.75" customHeight="1"/>
-    <row r="29" ht="15.75" customHeight="1"/>
-    <row r="30" ht="15.75" customHeight="1"/>
-    <row r="31" ht="15.75" customHeight="1"/>
-    <row r="32" ht="15.75" customHeight="1"/>
+    <row r="8" spans="1:13" ht="15.75" customHeight="1">
+      <c r="H8" s="48"/>
+      <c r="I8" s="49"/>
+      <c r="J8" s="49"/>
+    </row>
+    <row r="9" spans="1:13" ht="15.75" customHeight="1">
+      <c r="H9" s="48"/>
+      <c r="I9" s="49"/>
+      <c r="J9" s="49"/>
+    </row>
+    <row r="10" spans="1:13" ht="15.75" customHeight="1"/>
+    <row r="11" spans="1:13" ht="15.75" customHeight="1">
+      <c r="H11" s="48"/>
+      <c r="I11" s="49"/>
+      <c r="J11" s="49"/>
+    </row>
+    <row r="12" spans="1:13" ht="15.75" customHeight="1"/>
+    <row r="13" spans="1:13" ht="15.75" customHeight="1">
+      <c r="H13" s="49"/>
+    </row>
+    <row r="14" spans="1:13" ht="15.75" customHeight="1">
+      <c r="H14" s="49"/>
+    </row>
+    <row r="15" spans="1:13" ht="15.75" customHeight="1">
+      <c r="H15" s="49"/>
+    </row>
+    <row r="16" spans="1:13" ht="15.75" customHeight="1">
+      <c r="H16" s="49"/>
+    </row>
+    <row r="17" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H17" s="49"/>
+    </row>
+    <row r="18" spans="8:8" ht="15.75" customHeight="1"/>
+    <row r="19" spans="8:8" ht="15.75" customHeight="1"/>
+    <row r="20" spans="8:8" ht="15.75" customHeight="1"/>
+    <row r="21" spans="8:8" ht="15.75" customHeight="1"/>
+    <row r="22" spans="8:8" ht="15.75" customHeight="1"/>
+    <row r="23" spans="8:8" ht="15.75" customHeight="1"/>
+    <row r="24" spans="8:8" ht="15.75" customHeight="1"/>
+    <row r="25" spans="8:8" ht="15.75" customHeight="1"/>
+    <row r="26" spans="8:8" ht="15.75" customHeight="1"/>
+    <row r="27" spans="8:8" ht="15.75" customHeight="1"/>
+    <row r="28" spans="8:8" ht="15.75" customHeight="1"/>
+    <row r="29" spans="8:8" ht="15.75" customHeight="1"/>
+    <row r="30" spans="8:8" ht="15.75" customHeight="1"/>
+    <row r="31" spans="8:8" ht="15.75" customHeight="1"/>
+    <row r="32" spans="8:8" ht="15.75" customHeight="1"/>
     <row r="33" ht="15.75" customHeight="1"/>
     <row r="34" ht="15.75" customHeight="1"/>
     <row r="35" ht="15.75" customHeight="1"/>
@@ -2081,11 +2569,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AMK980"/>
+  <dimension ref="A1:AMO980"/>
   <sheetViews>
-    <sheetView topLeftCell="R1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="R2" sqref="R2"/>
-    </sheetView>
+    <sheetView zoomScale="87" zoomScaleNormal="87" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <cols>
@@ -2099,19 +2585,19 @@
     <col min="8" max="8" width="73.1640625" style="12" customWidth="1"/>
     <col min="9" max="9" width="22.1640625" style="12" customWidth="1"/>
     <col min="10" max="10" width="30.83203125" style="12" customWidth="1"/>
-    <col min="11" max="11" width="36.6640625" style="12" customWidth="1"/>
-    <col min="12" max="12" width="22.1640625" style="12" customWidth="1"/>
-    <col min="13" max="13" width="25" style="12" customWidth="1"/>
-    <col min="14" max="14" width="17.5" style="12" customWidth="1"/>
-    <col min="15" max="15" width="18.6640625" style="12" customWidth="1"/>
-    <col min="16" max="16" width="34.33203125" style="12" customWidth="1"/>
-    <col min="17" max="19" width="31.83203125" style="12" customWidth="1"/>
-    <col min="20" max="20" width="26.1640625" style="12" customWidth="1"/>
-    <col min="21" max="21" width="28.83203125" style="12" customWidth="1"/>
-    <col min="22" max="1025" width="11.1640625" style="12" customWidth="1"/>
+    <col min="11" max="12" width="36.6640625" style="12" customWidth="1"/>
+    <col min="13" max="13" width="22.1640625" style="12" customWidth="1"/>
+    <col min="14" max="14" width="25" style="12" customWidth="1"/>
+    <col min="15" max="15" width="17.5" style="12" customWidth="1"/>
+    <col min="16" max="16" width="18.6640625" style="12" customWidth="1"/>
+    <col min="17" max="19" width="34.33203125" style="12" customWidth="1"/>
+    <col min="20" max="22" width="31.83203125" style="12" customWidth="1"/>
+    <col min="23" max="24" width="26.1640625" style="12" customWidth="1"/>
+    <col min="25" max="25" width="28.83203125" style="12" customWidth="1"/>
+    <col min="26" max="1029" width="11.1640625" style="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="4" customFormat="1" ht="49" customHeight="1">
+    <row r="1" spans="1:27" s="4" customFormat="1" ht="49" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2119,334 +2605,423 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="H1" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="I1" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="J1" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="K1" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="L1" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="M1" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="N1" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="O1" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="P1" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="L1" s="14" t="s">
+      <c r="Q1" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="M1" s="14" t="s">
+      <c r="R1" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="T1" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="N1" s="15" t="s">
+      <c r="U1" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="O1" s="15" t="s">
+      <c r="V1" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="W1" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="X1" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="Y1" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="R1" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="S1" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="T1" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="U1" s="3" t="s">
-        <v>52</v>
-      </c>
     </row>
-    <row r="2" spans="1:21" ht="109" customHeight="1">
+    <row r="2" spans="1:27" ht="109" customHeight="1">
       <c r="A2" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>252</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>254</v>
+      </c>
+      <c r="G2" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="I2" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="J2" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="K2" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="L2" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="M2" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="F2" s="16" t="s">
+      <c r="N2" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="G2" s="16" t="s">
+      <c r="O2" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="P2" s="19" t="s">
+        <v>255</v>
+      </c>
+      <c r="Q2" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="R2" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="S2" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="T2" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="U2" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="V2" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="W2" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="X2" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="Y2" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="L2" s="18" t="s">
+    </row>
+    <row r="3" spans="1:27" ht="64.25" customHeight="1">
+      <c r="A3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="M2" s="18" t="s">
+      <c r="D3" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="N2" s="19" t="s">
+      <c r="E3" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="O2" s="19" t="s">
+      <c r="F3" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="P2" s="6" t="s">
+      <c r="G3" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="Q2" s="6" t="s">
+      <c r="J3" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="R2" s="6" t="s">
+      <c r="K3" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="M3" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="S2" s="6" t="s">
+      <c r="N3" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="T2" s="6" t="s">
+      <c r="O3" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="U2" s="6" t="s">
+      <c r="P3" s="23" t="s">
         <v>72</v>
       </c>
+      <c r="Q3" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="R3" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="S3" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="T3" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="U3" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="V3" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="W3" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="X3" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="Y3" s="7" t="s">
+        <v>76</v>
+      </c>
     </row>
-    <row r="3" spans="1:21" ht="64.25" customHeight="1">
-      <c r="A3" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="D3" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="E3" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="F3" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="G3" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="I3" s="7" t="s">
+    <row r="4" spans="1:27" ht="79.75" customHeight="1">
+      <c r="A4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="J3" s="7" t="s">
+      <c r="D4" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="K3" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="L3" s="22" t="s">
+      <c r="E4" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="M3" s="22" t="s">
+      <c r="F4" s="24" t="s">
         <v>80</v>
       </c>
-      <c r="N3" s="23" t="s">
+      <c r="G4" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="H4" s="26" t="s">
         <v>81</v>
       </c>
-      <c r="O3" s="23" t="s">
+      <c r="I4" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="P3" s="7" t="s">
+      <c r="J4" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="Q3" s="7" t="s">
+      <c r="K4" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="R3" s="7" t="s">
+      <c r="L4" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="M4" s="27" t="s">
         <v>85</v>
       </c>
-      <c r="S3" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="T3" s="24" t="s">
+      <c r="N4" s="27" t="s">
         <v>85</v>
       </c>
-      <c r="U3" s="7" t="s">
+      <c r="O4" s="28" t="s">
+        <v>85</v>
+      </c>
+      <c r="P4" s="28" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q4" s="8" t="s">
         <v>86</v>
       </c>
+      <c r="R4" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="S4" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="T4" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="U4" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="V4" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="W4" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="X4" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="Y4" s="8" t="s">
+        <v>91</v>
+      </c>
     </row>
-    <row r="4" spans="1:21" ht="79.75" customHeight="1">
-      <c r="A4" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="D4" s="25" t="s">
-        <v>88</v>
-      </c>
-      <c r="E4" s="26" t="s">
-        <v>89</v>
-      </c>
-      <c r="F4" s="25" t="s">
-        <v>90</v>
-      </c>
-      <c r="G4" s="25" t="s">
-        <v>90</v>
-      </c>
-      <c r="H4" s="27" t="s">
-        <v>91</v>
-      </c>
-      <c r="I4" s="6" t="s">
+    <row r="5" spans="1:27" ht="31" customHeight="1">
+      <c r="A5" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="J4" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="K4" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="L4" s="28" t="s">
-        <v>95</v>
-      </c>
-      <c r="M4" s="28" t="s">
-        <v>95</v>
-      </c>
-      <c r="N4" s="29" t="s">
-        <v>95</v>
-      </c>
-      <c r="O4" s="29" t="s">
-        <v>95</v>
-      </c>
-      <c r="P4" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q4" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="R4" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="S4" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="T4" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="U4" s="8" t="s">
-        <v>101</v>
+      <c r="E5" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="F5" s="29" t="s">
+        <v>92</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="J5" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="K5" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="L5" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="M5" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="N5" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="O5" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="P5" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q5" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="R5" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="S5" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="T5" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="U5" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="V5" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="W5" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="X5" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y5" s="30" t="s">
+        <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="31" customHeight="1">
-      <c r="A5" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="F5" s="30" t="s">
-        <v>102</v>
-      </c>
-      <c r="G5" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="H5" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="I5" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="J5" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="K5" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="L5" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="M5" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="N5" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="O5" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="P5" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q5" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="R5" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="S5" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="T5" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="U5" s="31" t="s">
-        <v>32</v>
-      </c>
+    <row r="6" spans="1:27" ht="15.75" customHeight="1"/>
+    <row r="7" spans="1:27" ht="15.75" customHeight="1"/>
+    <row r="8" spans="1:27" ht="15.75" customHeight="1">
+      <c r="I8" s="48"/>
+      <c r="J8" s="49"/>
+      <c r="K8" s="49"/>
+      <c r="L8" s="49"/>
     </row>
-    <row r="6" spans="1:21" ht="15.75" customHeight="1"/>
-    <row r="7" spans="1:21" ht="15.75" customHeight="1"/>
-    <row r="8" spans="1:21" ht="15.75" customHeight="1"/>
-    <row r="9" spans="1:21" ht="15.75" customHeight="1"/>
-    <row r="10" spans="1:21" ht="15.75" customHeight="1"/>
-    <row r="11" spans="1:21" ht="15.75" customHeight="1"/>
-    <row r="12" spans="1:21" ht="15.75" customHeight="1"/>
-    <row r="13" spans="1:21" ht="15.75" customHeight="1"/>
-    <row r="14" spans="1:21" ht="15.75" customHeight="1"/>
-    <row r="15" spans="1:21" ht="15.75" customHeight="1"/>
-    <row r="16" spans="1:21" ht="15.75" customHeight="1"/>
+    <row r="9" spans="1:27" ht="15.75" customHeight="1"/>
+    <row r="10" spans="1:27" ht="15.75" customHeight="1">
+      <c r="K10" s="48"/>
+      <c r="L10" s="49"/>
+      <c r="M10" s="49"/>
+    </row>
+    <row r="11" spans="1:27" ht="15.75" customHeight="1">
+      <c r="K11" s="48"/>
+      <c r="L11" s="49"/>
+      <c r="M11" s="49"/>
+      <c r="Q11" s="48"/>
+      <c r="R11" s="48"/>
+      <c r="S11" s="48"/>
+    </row>
+    <row r="12" spans="1:27" ht="15.75" customHeight="1">
+      <c r="Q12" s="49"/>
+      <c r="R12" s="49"/>
+      <c r="S12" s="49"/>
+    </row>
+    <row r="13" spans="1:27" ht="15.75" customHeight="1">
+      <c r="Q13" s="49"/>
+      <c r="R13" s="49"/>
+      <c r="S13" s="49"/>
+      <c r="W13" s="48"/>
+      <c r="X13" s="49"/>
+      <c r="Y13" s="49"/>
+      <c r="Z13" s="49"/>
+      <c r="AA13" s="50"/>
+    </row>
+    <row r="14" spans="1:27" ht="15.75" customHeight="1"/>
+    <row r="15" spans="1:27" ht="15.75" customHeight="1"/>
+    <row r="16" spans="1:27" ht="15.75" customHeight="1"/>
     <row r="17" ht="15.75" customHeight="1"/>
     <row r="18" ht="15.75" customHeight="1"/>
     <row r="19" ht="15.75" customHeight="1"/>
@@ -3416,7 +3991,7 @@
     <hyperlink ref="H4" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
     <hyperlink ref="J4" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
     <hyperlink ref="K4" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
-    <hyperlink ref="P4" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+    <hyperlink ref="Q4" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
@@ -3427,8 +4002,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AMK982"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
@@ -3446,177 +4021,351 @@
     <col min="11" max="1025" width="11.1640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="4" customFormat="1" ht="44" customHeight="1">
+    <row r="1" spans="1:22" s="4" customFormat="1" ht="44" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="G1" s="14" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="H1" s="14" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>110</v>
+        <v>100</v>
+      </c>
+      <c r="K1" s="39" t="s">
+        <v>326</v>
+      </c>
+      <c r="L1" s="39" t="s">
+        <v>170</v>
+      </c>
+      <c r="M1" s="39" t="s">
+        <v>330</v>
+      </c>
+      <c r="N1" s="39" t="s">
+        <v>334</v>
+      </c>
+      <c r="O1" s="39" t="s">
+        <v>336</v>
+      </c>
+      <c r="P1" s="39" t="s">
+        <v>338</v>
+      </c>
+      <c r="Q1" s="39" t="s">
+        <v>341</v>
+      </c>
+      <c r="R1" s="39" t="s">
+        <v>345</v>
+      </c>
+      <c r="S1" s="39" t="s">
+        <v>348</v>
+      </c>
+      <c r="T1" s="39" t="s">
+        <v>350</v>
+      </c>
+      <c r="U1" s="39" t="s">
+        <v>352</v>
+      </c>
+      <c r="V1" s="39" t="s">
+        <v>168</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="120">
+    <row r="2" spans="1:22" ht="120">
       <c r="A2" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="F2" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="G2" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="H2" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="K2" s="41" t="s">
+        <v>327</v>
+      </c>
+      <c r="L2" s="41" t="s">
+        <v>174</v>
+      </c>
+      <c r="M2" s="41" t="s">
+        <v>331</v>
+      </c>
+      <c r="N2" s="41" t="s">
+        <v>335</v>
+      </c>
+      <c r="O2" s="41" t="s">
+        <v>337</v>
+      </c>
+      <c r="P2" s="41" t="s">
+        <v>339</v>
+      </c>
+      <c r="Q2" s="41" t="s">
+        <v>342</v>
+      </c>
+      <c r="R2" s="41" t="s">
+        <v>346</v>
+      </c>
+      <c r="S2" s="41" t="s">
+        <v>349</v>
+      </c>
+      <c r="T2" s="41" t="s">
+        <v>351</v>
+      </c>
+      <c r="U2" s="41" t="s">
+        <v>353</v>
+      </c>
+      <c r="V2" s="41" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" ht="51">
+      <c r="A3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="C3" s="23" t="s">
         <v>111</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="D3" s="23" t="s">
         <v>112</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="E3" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="F3" s="22" t="s">
         <v>113</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="G3" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="H3" s="22" t="s">
         <v>115</v>
       </c>
-      <c r="G2" s="18" t="s">
+      <c r="I3" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="H2" s="18" t="s">
+      <c r="J3" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="K3" s="43" t="s">
+        <v>328</v>
+      </c>
+      <c r="L3" s="43" t="s">
+        <v>325</v>
+      </c>
+      <c r="M3" s="43" t="s">
+        <v>332</v>
+      </c>
+      <c r="N3" s="43">
+        <v>4.76</v>
+      </c>
+      <c r="O3" s="43">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="P3" s="43" t="s">
+        <v>340</v>
+      </c>
+      <c r="Q3" s="43" t="s">
+        <v>343</v>
+      </c>
+      <c r="R3" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="S3" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="T3" s="43"/>
+      <c r="U3" s="43"/>
+      <c r="V3" s="43"/>
+    </row>
+    <row r="4" spans="1:22" ht="74.5" customHeight="1">
+      <c r="A4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="C4" s="28" t="s">
         <v>118</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="D4" s="31" t="s">
         <v>119</v>
       </c>
+      <c r="E4" s="27" t="s">
+        <v>120</v>
+      </c>
+      <c r="F4" s="27" t="s">
+        <v>121</v>
+      </c>
+      <c r="G4" s="27" t="s">
+        <v>122</v>
+      </c>
+      <c r="H4" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="K4" s="43" t="s">
+        <v>329</v>
+      </c>
+      <c r="L4" s="43" t="s">
+        <v>158</v>
+      </c>
+      <c r="M4" s="43" t="s">
+        <v>333</v>
+      </c>
+      <c r="N4" s="43" t="s">
+        <v>80</v>
+      </c>
+      <c r="O4" s="43" t="s">
+        <v>80</v>
+      </c>
+      <c r="P4" s="43" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q4" s="43" t="s">
+        <v>344</v>
+      </c>
+      <c r="R4" s="43" t="s">
+        <v>347</v>
+      </c>
+      <c r="S4" s="43" t="s">
+        <v>347</v>
+      </c>
+      <c r="T4" s="43" t="s">
+        <v>344</v>
+      </c>
+      <c r="U4" s="43" t="s">
+        <v>344</v>
+      </c>
+      <c r="V4" s="43" t="s">
+        <v>355</v>
+      </c>
     </row>
-    <row r="3" spans="1:10" ht="34">
-      <c r="A3" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="C3" s="23" t="s">
-        <v>121</v>
-      </c>
-      <c r="D3" s="23" t="s">
-        <v>122</v>
-      </c>
-      <c r="E3" s="22" t="s">
-        <v>78</v>
-      </c>
-      <c r="F3" s="22" t="s">
-        <v>123</v>
-      </c>
-      <c r="G3" s="22" t="s">
-        <v>124</v>
-      </c>
-      <c r="H3" s="22" t="s">
-        <v>125</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="J3" s="7" t="s">
-        <v>127</v>
+    <row r="5" spans="1:22" ht="15.75" customHeight="1">
+      <c r="A5" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="I5" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="J5" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="K5" s="45" t="s">
+        <v>162</v>
+      </c>
+      <c r="L5" s="46" t="s">
+        <v>29</v>
+      </c>
+      <c r="M5" s="46" t="s">
+        <v>29</v>
+      </c>
+      <c r="N5" s="46" t="s">
+        <v>29</v>
+      </c>
+      <c r="O5" s="46" t="s">
+        <v>29</v>
+      </c>
+      <c r="P5" s="45" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q5" s="45" t="s">
+        <v>28</v>
+      </c>
+      <c r="R5" s="45" t="s">
+        <v>28</v>
+      </c>
+      <c r="S5" s="45" t="s">
+        <v>28</v>
+      </c>
+      <c r="T5" s="45" t="s">
+        <v>28</v>
+      </c>
+      <c r="U5" s="45" t="s">
+        <v>28</v>
+      </c>
+      <c r="V5" s="46" t="s">
+        <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="74.5" customHeight="1">
-      <c r="A4" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="C4" s="29" t="s">
-        <v>128</v>
-      </c>
-      <c r="D4" s="32" t="s">
-        <v>129</v>
-      </c>
-      <c r="E4" s="28" t="s">
-        <v>130</v>
-      </c>
-      <c r="F4" s="28" t="s">
-        <v>131</v>
-      </c>
-      <c r="G4" s="28" t="s">
-        <v>132</v>
-      </c>
-      <c r="H4" s="28" t="s">
-        <v>133</v>
-      </c>
-      <c r="I4" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="J4" s="8" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A5" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="G5" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="H5" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="I5" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="J5" s="11" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="15.75" customHeight="1"/>
-    <row r="7" spans="1:10" ht="15.75" customHeight="1"/>
-    <row r="8" spans="1:10" ht="15.75" customHeight="1"/>
-    <row r="9" spans="1:10" ht="15.75" customHeight="1"/>
-    <row r="10" spans="1:10" ht="15.75" customHeight="1"/>
-    <row r="11" spans="1:10" ht="15.75" customHeight="1"/>
-    <row r="12" spans="1:10" ht="15.75" customHeight="1"/>
-    <row r="13" spans="1:10" ht="15.75" customHeight="1"/>
-    <row r="14" spans="1:10" ht="15.75" customHeight="1"/>
-    <row r="15" spans="1:10" ht="15.75" customHeight="1"/>
-    <row r="16" spans="1:10" ht="15.75" customHeight="1"/>
+    <row r="6" spans="1:22" ht="15.75" customHeight="1"/>
+    <row r="7" spans="1:22" ht="15.75" customHeight="1"/>
+    <row r="8" spans="1:22" ht="15.75" customHeight="1"/>
+    <row r="9" spans="1:22" ht="15.75" customHeight="1"/>
+    <row r="10" spans="1:22" ht="15.75" customHeight="1"/>
+    <row r="11" spans="1:22" ht="15.75" customHeight="1"/>
+    <row r="12" spans="1:22" ht="15.75" customHeight="1"/>
+    <row r="13" spans="1:22" ht="15.75" customHeight="1"/>
+    <row r="14" spans="1:22" ht="15.75" customHeight="1"/>
+    <row r="15" spans="1:22" ht="15.75" customHeight="1"/>
+    <row r="16" spans="1:22" ht="15.75" customHeight="1"/>
     <row r="17" ht="15.75" customHeight="1"/>
     <row r="18" ht="15.75" customHeight="1"/>
     <row r="19" ht="15.75" customHeight="1"/>
@@ -4596,8 +5345,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AMK5"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView zoomScale="107" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
@@ -4614,19 +5363,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="105">
@@ -4634,79 +5383,79 @@
         <v>8</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="34">
       <c r="A3" s="5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="34">
       <c r="A4" s="5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
     </row>
     <row r="5" spans="1:6" s="1" customFormat="1" ht="15" customHeight="1">
       <c r="A5" s="5" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -4717,188 +5466,794 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF6038AA-9EAD-E846-B5BE-A0ADCFA2926F}">
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:AL24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="AA1" sqref="AA1:AL5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1" s="39" t="s">
+    <row r="1" spans="1:38">
+      <c r="A1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="40" t="s">
-        <v>52</v>
-      </c>
-      <c r="C1" s="41" t="s">
-        <v>154</v>
-      </c>
-      <c r="D1" s="42" t="s">
+      <c r="B1" s="39" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" s="39" t="s">
+        <v>276</v>
+      </c>
+      <c r="D1" s="39" t="s">
+        <v>277</v>
+      </c>
+      <c r="E1" s="39" t="s">
+        <v>164</v>
+      </c>
+      <c r="F1" s="39" t="s">
+        <v>166</v>
+      </c>
+      <c r="G1" s="39" t="s">
+        <v>167</v>
+      </c>
+      <c r="H1" s="39" t="s">
+        <v>165</v>
+      </c>
+      <c r="I1" s="39" t="s">
+        <v>283</v>
+      </c>
+      <c r="J1" s="39" t="s">
+        <v>285</v>
+      </c>
+      <c r="K1" s="39" t="s">
+        <v>288</v>
+      </c>
+      <c r="L1" s="39" t="s">
+        <v>292</v>
+      </c>
+      <c r="M1" s="39" t="s">
+        <v>99</v>
+      </c>
+      <c r="N1" s="39" t="s">
+        <v>297</v>
+      </c>
+      <c r="O1" s="39" t="s">
+        <v>300</v>
+      </c>
+      <c r="P1" s="39" t="s">
+        <v>303</v>
+      </c>
+      <c r="Q1" s="39" t="s">
+        <v>306</v>
+      </c>
+      <c r="R1" s="39" t="s">
+        <v>309</v>
+      </c>
+      <c r="S1" s="39" t="s">
+        <v>168</v>
+      </c>
+      <c r="T1" s="39" t="s">
+        <v>170</v>
+      </c>
+      <c r="U1" s="39" t="s">
+        <v>100</v>
+      </c>
+      <c r="V1" s="39" t="s">
+        <v>169</v>
+      </c>
+      <c r="W1" s="39" t="s">
+        <v>313</v>
+      </c>
+      <c r="X1" s="39" t="s">
+        <v>317</v>
+      </c>
+      <c r="Y1" s="39" t="s">
+        <v>320</v>
+      </c>
+      <c r="Z1" s="39" t="s">
+        <v>323</v>
+      </c>
+      <c r="AA1" s="39" t="s">
+        <v>326</v>
+      </c>
+      <c r="AB1" s="39" t="s">
+        <v>170</v>
+      </c>
+      <c r="AC1" s="39" t="s">
+        <v>330</v>
+      </c>
+      <c r="AD1" s="39" t="s">
+        <v>334</v>
+      </c>
+      <c r="AE1" s="39" t="s">
+        <v>336</v>
+      </c>
+      <c r="AF1" s="39" t="s">
+        <v>338</v>
+      </c>
+      <c r="AG1" s="39" t="s">
+        <v>341</v>
+      </c>
+      <c r="AH1" s="39" t="s">
+        <v>345</v>
+      </c>
+      <c r="AI1" s="39" t="s">
+        <v>348</v>
+      </c>
+      <c r="AJ1" s="39" t="s">
+        <v>350</v>
+      </c>
+      <c r="AK1" s="39" t="s">
+        <v>352</v>
+      </c>
+      <c r="AL1" s="39" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="2" spans="1:38" ht="165">
+      <c r="A2" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="41" t="s">
+        <v>101</v>
+      </c>
+      <c r="C2" s="41" t="s">
+        <v>184</v>
+      </c>
+      <c r="D2" s="41" t="s">
+        <v>278</v>
+      </c>
+      <c r="E2" s="41" t="s">
+        <v>171</v>
+      </c>
+      <c r="F2" s="41" t="s">
+        <v>172</v>
+      </c>
+      <c r="G2" s="41" t="s">
+        <v>181</v>
+      </c>
+      <c r="H2" s="41" t="s">
+        <v>180</v>
+      </c>
+      <c r="I2" s="41" t="s">
+        <v>312</v>
+      </c>
+      <c r="J2" s="41" t="s">
+        <v>286</v>
+      </c>
+      <c r="K2" s="41" t="s">
+        <v>289</v>
+      </c>
+      <c r="L2" s="41" t="s">
+        <v>293</v>
+      </c>
+      <c r="M2" s="41" t="s">
+        <v>295</v>
+      </c>
+      <c r="N2" s="41" t="s">
+        <v>298</v>
+      </c>
+      <c r="O2" s="41" t="s">
+        <v>301</v>
+      </c>
+      <c r="P2" s="41" t="s">
+        <v>304</v>
+      </c>
+      <c r="Q2" s="41" t="s">
+        <v>307</v>
+      </c>
+      <c r="R2" s="41" t="s">
+        <v>310</v>
+      </c>
+      <c r="S2" s="41" t="s">
+        <v>173</v>
+      </c>
+      <c r="T2" s="41" t="s">
+        <v>281</v>
+      </c>
+      <c r="U2" s="41" t="s">
+        <v>282</v>
+      </c>
+      <c r="V2" s="41" t="s">
+        <v>280</v>
+      </c>
+      <c r="W2" s="41" t="s">
+        <v>314</v>
+      </c>
+      <c r="X2" s="41" t="s">
+        <v>318</v>
+      </c>
+      <c r="Y2" s="41" t="s">
+        <v>321</v>
+      </c>
+      <c r="Z2" s="41" t="s">
+        <v>324</v>
+      </c>
+      <c r="AA2" s="41" t="s">
+        <v>327</v>
+      </c>
+      <c r="AB2" s="41" t="s">
         <v>174</v>
       </c>
-      <c r="E1" s="43" t="s">
+      <c r="AC2" s="41" t="s">
+        <v>331</v>
+      </c>
+      <c r="AD2" s="41" t="s">
+        <v>335</v>
+      </c>
+      <c r="AE2" s="41" t="s">
+        <v>337</v>
+      </c>
+      <c r="AF2" s="41" t="s">
+        <v>339</v>
+      </c>
+      <c r="AG2" s="41" t="s">
+        <v>342</v>
+      </c>
+      <c r="AH2" s="41" t="s">
+        <v>346</v>
+      </c>
+      <c r="AI2" s="41" t="s">
+        <v>349</v>
+      </c>
+      <c r="AJ2" s="41" t="s">
+        <v>351</v>
+      </c>
+      <c r="AK2" s="41" t="s">
+        <v>353</v>
+      </c>
+      <c r="AL2" s="41" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="3" spans="1:38" ht="85">
+      <c r="A3" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="43" t="s">
+        <v>110</v>
+      </c>
+      <c r="C3" s="43" t="s">
         <v>175</v>
       </c>
-      <c r="F1" s="43" t="s">
+      <c r="D3" s="43" t="s">
+        <v>279</v>
+      </c>
+      <c r="E3" s="43" t="s">
         <v>176</v>
       </c>
-      <c r="G1" s="44" t="s">
+      <c r="F3" s="43" t="s">
+        <v>110</v>
+      </c>
+      <c r="G3" s="43" t="s">
+        <v>182</v>
+      </c>
+      <c r="H3" s="43" t="s">
         <v>177</v>
       </c>
-      <c r="H1" s="43" t="s">
+      <c r="I3" s="43" t="s">
+        <v>284</v>
+      </c>
+      <c r="J3" s="43" t="s">
+        <v>287</v>
+      </c>
+      <c r="K3" s="43" t="s">
+        <v>290</v>
+      </c>
+      <c r="L3" s="43" t="s">
+        <v>290</v>
+      </c>
+      <c r="M3" s="43">
+        <v>20</v>
+      </c>
+      <c r="N3" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="O3" s="43" t="s">
+        <v>302</v>
+      </c>
+      <c r="P3" s="43" t="s">
+        <v>305</v>
+      </c>
+      <c r="Q3" s="43" t="s">
+        <v>308</v>
+      </c>
+      <c r="R3" s="43" t="s">
+        <v>311</v>
+      </c>
+      <c r="S3" s="43" t="s">
+        <v>183</v>
+      </c>
+      <c r="T3" s="43" t="s">
+        <v>116</v>
+      </c>
+      <c r="U3" s="43" t="s">
+        <v>117</v>
+      </c>
+      <c r="V3" s="43" t="s">
+        <v>185</v>
+      </c>
+      <c r="W3" s="43" t="s">
+        <v>315</v>
+      </c>
+      <c r="X3" s="43" t="s">
+        <v>319</v>
+      </c>
+      <c r="Y3" s="43" t="s">
+        <v>322</v>
+      </c>
+      <c r="Z3" s="43" t="s">
+        <v>325</v>
+      </c>
+      <c r="AA3" s="43" t="s">
+        <v>328</v>
+      </c>
+      <c r="AB3" s="43" t="s">
+        <v>325</v>
+      </c>
+      <c r="AC3" s="43" t="s">
+        <v>332</v>
+      </c>
+      <c r="AD3" s="43">
+        <v>4.76</v>
+      </c>
+      <c r="AE3" s="43">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="AF3" s="43" t="s">
+        <v>340</v>
+      </c>
+      <c r="AG3" s="43" t="s">
+        <v>343</v>
+      </c>
+      <c r="AH3" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI3" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="AJ3" s="43"/>
+      <c r="AK3" s="43"/>
+      <c r="AL3" s="43"/>
+    </row>
+    <row r="4" spans="1:38" ht="187">
+      <c r="A4" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="44" t="s">
+        <v>91</v>
+      </c>
+      <c r="C4" s="44" t="s">
+        <v>158</v>
+      </c>
+      <c r="D4" s="44" t="s">
+        <v>158</v>
+      </c>
+      <c r="E4" s="43" t="s">
         <v>178</v>
       </c>
-      <c r="I1" s="43" t="s">
+      <c r="F4" s="43" t="s">
+        <v>91</v>
+      </c>
+      <c r="G4" s="43" t="s">
+        <v>91</v>
+      </c>
+      <c r="H4" s="43" t="s">
         <v>179</v>
       </c>
-      <c r="J1" s="40" t="s">
-        <v>180</v>
-      </c>
-      <c r="K1" s="40" t="s">
-        <v>110</v>
+      <c r="I4" s="43" t="s">
+        <v>158</v>
+      </c>
+      <c r="J4" s="43" t="s">
+        <v>158</v>
+      </c>
+      <c r="K4" s="43" t="s">
+        <v>291</v>
+      </c>
+      <c r="L4" s="43" t="s">
+        <v>294</v>
+      </c>
+      <c r="M4" s="43" t="s">
+        <v>296</v>
+      </c>
+      <c r="N4" s="43" t="s">
+        <v>299</v>
+      </c>
+      <c r="O4" s="43" t="s">
+        <v>158</v>
+      </c>
+      <c r="P4" s="43" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q4" s="43" t="s">
+        <v>158</v>
+      </c>
+      <c r="R4" s="43" t="s">
+        <v>158</v>
+      </c>
+      <c r="S4" s="43" t="s">
+        <v>137</v>
+      </c>
+      <c r="T4" s="43" t="s">
+        <v>124</v>
+      </c>
+      <c r="U4" s="43" t="s">
+        <v>125</v>
+      </c>
+      <c r="V4" s="43" t="s">
+        <v>123</v>
+      </c>
+      <c r="W4" s="43" t="s">
+        <v>316</v>
+      </c>
+      <c r="X4" s="43" t="s">
+        <v>158</v>
+      </c>
+      <c r="Y4" s="43" t="s">
+        <v>186</v>
+      </c>
+      <c r="Z4" s="43" t="s">
+        <v>158</v>
+      </c>
+      <c r="AA4" s="43" t="s">
+        <v>329</v>
+      </c>
+      <c r="AB4" s="43" t="s">
+        <v>158</v>
+      </c>
+      <c r="AC4" s="43" t="s">
+        <v>333</v>
+      </c>
+      <c r="AD4" s="43" t="s">
+        <v>80</v>
+      </c>
+      <c r="AE4" s="43" t="s">
+        <v>80</v>
+      </c>
+      <c r="AF4" s="43" t="s">
+        <v>137</v>
+      </c>
+      <c r="AG4" s="43" t="s">
+        <v>344</v>
+      </c>
+      <c r="AH4" s="43" t="s">
+        <v>347</v>
+      </c>
+      <c r="AI4" s="43" t="s">
+        <v>347</v>
+      </c>
+      <c r="AJ4" s="43" t="s">
+        <v>344</v>
+      </c>
+      <c r="AK4" s="43" t="s">
+        <v>344</v>
+      </c>
+      <c r="AL4" s="43" t="s">
+        <v>355</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="165">
-      <c r="A2" s="45" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="46" t="s">
-        <v>111</v>
-      </c>
-      <c r="C2" s="47" t="s">
-        <v>181</v>
-      </c>
-      <c r="D2" s="47" t="s">
-        <v>182</v>
-      </c>
-      <c r="E2" s="48" t="s">
-        <v>193</v>
-      </c>
-      <c r="F2" s="48" t="s">
-        <v>183</v>
-      </c>
-      <c r="G2" s="48" t="s">
-        <v>194</v>
-      </c>
-      <c r="H2" s="48" t="s">
-        <v>184</v>
-      </c>
-      <c r="I2" s="48" t="s">
-        <v>185</v>
-      </c>
-      <c r="J2" s="46" t="s">
-        <v>186</v>
-      </c>
-      <c r="K2" s="46" t="s">
-        <v>187</v>
+    <row r="5" spans="1:38" ht="34">
+      <c r="A5" s="42" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="45" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="45" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="46" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="45" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="45" t="s">
+        <v>162</v>
+      </c>
+      <c r="G5" s="45" t="s">
+        <v>162</v>
+      </c>
+      <c r="H5" s="45" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5" s="45" t="s">
+        <v>28</v>
+      </c>
+      <c r="J5" s="45" t="s">
+        <v>28</v>
+      </c>
+      <c r="K5" s="45" t="s">
+        <v>28</v>
+      </c>
+      <c r="L5" s="45" t="s">
+        <v>28</v>
+      </c>
+      <c r="M5" s="45" t="s">
+        <v>28</v>
+      </c>
+      <c r="N5" s="45" t="s">
+        <v>28</v>
+      </c>
+      <c r="O5" s="46" t="s">
+        <v>29</v>
+      </c>
+      <c r="P5" s="46" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q5" s="46" t="s">
+        <v>29</v>
+      </c>
+      <c r="R5" s="46" t="s">
+        <v>29</v>
+      </c>
+      <c r="S5" s="45" t="s">
+        <v>28</v>
+      </c>
+      <c r="T5" s="46" t="s">
+        <v>29</v>
+      </c>
+      <c r="U5" s="46" t="s">
+        <v>29</v>
+      </c>
+      <c r="V5" s="45" t="s">
+        <v>28</v>
+      </c>
+      <c r="W5" s="45" t="s">
+        <v>28</v>
+      </c>
+      <c r="X5" s="45" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y5" s="45" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z5" s="45" t="s">
+        <v>162</v>
+      </c>
+      <c r="AA5" s="45" t="s">
+        <v>162</v>
+      </c>
+      <c r="AB5" s="46" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC5" s="46" t="s">
+        <v>29</v>
+      </c>
+      <c r="AD5" s="46" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE5" s="46" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF5" s="45" t="s">
+        <v>28</v>
+      </c>
+      <c r="AG5" s="45" t="s">
+        <v>28</v>
+      </c>
+      <c r="AH5" s="45" t="s">
+        <v>28</v>
+      </c>
+      <c r="AI5" s="45" t="s">
+        <v>28</v>
+      </c>
+      <c r="AJ5" s="45" t="s">
+        <v>28</v>
+      </c>
+      <c r="AK5" s="45" t="s">
+        <v>28</v>
+      </c>
+      <c r="AL5" s="46" t="s">
+        <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="102">
-      <c r="A3" s="49" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="50" t="s">
-        <v>120</v>
-      </c>
-      <c r="C3" s="51" t="s">
-        <v>188</v>
-      </c>
-      <c r="D3" s="51" t="s">
-        <v>189</v>
-      </c>
-      <c r="E3" s="52" t="s">
-        <v>190</v>
-      </c>
-      <c r="F3" s="53" t="s">
-        <v>120</v>
-      </c>
-      <c r="G3" s="53" t="s">
-        <v>195</v>
-      </c>
-      <c r="H3" s="53" t="s">
-        <v>196</v>
-      </c>
-      <c r="I3" s="53" t="s">
-        <v>125</v>
-      </c>
-      <c r="J3" s="50" t="s">
-        <v>126</v>
-      </c>
-      <c r="K3" s="50" t="s">
-        <v>127</v>
-      </c>
+    <row r="6" spans="1:38">
+      <c r="R6" s="48"/>
+      <c r="S6" s="48"/>
+      <c r="T6" s="48"/>
+      <c r="U6" s="48"/>
+      <c r="V6" s="48"/>
+      <c r="W6" s="48"/>
+      <c r="X6" s="48"/>
+      <c r="Y6" s="48"/>
     </row>
-    <row r="4" spans="1:11" ht="221">
-      <c r="A4" s="49" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" s="54" t="s">
-        <v>101</v>
-      </c>
-      <c r="C4" s="55" t="s">
-        <v>147</v>
-      </c>
-      <c r="D4" s="55" t="s">
-        <v>191</v>
-      </c>
-      <c r="E4" s="56" t="s">
-        <v>192</v>
-      </c>
-      <c r="F4" s="57" t="s">
-        <v>101</v>
-      </c>
-      <c r="G4" s="57" t="s">
-        <v>101</v>
-      </c>
-      <c r="H4" s="58" t="s">
-        <v>147</v>
-      </c>
-      <c r="I4" s="58" t="s">
-        <v>133</v>
-      </c>
-      <c r="J4" s="54" t="s">
-        <v>134</v>
-      </c>
-      <c r="K4" s="54" t="s">
-        <v>135</v>
-      </c>
+    <row r="7" spans="1:38">
+      <c r="R7" s="49"/>
+      <c r="S7" s="49"/>
+      <c r="T7" s="49"/>
+      <c r="U7" s="49"/>
+      <c r="V7" s="49"/>
+      <c r="W7" s="49"/>
+      <c r="X7" s="49"/>
+      <c r="Y7" s="49"/>
     </row>
-    <row r="5" spans="1:11" ht="34">
-      <c r="A5" s="49" t="s">
-        <v>31</v>
-      </c>
-      <c r="B5" s="59" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5" s="59" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5" s="59" t="s">
-        <v>32</v>
-      </c>
-      <c r="E5" s="60" t="s">
-        <v>32</v>
-      </c>
-      <c r="F5" s="59" t="s">
-        <v>172</v>
-      </c>
-      <c r="G5" s="59"/>
-      <c r="H5" s="59" t="s">
-        <v>32</v>
-      </c>
-      <c r="I5" s="61" t="s">
-        <v>32</v>
-      </c>
-      <c r="J5" s="62" t="s">
-        <v>33</v>
-      </c>
-      <c r="K5" s="61" t="s">
-        <v>33</v>
-      </c>
+    <row r="8" spans="1:38">
+      <c r="R8" s="49"/>
+      <c r="S8" s="49"/>
+      <c r="T8" s="49"/>
+      <c r="U8" s="49"/>
+      <c r="V8" s="49"/>
+      <c r="W8" s="49"/>
+      <c r="X8" s="49"/>
+      <c r="Y8" s="49"/>
+    </row>
+    <row r="9" spans="1:38">
+      <c r="R9" s="49"/>
+      <c r="S9" s="49"/>
+      <c r="T9" s="49"/>
+      <c r="U9" s="49"/>
+      <c r="V9" s="49"/>
+      <c r="W9" s="48"/>
+      <c r="X9" s="49"/>
+      <c r="Y9" s="49"/>
+      <c r="Z9" s="49"/>
+      <c r="AA9" s="51"/>
+    </row>
+    <row r="10" spans="1:38">
+      <c r="R10" s="51"/>
+      <c r="S10" s="51"/>
+      <c r="T10" s="51"/>
+      <c r="U10" s="51"/>
+      <c r="V10" s="51"/>
+      <c r="W10" s="48"/>
+      <c r="X10" s="49"/>
+      <c r="Y10" s="49"/>
+      <c r="Z10" s="49"/>
+      <c r="AA10" s="51"/>
+    </row>
+    <row r="11" spans="1:38">
+      <c r="L11" s="48"/>
+      <c r="M11" s="48"/>
+      <c r="N11" s="49"/>
+      <c r="O11" s="49"/>
+      <c r="P11" s="49"/>
+      <c r="Q11" s="51"/>
+      <c r="W11" s="48"/>
+      <c r="X11" s="49"/>
+      <c r="Y11" s="52"/>
+      <c r="Z11" s="49"/>
+      <c r="AA11" s="51"/>
+    </row>
+    <row r="12" spans="1:38">
+      <c r="L12" s="48"/>
+      <c r="M12" s="48"/>
+      <c r="N12" s="49"/>
+      <c r="O12" s="49"/>
+      <c r="P12" s="49"/>
+      <c r="Q12" s="51"/>
+      <c r="W12" s="48"/>
+      <c r="X12" s="49"/>
+      <c r="Y12" s="49"/>
+      <c r="Z12" s="49"/>
+      <c r="AA12" s="51"/>
+    </row>
+    <row r="13" spans="1:38">
+      <c r="M13" s="48"/>
+      <c r="N13" s="49"/>
+      <c r="O13" s="49"/>
+      <c r="P13" s="49"/>
+      <c r="Q13" s="51"/>
+      <c r="W13" s="48"/>
+      <c r="X13" s="49"/>
+      <c r="Y13" s="49"/>
+      <c r="Z13" s="49"/>
+      <c r="AA13" s="51"/>
+    </row>
+    <row r="14" spans="1:38">
+      <c r="M14" s="48"/>
+      <c r="N14" s="49"/>
+      <c r="O14" s="49"/>
+      <c r="P14" s="49"/>
+      <c r="Q14" s="51"/>
+      <c r="W14" s="48"/>
+      <c r="X14" s="49"/>
+      <c r="Y14" s="49"/>
+      <c r="Z14" s="49"/>
+      <c r="AA14" s="50"/>
+    </row>
+    <row r="15" spans="1:38">
+      <c r="M15" s="48"/>
+      <c r="N15" s="49"/>
+      <c r="O15" s="49"/>
+      <c r="P15" s="49"/>
+      <c r="Q15" s="51"/>
+      <c r="W15" s="48"/>
+      <c r="X15" s="49"/>
+      <c r="Y15" s="49"/>
+      <c r="Z15" s="49"/>
+      <c r="AA15" s="50"/>
+    </row>
+    <row r="16" spans="1:38">
+      <c r="M16" s="48"/>
+      <c r="N16" s="49"/>
+      <c r="O16" s="49"/>
+      <c r="P16" s="49"/>
+      <c r="Q16" s="51"/>
+      <c r="W16" s="48"/>
+      <c r="X16" s="49"/>
+      <c r="Y16" s="49"/>
+      <c r="Z16" s="49"/>
+      <c r="AA16" s="50"/>
+    </row>
+    <row r="17" spans="13:27">
+      <c r="M17" s="48"/>
+      <c r="N17" s="49"/>
+      <c r="O17" s="49"/>
+      <c r="P17" s="49"/>
+      <c r="Q17" s="50"/>
+      <c r="W17" s="48"/>
+      <c r="X17" s="49"/>
+      <c r="Y17" s="49"/>
+      <c r="Z17" s="49"/>
+      <c r="AA17" s="50"/>
+    </row>
+    <row r="18" spans="13:27">
+      <c r="M18" s="48"/>
+      <c r="N18" s="49"/>
+      <c r="O18" s="49"/>
+      <c r="P18" s="49"/>
+      <c r="Q18" s="50"/>
+      <c r="W18" s="48"/>
+      <c r="X18" s="49"/>
+      <c r="Y18" s="49"/>
+      <c r="Z18" s="49"/>
+      <c r="AA18" s="51"/>
+    </row>
+    <row r="19" spans="13:27">
+      <c r="M19" s="48"/>
+      <c r="N19" s="49"/>
+      <c r="O19" s="49"/>
+      <c r="P19" s="49"/>
+      <c r="Q19" s="50"/>
+      <c r="W19" s="48"/>
+      <c r="X19" s="49"/>
+      <c r="Y19" s="49"/>
+      <c r="Z19" s="49"/>
+      <c r="AA19" s="51"/>
+    </row>
+    <row r="20" spans="13:27">
+      <c r="M20" s="48"/>
+      <c r="N20" s="49"/>
+      <c r="O20" s="49"/>
+      <c r="P20" s="49"/>
+      <c r="Q20" s="50"/>
+      <c r="W20" s="48"/>
+      <c r="X20" s="49"/>
+      <c r="Y20" s="49"/>
+      <c r="Z20" s="49"/>
+      <c r="AA20" s="51"/>
+    </row>
+    <row r="21" spans="13:27">
+      <c r="W21" s="48"/>
+      <c r="X21" s="49"/>
+      <c r="Y21" s="49"/>
+      <c r="Z21" s="49"/>
+      <c r="AA21" s="51"/>
+    </row>
+    <row r="22" spans="13:27">
+      <c r="W22" s="48"/>
+      <c r="X22" s="49"/>
+      <c r="Z22" s="49"/>
+      <c r="AA22" s="51"/>
+    </row>
+    <row r="23" spans="13:27">
+      <c r="W23" s="48"/>
+      <c r="X23" s="49"/>
+      <c r="Z23" s="49"/>
+      <c r="AA23" s="51"/>
+    </row>
+    <row r="24" spans="13:27">
+      <c r="W24" s="48"/>
+      <c r="X24" s="49"/>
+      <c r="Y24" s="49"/>
+      <c r="Z24" s="49"/>
+      <c r="AA24" s="50"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="Y3" r:id="rId1" xr:uid="{22AA9243-07A0-0147-99D4-61A157066708}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -4908,7 +6263,7 @@
   <dimension ref="A1:AMJ5"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
@@ -4926,28 +6281,28 @@
   <sheetData>
     <row r="1" spans="1:1024" s="4" customFormat="1" ht="34">
       <c r="A1" s="2" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="D1" s="34" t="s">
-        <v>152</v>
+        <v>141</v>
+      </c>
+      <c r="D1" s="33" t="s">
+        <v>142</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="G1" s="35" t="s">
-        <v>155</v>
-      </c>
-      <c r="H1" s="36" t="s">
-        <v>156</v>
+        <v>144</v>
+      </c>
+      <c r="G1" s="34" t="s">
+        <v>145</v>
+      </c>
+      <c r="H1" s="35" t="s">
+        <v>146</v>
       </c>
       <c r="AMG1"/>
       <c r="AMH1"/>
@@ -4959,105 +6314,4517 @@
         <v>8</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
     </row>
     <row r="3" spans="1:1024" ht="51">
       <c r="A3" s="5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="G3" s="37" t="s">
-        <v>166</v>
+        <v>155</v>
+      </c>
+      <c r="G3" s="36" t="s">
+        <v>156</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
     </row>
     <row r="4" spans="1:1024" ht="170.75" customHeight="1">
       <c r="A4" s="5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="D4" s="38" t="s">
-        <v>170</v>
+        <v>159</v>
+      </c>
+      <c r="D4" s="37" t="s">
+        <v>160</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
     </row>
     <row r="5" spans="1:1024" ht="17">
       <c r="A5" s="5" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92BC6C91-7F2B-C748-9D24-81F9E0A6AC72}">
+  <dimension ref="A1:AMK5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:1025" s="4" customFormat="1" ht="54" customHeight="1">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1025" ht="195">
+      <c r="A2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1"/>
+      <c r="W2" s="1"/>
+      <c r="X2" s="1"/>
+      <c r="Y2" s="1"/>
+      <c r="Z2" s="1"/>
+      <c r="AA2" s="1"/>
+      <c r="AB2" s="1"/>
+      <c r="AC2" s="1"/>
+      <c r="AD2" s="1"/>
+      <c r="AE2" s="1"/>
+      <c r="AF2" s="1"/>
+      <c r="AG2" s="1"/>
+      <c r="AH2" s="1"/>
+      <c r="AI2" s="1"/>
+      <c r="AJ2" s="1"/>
+      <c r="AK2" s="1"/>
+      <c r="AL2" s="1"/>
+      <c r="AM2" s="1"/>
+      <c r="AN2" s="1"/>
+      <c r="AO2" s="1"/>
+      <c r="AP2" s="1"/>
+      <c r="AQ2" s="1"/>
+      <c r="AR2" s="1"/>
+      <c r="AS2" s="1"/>
+      <c r="AT2" s="1"/>
+      <c r="AU2" s="1"/>
+      <c r="AV2" s="1"/>
+      <c r="AW2" s="1"/>
+      <c r="AX2" s="1"/>
+      <c r="AY2" s="1"/>
+      <c r="AZ2" s="1"/>
+      <c r="BA2" s="1"/>
+      <c r="BB2" s="1"/>
+      <c r="BC2" s="1"/>
+      <c r="BD2" s="1"/>
+      <c r="BE2" s="1"/>
+      <c r="BF2" s="1"/>
+      <c r="BG2" s="1"/>
+      <c r="BH2" s="1"/>
+      <c r="BI2" s="1"/>
+      <c r="BJ2" s="1"/>
+      <c r="BK2" s="1"/>
+      <c r="BL2" s="1"/>
+      <c r="BM2" s="1"/>
+      <c r="BN2" s="1"/>
+      <c r="BO2" s="1"/>
+      <c r="BP2" s="1"/>
+      <c r="BQ2" s="1"/>
+      <c r="BR2" s="1"/>
+      <c r="BS2" s="1"/>
+      <c r="BT2" s="1"/>
+      <c r="BU2" s="1"/>
+      <c r="BV2" s="1"/>
+      <c r="BW2" s="1"/>
+      <c r="BX2" s="1"/>
+      <c r="BY2" s="1"/>
+      <c r="BZ2" s="1"/>
+      <c r="CA2" s="1"/>
+      <c r="CB2" s="1"/>
+      <c r="CC2" s="1"/>
+      <c r="CD2" s="1"/>
+      <c r="CE2" s="1"/>
+      <c r="CF2" s="1"/>
+      <c r="CG2" s="1"/>
+      <c r="CH2" s="1"/>
+      <c r="CI2" s="1"/>
+      <c r="CJ2" s="1"/>
+      <c r="CK2" s="1"/>
+      <c r="CL2" s="1"/>
+      <c r="CM2" s="1"/>
+      <c r="CN2" s="1"/>
+      <c r="CO2" s="1"/>
+      <c r="CP2" s="1"/>
+      <c r="CQ2" s="1"/>
+      <c r="CR2" s="1"/>
+      <c r="CS2" s="1"/>
+      <c r="CT2" s="1"/>
+      <c r="CU2" s="1"/>
+      <c r="CV2" s="1"/>
+      <c r="CW2" s="1"/>
+      <c r="CX2" s="1"/>
+      <c r="CY2" s="1"/>
+      <c r="CZ2" s="1"/>
+      <c r="DA2" s="1"/>
+      <c r="DB2" s="1"/>
+      <c r="DC2" s="1"/>
+      <c r="DD2" s="1"/>
+      <c r="DE2" s="1"/>
+      <c r="DF2" s="1"/>
+      <c r="DG2" s="1"/>
+      <c r="DH2" s="1"/>
+      <c r="DI2" s="1"/>
+      <c r="DJ2" s="1"/>
+      <c r="DK2" s="1"/>
+      <c r="DL2" s="1"/>
+      <c r="DM2" s="1"/>
+      <c r="DN2" s="1"/>
+      <c r="DO2" s="1"/>
+      <c r="DP2" s="1"/>
+      <c r="DQ2" s="1"/>
+      <c r="DR2" s="1"/>
+      <c r="DS2" s="1"/>
+      <c r="DT2" s="1"/>
+      <c r="DU2" s="1"/>
+      <c r="DV2" s="1"/>
+      <c r="DW2" s="1"/>
+      <c r="DX2" s="1"/>
+      <c r="DY2" s="1"/>
+      <c r="DZ2" s="1"/>
+      <c r="EA2" s="1"/>
+      <c r="EB2" s="1"/>
+      <c r="EC2" s="1"/>
+      <c r="ED2" s="1"/>
+      <c r="EE2" s="1"/>
+      <c r="EF2" s="1"/>
+      <c r="EG2" s="1"/>
+      <c r="EH2" s="1"/>
+      <c r="EI2" s="1"/>
+      <c r="EJ2" s="1"/>
+      <c r="EK2" s="1"/>
+      <c r="EL2" s="1"/>
+      <c r="EM2" s="1"/>
+      <c r="EN2" s="1"/>
+      <c r="EO2" s="1"/>
+      <c r="EP2" s="1"/>
+      <c r="EQ2" s="1"/>
+      <c r="ER2" s="1"/>
+      <c r="ES2" s="1"/>
+      <c r="ET2" s="1"/>
+      <c r="EU2" s="1"/>
+      <c r="EV2" s="1"/>
+      <c r="EW2" s="1"/>
+      <c r="EX2" s="1"/>
+      <c r="EY2" s="1"/>
+      <c r="EZ2" s="1"/>
+      <c r="FA2" s="1"/>
+      <c r="FB2" s="1"/>
+      <c r="FC2" s="1"/>
+      <c r="FD2" s="1"/>
+      <c r="FE2" s="1"/>
+      <c r="FF2" s="1"/>
+      <c r="FG2" s="1"/>
+      <c r="FH2" s="1"/>
+      <c r="FI2" s="1"/>
+      <c r="FJ2" s="1"/>
+      <c r="FK2" s="1"/>
+      <c r="FL2" s="1"/>
+      <c r="FM2" s="1"/>
+      <c r="FN2" s="1"/>
+      <c r="FO2" s="1"/>
+      <c r="FP2" s="1"/>
+      <c r="FQ2" s="1"/>
+      <c r="FR2" s="1"/>
+      <c r="FS2" s="1"/>
+      <c r="FT2" s="1"/>
+      <c r="FU2" s="1"/>
+      <c r="FV2" s="1"/>
+      <c r="FW2" s="1"/>
+      <c r="FX2" s="1"/>
+      <c r="FY2" s="1"/>
+      <c r="FZ2" s="1"/>
+      <c r="GA2" s="1"/>
+      <c r="GB2" s="1"/>
+      <c r="GC2" s="1"/>
+      <c r="GD2" s="1"/>
+      <c r="GE2" s="1"/>
+      <c r="GF2" s="1"/>
+      <c r="GG2" s="1"/>
+      <c r="GH2" s="1"/>
+      <c r="GI2" s="1"/>
+      <c r="GJ2" s="1"/>
+      <c r="GK2" s="1"/>
+      <c r="GL2" s="1"/>
+      <c r="GM2" s="1"/>
+      <c r="GN2" s="1"/>
+      <c r="GO2" s="1"/>
+      <c r="GP2" s="1"/>
+      <c r="GQ2" s="1"/>
+      <c r="GR2" s="1"/>
+      <c r="GS2" s="1"/>
+      <c r="GT2" s="1"/>
+      <c r="GU2" s="1"/>
+      <c r="GV2" s="1"/>
+      <c r="GW2" s="1"/>
+      <c r="GX2" s="1"/>
+      <c r="GY2" s="1"/>
+      <c r="GZ2" s="1"/>
+      <c r="HA2" s="1"/>
+      <c r="HB2" s="1"/>
+      <c r="HC2" s="1"/>
+      <c r="HD2" s="1"/>
+      <c r="HE2" s="1"/>
+      <c r="HF2" s="1"/>
+      <c r="HG2" s="1"/>
+      <c r="HH2" s="1"/>
+      <c r="HI2" s="1"/>
+      <c r="HJ2" s="1"/>
+      <c r="HK2" s="1"/>
+      <c r="HL2" s="1"/>
+      <c r="HM2" s="1"/>
+      <c r="HN2" s="1"/>
+      <c r="HO2" s="1"/>
+      <c r="HP2" s="1"/>
+      <c r="HQ2" s="1"/>
+      <c r="HR2" s="1"/>
+      <c r="HS2" s="1"/>
+      <c r="HT2" s="1"/>
+      <c r="HU2" s="1"/>
+      <c r="HV2" s="1"/>
+      <c r="HW2" s="1"/>
+      <c r="HX2" s="1"/>
+      <c r="HY2" s="1"/>
+      <c r="HZ2" s="1"/>
+      <c r="IA2" s="1"/>
+      <c r="IB2" s="1"/>
+      <c r="IC2" s="1"/>
+      <c r="ID2" s="1"/>
+      <c r="IE2" s="1"/>
+      <c r="IF2" s="1"/>
+      <c r="IG2" s="1"/>
+      <c r="IH2" s="1"/>
+      <c r="II2" s="1"/>
+      <c r="IJ2" s="1"/>
+      <c r="IK2" s="1"/>
+      <c r="IL2" s="1"/>
+      <c r="IM2" s="1"/>
+      <c r="IN2" s="1"/>
+      <c r="IO2" s="1"/>
+      <c r="IP2" s="1"/>
+      <c r="IQ2" s="1"/>
+      <c r="IR2" s="1"/>
+      <c r="IS2" s="1"/>
+      <c r="IT2" s="1"/>
+      <c r="IU2" s="1"/>
+      <c r="IV2" s="1"/>
+      <c r="IW2" s="1"/>
+      <c r="IX2" s="1"/>
+      <c r="IY2" s="1"/>
+      <c r="IZ2" s="1"/>
+      <c r="JA2" s="1"/>
+      <c r="JB2" s="1"/>
+      <c r="JC2" s="1"/>
+      <c r="JD2" s="1"/>
+      <c r="JE2" s="1"/>
+      <c r="JF2" s="1"/>
+      <c r="JG2" s="1"/>
+      <c r="JH2" s="1"/>
+      <c r="JI2" s="1"/>
+      <c r="JJ2" s="1"/>
+      <c r="JK2" s="1"/>
+      <c r="JL2" s="1"/>
+      <c r="JM2" s="1"/>
+      <c r="JN2" s="1"/>
+      <c r="JO2" s="1"/>
+      <c r="JP2" s="1"/>
+      <c r="JQ2" s="1"/>
+      <c r="JR2" s="1"/>
+      <c r="JS2" s="1"/>
+      <c r="JT2" s="1"/>
+      <c r="JU2" s="1"/>
+      <c r="JV2" s="1"/>
+      <c r="JW2" s="1"/>
+      <c r="JX2" s="1"/>
+      <c r="JY2" s="1"/>
+      <c r="JZ2" s="1"/>
+      <c r="KA2" s="1"/>
+      <c r="KB2" s="1"/>
+      <c r="KC2" s="1"/>
+      <c r="KD2" s="1"/>
+      <c r="KE2" s="1"/>
+      <c r="KF2" s="1"/>
+      <c r="KG2" s="1"/>
+      <c r="KH2" s="1"/>
+      <c r="KI2" s="1"/>
+      <c r="KJ2" s="1"/>
+      <c r="KK2" s="1"/>
+      <c r="KL2" s="1"/>
+      <c r="KM2" s="1"/>
+      <c r="KN2" s="1"/>
+      <c r="KO2" s="1"/>
+      <c r="KP2" s="1"/>
+      <c r="KQ2" s="1"/>
+      <c r="KR2" s="1"/>
+      <c r="KS2" s="1"/>
+      <c r="KT2" s="1"/>
+      <c r="KU2" s="1"/>
+      <c r="KV2" s="1"/>
+      <c r="KW2" s="1"/>
+      <c r="KX2" s="1"/>
+      <c r="KY2" s="1"/>
+      <c r="KZ2" s="1"/>
+      <c r="LA2" s="1"/>
+      <c r="LB2" s="1"/>
+      <c r="LC2" s="1"/>
+      <c r="LD2" s="1"/>
+      <c r="LE2" s="1"/>
+      <c r="LF2" s="1"/>
+      <c r="LG2" s="1"/>
+      <c r="LH2" s="1"/>
+      <c r="LI2" s="1"/>
+      <c r="LJ2" s="1"/>
+      <c r="LK2" s="1"/>
+      <c r="LL2" s="1"/>
+      <c r="LM2" s="1"/>
+      <c r="LN2" s="1"/>
+      <c r="LO2" s="1"/>
+      <c r="LP2" s="1"/>
+      <c r="LQ2" s="1"/>
+      <c r="LR2" s="1"/>
+      <c r="LS2" s="1"/>
+      <c r="LT2" s="1"/>
+      <c r="LU2" s="1"/>
+      <c r="LV2" s="1"/>
+      <c r="LW2" s="1"/>
+      <c r="LX2" s="1"/>
+      <c r="LY2" s="1"/>
+      <c r="LZ2" s="1"/>
+      <c r="MA2" s="1"/>
+      <c r="MB2" s="1"/>
+      <c r="MC2" s="1"/>
+      <c r="MD2" s="1"/>
+      <c r="ME2" s="1"/>
+      <c r="MF2" s="1"/>
+      <c r="MG2" s="1"/>
+      <c r="MH2" s="1"/>
+      <c r="MI2" s="1"/>
+      <c r="MJ2" s="1"/>
+      <c r="MK2" s="1"/>
+      <c r="ML2" s="1"/>
+      <c r="MM2" s="1"/>
+      <c r="MN2" s="1"/>
+      <c r="MO2" s="1"/>
+      <c r="MP2" s="1"/>
+      <c r="MQ2" s="1"/>
+      <c r="MR2" s="1"/>
+      <c r="MS2" s="1"/>
+      <c r="MT2" s="1"/>
+      <c r="MU2" s="1"/>
+      <c r="MV2" s="1"/>
+      <c r="MW2" s="1"/>
+      <c r="MX2" s="1"/>
+      <c r="MY2" s="1"/>
+      <c r="MZ2" s="1"/>
+      <c r="NA2" s="1"/>
+      <c r="NB2" s="1"/>
+      <c r="NC2" s="1"/>
+      <c r="ND2" s="1"/>
+      <c r="NE2" s="1"/>
+      <c r="NF2" s="1"/>
+      <c r="NG2" s="1"/>
+      <c r="NH2" s="1"/>
+      <c r="NI2" s="1"/>
+      <c r="NJ2" s="1"/>
+      <c r="NK2" s="1"/>
+      <c r="NL2" s="1"/>
+      <c r="NM2" s="1"/>
+      <c r="NN2" s="1"/>
+      <c r="NO2" s="1"/>
+      <c r="NP2" s="1"/>
+      <c r="NQ2" s="1"/>
+      <c r="NR2" s="1"/>
+      <c r="NS2" s="1"/>
+      <c r="NT2" s="1"/>
+      <c r="NU2" s="1"/>
+      <c r="NV2" s="1"/>
+      <c r="NW2" s="1"/>
+      <c r="NX2" s="1"/>
+      <c r="NY2" s="1"/>
+      <c r="NZ2" s="1"/>
+      <c r="OA2" s="1"/>
+      <c r="OB2" s="1"/>
+      <c r="OC2" s="1"/>
+      <c r="OD2" s="1"/>
+      <c r="OE2" s="1"/>
+      <c r="OF2" s="1"/>
+      <c r="OG2" s="1"/>
+      <c r="OH2" s="1"/>
+      <c r="OI2" s="1"/>
+      <c r="OJ2" s="1"/>
+      <c r="OK2" s="1"/>
+      <c r="OL2" s="1"/>
+      <c r="OM2" s="1"/>
+      <c r="ON2" s="1"/>
+      <c r="OO2" s="1"/>
+      <c r="OP2" s="1"/>
+      <c r="OQ2" s="1"/>
+      <c r="OR2" s="1"/>
+      <c r="OS2" s="1"/>
+      <c r="OT2" s="1"/>
+      <c r="OU2" s="1"/>
+      <c r="OV2" s="1"/>
+      <c r="OW2" s="1"/>
+      <c r="OX2" s="1"/>
+      <c r="OY2" s="1"/>
+      <c r="OZ2" s="1"/>
+      <c r="PA2" s="1"/>
+      <c r="PB2" s="1"/>
+      <c r="PC2" s="1"/>
+      <c r="PD2" s="1"/>
+      <c r="PE2" s="1"/>
+      <c r="PF2" s="1"/>
+      <c r="PG2" s="1"/>
+      <c r="PH2" s="1"/>
+      <c r="PI2" s="1"/>
+      <c r="PJ2" s="1"/>
+      <c r="PK2" s="1"/>
+      <c r="PL2" s="1"/>
+      <c r="PM2" s="1"/>
+      <c r="PN2" s="1"/>
+      <c r="PO2" s="1"/>
+      <c r="PP2" s="1"/>
+      <c r="PQ2" s="1"/>
+      <c r="PR2" s="1"/>
+      <c r="PS2" s="1"/>
+      <c r="PT2" s="1"/>
+      <c r="PU2" s="1"/>
+      <c r="PV2" s="1"/>
+      <c r="PW2" s="1"/>
+      <c r="PX2" s="1"/>
+      <c r="PY2" s="1"/>
+      <c r="PZ2" s="1"/>
+      <c r="QA2" s="1"/>
+      <c r="QB2" s="1"/>
+      <c r="QC2" s="1"/>
+      <c r="QD2" s="1"/>
+      <c r="QE2" s="1"/>
+      <c r="QF2" s="1"/>
+      <c r="QG2" s="1"/>
+      <c r="QH2" s="1"/>
+      <c r="QI2" s="1"/>
+      <c r="QJ2" s="1"/>
+      <c r="QK2" s="1"/>
+      <c r="QL2" s="1"/>
+      <c r="QM2" s="1"/>
+      <c r="QN2" s="1"/>
+      <c r="QO2" s="1"/>
+      <c r="QP2" s="1"/>
+      <c r="QQ2" s="1"/>
+      <c r="QR2" s="1"/>
+      <c r="QS2" s="1"/>
+      <c r="QT2" s="1"/>
+      <c r="QU2" s="1"/>
+      <c r="QV2" s="1"/>
+      <c r="QW2" s="1"/>
+      <c r="QX2" s="1"/>
+      <c r="QY2" s="1"/>
+      <c r="QZ2" s="1"/>
+      <c r="RA2" s="1"/>
+      <c r="RB2" s="1"/>
+      <c r="RC2" s="1"/>
+      <c r="RD2" s="1"/>
+      <c r="RE2" s="1"/>
+      <c r="RF2" s="1"/>
+      <c r="RG2" s="1"/>
+      <c r="RH2" s="1"/>
+      <c r="RI2" s="1"/>
+      <c r="RJ2" s="1"/>
+      <c r="RK2" s="1"/>
+      <c r="RL2" s="1"/>
+      <c r="RM2" s="1"/>
+      <c r="RN2" s="1"/>
+      <c r="RO2" s="1"/>
+      <c r="RP2" s="1"/>
+      <c r="RQ2" s="1"/>
+      <c r="RR2" s="1"/>
+      <c r="RS2" s="1"/>
+      <c r="RT2" s="1"/>
+      <c r="RU2" s="1"/>
+      <c r="RV2" s="1"/>
+      <c r="RW2" s="1"/>
+      <c r="RX2" s="1"/>
+      <c r="RY2" s="1"/>
+      <c r="RZ2" s="1"/>
+      <c r="SA2" s="1"/>
+      <c r="SB2" s="1"/>
+      <c r="SC2" s="1"/>
+      <c r="SD2" s="1"/>
+      <c r="SE2" s="1"/>
+      <c r="SF2" s="1"/>
+      <c r="SG2" s="1"/>
+      <c r="SH2" s="1"/>
+      <c r="SI2" s="1"/>
+      <c r="SJ2" s="1"/>
+      <c r="SK2" s="1"/>
+      <c r="SL2" s="1"/>
+      <c r="SM2" s="1"/>
+      <c r="SN2" s="1"/>
+      <c r="SO2" s="1"/>
+      <c r="SP2" s="1"/>
+      <c r="SQ2" s="1"/>
+      <c r="SR2" s="1"/>
+      <c r="SS2" s="1"/>
+      <c r="ST2" s="1"/>
+      <c r="SU2" s="1"/>
+      <c r="SV2" s="1"/>
+      <c r="SW2" s="1"/>
+      <c r="SX2" s="1"/>
+      <c r="SY2" s="1"/>
+      <c r="SZ2" s="1"/>
+      <c r="TA2" s="1"/>
+      <c r="TB2" s="1"/>
+      <c r="TC2" s="1"/>
+      <c r="TD2" s="1"/>
+      <c r="TE2" s="1"/>
+      <c r="TF2" s="1"/>
+      <c r="TG2" s="1"/>
+      <c r="TH2" s="1"/>
+      <c r="TI2" s="1"/>
+      <c r="TJ2" s="1"/>
+      <c r="TK2" s="1"/>
+      <c r="TL2" s="1"/>
+      <c r="TM2" s="1"/>
+      <c r="TN2" s="1"/>
+      <c r="TO2" s="1"/>
+      <c r="TP2" s="1"/>
+      <c r="TQ2" s="1"/>
+      <c r="TR2" s="1"/>
+      <c r="TS2" s="1"/>
+      <c r="TT2" s="1"/>
+      <c r="TU2" s="1"/>
+      <c r="TV2" s="1"/>
+      <c r="TW2" s="1"/>
+      <c r="TX2" s="1"/>
+      <c r="TY2" s="1"/>
+      <c r="TZ2" s="1"/>
+      <c r="UA2" s="1"/>
+      <c r="UB2" s="1"/>
+      <c r="UC2" s="1"/>
+      <c r="UD2" s="1"/>
+      <c r="UE2" s="1"/>
+      <c r="UF2" s="1"/>
+      <c r="UG2" s="1"/>
+      <c r="UH2" s="1"/>
+      <c r="UI2" s="1"/>
+      <c r="UJ2" s="1"/>
+      <c r="UK2" s="1"/>
+      <c r="UL2" s="1"/>
+      <c r="UM2" s="1"/>
+      <c r="UN2" s="1"/>
+      <c r="UO2" s="1"/>
+      <c r="UP2" s="1"/>
+      <c r="UQ2" s="1"/>
+      <c r="UR2" s="1"/>
+      <c r="US2" s="1"/>
+      <c r="UT2" s="1"/>
+      <c r="UU2" s="1"/>
+      <c r="UV2" s="1"/>
+      <c r="UW2" s="1"/>
+      <c r="UX2" s="1"/>
+      <c r="UY2" s="1"/>
+      <c r="UZ2" s="1"/>
+      <c r="VA2" s="1"/>
+      <c r="VB2" s="1"/>
+      <c r="VC2" s="1"/>
+      <c r="VD2" s="1"/>
+      <c r="VE2" s="1"/>
+      <c r="VF2" s="1"/>
+      <c r="VG2" s="1"/>
+      <c r="VH2" s="1"/>
+      <c r="VI2" s="1"/>
+      <c r="VJ2" s="1"/>
+      <c r="VK2" s="1"/>
+      <c r="VL2" s="1"/>
+      <c r="VM2" s="1"/>
+      <c r="VN2" s="1"/>
+      <c r="VO2" s="1"/>
+      <c r="VP2" s="1"/>
+      <c r="VQ2" s="1"/>
+      <c r="VR2" s="1"/>
+      <c r="VS2" s="1"/>
+      <c r="VT2" s="1"/>
+      <c r="VU2" s="1"/>
+      <c r="VV2" s="1"/>
+      <c r="VW2" s="1"/>
+      <c r="VX2" s="1"/>
+      <c r="VY2" s="1"/>
+      <c r="VZ2" s="1"/>
+      <c r="WA2" s="1"/>
+      <c r="WB2" s="1"/>
+      <c r="WC2" s="1"/>
+      <c r="WD2" s="1"/>
+      <c r="WE2" s="1"/>
+      <c r="WF2" s="1"/>
+      <c r="WG2" s="1"/>
+      <c r="WH2" s="1"/>
+      <c r="WI2" s="1"/>
+      <c r="WJ2" s="1"/>
+      <c r="WK2" s="1"/>
+      <c r="WL2" s="1"/>
+      <c r="WM2" s="1"/>
+      <c r="WN2" s="1"/>
+      <c r="WO2" s="1"/>
+      <c r="WP2" s="1"/>
+      <c r="WQ2" s="1"/>
+      <c r="WR2" s="1"/>
+      <c r="WS2" s="1"/>
+      <c r="WT2" s="1"/>
+      <c r="WU2" s="1"/>
+      <c r="WV2" s="1"/>
+      <c r="WW2" s="1"/>
+      <c r="WX2" s="1"/>
+      <c r="WY2" s="1"/>
+      <c r="WZ2" s="1"/>
+      <c r="XA2" s="1"/>
+      <c r="XB2" s="1"/>
+      <c r="XC2" s="1"/>
+      <c r="XD2" s="1"/>
+      <c r="XE2" s="1"/>
+      <c r="XF2" s="1"/>
+      <c r="XG2" s="1"/>
+      <c r="XH2" s="1"/>
+      <c r="XI2" s="1"/>
+      <c r="XJ2" s="1"/>
+      <c r="XK2" s="1"/>
+      <c r="XL2" s="1"/>
+      <c r="XM2" s="1"/>
+      <c r="XN2" s="1"/>
+      <c r="XO2" s="1"/>
+      <c r="XP2" s="1"/>
+      <c r="XQ2" s="1"/>
+      <c r="XR2" s="1"/>
+      <c r="XS2" s="1"/>
+      <c r="XT2" s="1"/>
+      <c r="XU2" s="1"/>
+      <c r="XV2" s="1"/>
+      <c r="XW2" s="1"/>
+      <c r="XX2" s="1"/>
+      <c r="XY2" s="1"/>
+      <c r="XZ2" s="1"/>
+      <c r="YA2" s="1"/>
+      <c r="YB2" s="1"/>
+      <c r="YC2" s="1"/>
+      <c r="YD2" s="1"/>
+      <c r="YE2" s="1"/>
+      <c r="YF2" s="1"/>
+      <c r="YG2" s="1"/>
+      <c r="YH2" s="1"/>
+      <c r="YI2" s="1"/>
+      <c r="YJ2" s="1"/>
+      <c r="YK2" s="1"/>
+      <c r="YL2" s="1"/>
+      <c r="YM2" s="1"/>
+      <c r="YN2" s="1"/>
+      <c r="YO2" s="1"/>
+      <c r="YP2" s="1"/>
+      <c r="YQ2" s="1"/>
+      <c r="YR2" s="1"/>
+      <c r="YS2" s="1"/>
+      <c r="YT2" s="1"/>
+      <c r="YU2" s="1"/>
+      <c r="YV2" s="1"/>
+      <c r="YW2" s="1"/>
+      <c r="YX2" s="1"/>
+      <c r="YY2" s="1"/>
+      <c r="YZ2" s="1"/>
+      <c r="ZA2" s="1"/>
+      <c r="ZB2" s="1"/>
+      <c r="ZC2" s="1"/>
+      <c r="ZD2" s="1"/>
+      <c r="ZE2" s="1"/>
+      <c r="ZF2" s="1"/>
+      <c r="ZG2" s="1"/>
+      <c r="ZH2" s="1"/>
+      <c r="ZI2" s="1"/>
+      <c r="ZJ2" s="1"/>
+      <c r="ZK2" s="1"/>
+      <c r="ZL2" s="1"/>
+      <c r="ZM2" s="1"/>
+      <c r="ZN2" s="1"/>
+      <c r="ZO2" s="1"/>
+      <c r="ZP2" s="1"/>
+      <c r="ZQ2" s="1"/>
+      <c r="ZR2" s="1"/>
+      <c r="ZS2" s="1"/>
+      <c r="ZT2" s="1"/>
+      <c r="ZU2" s="1"/>
+      <c r="ZV2" s="1"/>
+      <c r="ZW2" s="1"/>
+      <c r="ZX2" s="1"/>
+      <c r="ZY2" s="1"/>
+      <c r="ZZ2" s="1"/>
+      <c r="AAA2" s="1"/>
+      <c r="AAB2" s="1"/>
+      <c r="AAC2" s="1"/>
+      <c r="AAD2" s="1"/>
+      <c r="AAE2" s="1"/>
+      <c r="AAF2" s="1"/>
+      <c r="AAG2" s="1"/>
+      <c r="AAH2" s="1"/>
+      <c r="AAI2" s="1"/>
+      <c r="AAJ2" s="1"/>
+      <c r="AAK2" s="1"/>
+      <c r="AAL2" s="1"/>
+      <c r="AAM2" s="1"/>
+      <c r="AAN2" s="1"/>
+      <c r="AAO2" s="1"/>
+      <c r="AAP2" s="1"/>
+      <c r="AAQ2" s="1"/>
+      <c r="AAR2" s="1"/>
+      <c r="AAS2" s="1"/>
+      <c r="AAT2" s="1"/>
+      <c r="AAU2" s="1"/>
+      <c r="AAV2" s="1"/>
+      <c r="AAW2" s="1"/>
+      <c r="AAX2" s="1"/>
+      <c r="AAY2" s="1"/>
+      <c r="AAZ2" s="1"/>
+      <c r="ABA2" s="1"/>
+      <c r="ABB2" s="1"/>
+      <c r="ABC2" s="1"/>
+      <c r="ABD2" s="1"/>
+      <c r="ABE2" s="1"/>
+      <c r="ABF2" s="1"/>
+      <c r="ABG2" s="1"/>
+      <c r="ABH2" s="1"/>
+      <c r="ABI2" s="1"/>
+      <c r="ABJ2" s="1"/>
+      <c r="ABK2" s="1"/>
+      <c r="ABL2" s="1"/>
+      <c r="ABM2" s="1"/>
+      <c r="ABN2" s="1"/>
+      <c r="ABO2" s="1"/>
+      <c r="ABP2" s="1"/>
+      <c r="ABQ2" s="1"/>
+      <c r="ABR2" s="1"/>
+      <c r="ABS2" s="1"/>
+      <c r="ABT2" s="1"/>
+      <c r="ABU2" s="1"/>
+      <c r="ABV2" s="1"/>
+      <c r="ABW2" s="1"/>
+      <c r="ABX2" s="1"/>
+      <c r="ABY2" s="1"/>
+      <c r="ABZ2" s="1"/>
+      <c r="ACA2" s="1"/>
+      <c r="ACB2" s="1"/>
+      <c r="ACC2" s="1"/>
+      <c r="ACD2" s="1"/>
+      <c r="ACE2" s="1"/>
+      <c r="ACF2" s="1"/>
+      <c r="ACG2" s="1"/>
+      <c r="ACH2" s="1"/>
+      <c r="ACI2" s="1"/>
+      <c r="ACJ2" s="1"/>
+      <c r="ACK2" s="1"/>
+      <c r="ACL2" s="1"/>
+      <c r="ACM2" s="1"/>
+      <c r="ACN2" s="1"/>
+      <c r="ACO2" s="1"/>
+      <c r="ACP2" s="1"/>
+      <c r="ACQ2" s="1"/>
+      <c r="ACR2" s="1"/>
+      <c r="ACS2" s="1"/>
+      <c r="ACT2" s="1"/>
+      <c r="ACU2" s="1"/>
+      <c r="ACV2" s="1"/>
+      <c r="ACW2" s="1"/>
+      <c r="ACX2" s="1"/>
+      <c r="ACY2" s="1"/>
+      <c r="ACZ2" s="1"/>
+      <c r="ADA2" s="1"/>
+      <c r="ADB2" s="1"/>
+      <c r="ADC2" s="1"/>
+      <c r="ADD2" s="1"/>
+      <c r="ADE2" s="1"/>
+      <c r="ADF2" s="1"/>
+      <c r="ADG2" s="1"/>
+      <c r="ADH2" s="1"/>
+      <c r="ADI2" s="1"/>
+      <c r="ADJ2" s="1"/>
+      <c r="ADK2" s="1"/>
+      <c r="ADL2" s="1"/>
+      <c r="ADM2" s="1"/>
+      <c r="ADN2" s="1"/>
+      <c r="ADO2" s="1"/>
+      <c r="ADP2" s="1"/>
+      <c r="ADQ2" s="1"/>
+      <c r="ADR2" s="1"/>
+      <c r="ADS2" s="1"/>
+      <c r="ADT2" s="1"/>
+      <c r="ADU2" s="1"/>
+      <c r="ADV2" s="1"/>
+      <c r="ADW2" s="1"/>
+      <c r="ADX2" s="1"/>
+      <c r="ADY2" s="1"/>
+      <c r="ADZ2" s="1"/>
+      <c r="AEA2" s="1"/>
+      <c r="AEB2" s="1"/>
+      <c r="AEC2" s="1"/>
+      <c r="AED2" s="1"/>
+      <c r="AEE2" s="1"/>
+      <c r="AEF2" s="1"/>
+      <c r="AEG2" s="1"/>
+      <c r="AEH2" s="1"/>
+      <c r="AEI2" s="1"/>
+      <c r="AEJ2" s="1"/>
+      <c r="AEK2" s="1"/>
+      <c r="AEL2" s="1"/>
+      <c r="AEM2" s="1"/>
+      <c r="AEN2" s="1"/>
+      <c r="AEO2" s="1"/>
+      <c r="AEP2" s="1"/>
+      <c r="AEQ2" s="1"/>
+      <c r="AER2" s="1"/>
+      <c r="AES2" s="1"/>
+      <c r="AET2" s="1"/>
+      <c r="AEU2" s="1"/>
+      <c r="AEV2" s="1"/>
+      <c r="AEW2" s="1"/>
+      <c r="AEX2" s="1"/>
+      <c r="AEY2" s="1"/>
+      <c r="AEZ2" s="1"/>
+      <c r="AFA2" s="1"/>
+      <c r="AFB2" s="1"/>
+      <c r="AFC2" s="1"/>
+      <c r="AFD2" s="1"/>
+      <c r="AFE2" s="1"/>
+      <c r="AFF2" s="1"/>
+      <c r="AFG2" s="1"/>
+      <c r="AFH2" s="1"/>
+      <c r="AFI2" s="1"/>
+      <c r="AFJ2" s="1"/>
+      <c r="AFK2" s="1"/>
+      <c r="AFL2" s="1"/>
+      <c r="AFM2" s="1"/>
+      <c r="AFN2" s="1"/>
+      <c r="AFO2" s="1"/>
+      <c r="AFP2" s="1"/>
+      <c r="AFQ2" s="1"/>
+      <c r="AFR2" s="1"/>
+      <c r="AFS2" s="1"/>
+      <c r="AFT2" s="1"/>
+      <c r="AFU2" s="1"/>
+      <c r="AFV2" s="1"/>
+      <c r="AFW2" s="1"/>
+      <c r="AFX2" s="1"/>
+      <c r="AFY2" s="1"/>
+      <c r="AFZ2" s="1"/>
+      <c r="AGA2" s="1"/>
+      <c r="AGB2" s="1"/>
+      <c r="AGC2" s="1"/>
+      <c r="AGD2" s="1"/>
+      <c r="AGE2" s="1"/>
+      <c r="AGF2" s="1"/>
+      <c r="AGG2" s="1"/>
+      <c r="AGH2" s="1"/>
+      <c r="AGI2" s="1"/>
+      <c r="AGJ2" s="1"/>
+      <c r="AGK2" s="1"/>
+      <c r="AGL2" s="1"/>
+      <c r="AGM2" s="1"/>
+      <c r="AGN2" s="1"/>
+      <c r="AGO2" s="1"/>
+      <c r="AGP2" s="1"/>
+      <c r="AGQ2" s="1"/>
+      <c r="AGR2" s="1"/>
+      <c r="AGS2" s="1"/>
+      <c r="AGT2" s="1"/>
+      <c r="AGU2" s="1"/>
+      <c r="AGV2" s="1"/>
+      <c r="AGW2" s="1"/>
+      <c r="AGX2" s="1"/>
+      <c r="AGY2" s="1"/>
+      <c r="AGZ2" s="1"/>
+      <c r="AHA2" s="1"/>
+      <c r="AHB2" s="1"/>
+      <c r="AHC2" s="1"/>
+      <c r="AHD2" s="1"/>
+      <c r="AHE2" s="1"/>
+      <c r="AHF2" s="1"/>
+      <c r="AHG2" s="1"/>
+      <c r="AHH2" s="1"/>
+      <c r="AHI2" s="1"/>
+      <c r="AHJ2" s="1"/>
+      <c r="AHK2" s="1"/>
+      <c r="AHL2" s="1"/>
+      <c r="AHM2" s="1"/>
+      <c r="AHN2" s="1"/>
+      <c r="AHO2" s="1"/>
+      <c r="AHP2" s="1"/>
+      <c r="AHQ2" s="1"/>
+      <c r="AHR2" s="1"/>
+      <c r="AHS2" s="1"/>
+      <c r="AHT2" s="1"/>
+      <c r="AHU2" s="1"/>
+      <c r="AHV2" s="1"/>
+      <c r="AHW2" s="1"/>
+      <c r="AHX2" s="1"/>
+      <c r="AHY2" s="1"/>
+      <c r="AHZ2" s="1"/>
+      <c r="AIA2" s="1"/>
+      <c r="AIB2" s="1"/>
+      <c r="AIC2" s="1"/>
+      <c r="AID2" s="1"/>
+      <c r="AIE2" s="1"/>
+      <c r="AIF2" s="1"/>
+      <c r="AIG2" s="1"/>
+      <c r="AIH2" s="1"/>
+      <c r="AII2" s="1"/>
+      <c r="AIJ2" s="1"/>
+      <c r="AIK2" s="1"/>
+      <c r="AIL2" s="1"/>
+      <c r="AIM2" s="1"/>
+      <c r="AIN2" s="1"/>
+      <c r="AIO2" s="1"/>
+      <c r="AIP2" s="1"/>
+      <c r="AIQ2" s="1"/>
+      <c r="AIR2" s="1"/>
+      <c r="AIS2" s="1"/>
+      <c r="AIT2" s="1"/>
+      <c r="AIU2" s="1"/>
+      <c r="AIV2" s="1"/>
+      <c r="AIW2" s="1"/>
+      <c r="AIX2" s="1"/>
+      <c r="AIY2" s="1"/>
+      <c r="AIZ2" s="1"/>
+      <c r="AJA2" s="1"/>
+      <c r="AJB2" s="1"/>
+      <c r="AJC2" s="1"/>
+      <c r="AJD2" s="1"/>
+      <c r="AJE2" s="1"/>
+      <c r="AJF2" s="1"/>
+      <c r="AJG2" s="1"/>
+      <c r="AJH2" s="1"/>
+      <c r="AJI2" s="1"/>
+      <c r="AJJ2" s="1"/>
+      <c r="AJK2" s="1"/>
+      <c r="AJL2" s="1"/>
+      <c r="AJM2" s="1"/>
+      <c r="AJN2" s="1"/>
+      <c r="AJO2" s="1"/>
+      <c r="AJP2" s="1"/>
+      <c r="AJQ2" s="1"/>
+      <c r="AJR2" s="1"/>
+      <c r="AJS2" s="1"/>
+      <c r="AJT2" s="1"/>
+      <c r="AJU2" s="1"/>
+      <c r="AJV2" s="1"/>
+      <c r="AJW2" s="1"/>
+      <c r="AJX2" s="1"/>
+      <c r="AJY2" s="1"/>
+      <c r="AJZ2" s="1"/>
+      <c r="AKA2" s="1"/>
+      <c r="AKB2" s="1"/>
+      <c r="AKC2" s="1"/>
+      <c r="AKD2" s="1"/>
+      <c r="AKE2" s="1"/>
+      <c r="AKF2" s="1"/>
+      <c r="AKG2" s="1"/>
+      <c r="AKH2" s="1"/>
+      <c r="AKI2" s="1"/>
+      <c r="AKJ2" s="1"/>
+      <c r="AKK2" s="1"/>
+      <c r="AKL2" s="1"/>
+      <c r="AKM2" s="1"/>
+      <c r="AKN2" s="1"/>
+      <c r="AKO2" s="1"/>
+      <c r="AKP2" s="1"/>
+      <c r="AKQ2" s="1"/>
+      <c r="AKR2" s="1"/>
+      <c r="AKS2" s="1"/>
+      <c r="AKT2" s="1"/>
+      <c r="AKU2" s="1"/>
+      <c r="AKV2" s="1"/>
+      <c r="AKW2" s="1"/>
+      <c r="AKX2" s="1"/>
+      <c r="AKY2" s="1"/>
+      <c r="AKZ2" s="1"/>
+      <c r="ALA2" s="1"/>
+      <c r="ALB2" s="1"/>
+      <c r="ALC2" s="1"/>
+      <c r="ALD2" s="1"/>
+      <c r="ALE2" s="1"/>
+      <c r="ALF2" s="1"/>
+      <c r="ALG2" s="1"/>
+      <c r="ALH2" s="1"/>
+      <c r="ALI2" s="1"/>
+      <c r="ALJ2" s="1"/>
+      <c r="ALK2" s="1"/>
+      <c r="ALL2" s="1"/>
+      <c r="ALM2" s="1"/>
+      <c r="ALN2" s="1"/>
+      <c r="ALO2" s="1"/>
+      <c r="ALP2" s="1"/>
+      <c r="ALQ2" s="1"/>
+      <c r="ALR2" s="1"/>
+      <c r="ALS2" s="1"/>
+      <c r="ALT2" s="1"/>
+      <c r="ALU2" s="1"/>
+      <c r="ALV2" s="1"/>
+      <c r="ALW2" s="1"/>
+      <c r="ALX2" s="1"/>
+      <c r="ALY2" s="1"/>
+      <c r="ALZ2" s="1"/>
+      <c r="AMA2" s="1"/>
+      <c r="AMB2" s="1"/>
+      <c r="AMC2" s="1"/>
+      <c r="AMD2" s="1"/>
+      <c r="AME2" s="1"/>
+      <c r="AMF2" s="1"/>
+      <c r="AMG2" s="1"/>
+      <c r="AMH2" s="1"/>
+      <c r="AMI2" s="1"/>
+      <c r="AMJ2" s="1"/>
+      <c r="AMK2" s="1"/>
+    </row>
+    <row r="3" spans="1:1025" ht="29" customHeight="1">
+      <c r="A3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="F3" s="47" t="s">
+        <v>154</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
+      <c r="W3" s="1"/>
+      <c r="X3" s="1"/>
+      <c r="Y3" s="1"/>
+      <c r="Z3" s="1"/>
+      <c r="AA3" s="1"/>
+      <c r="AB3" s="1"/>
+      <c r="AC3" s="1"/>
+      <c r="AD3" s="1"/>
+      <c r="AE3" s="1"/>
+      <c r="AF3" s="1"/>
+      <c r="AG3" s="1"/>
+      <c r="AH3" s="1"/>
+      <c r="AI3" s="1"/>
+      <c r="AJ3" s="1"/>
+      <c r="AK3" s="1"/>
+      <c r="AL3" s="1"/>
+      <c r="AM3" s="1"/>
+      <c r="AN3" s="1"/>
+      <c r="AO3" s="1"/>
+      <c r="AP3" s="1"/>
+      <c r="AQ3" s="1"/>
+      <c r="AR3" s="1"/>
+      <c r="AS3" s="1"/>
+      <c r="AT3" s="1"/>
+      <c r="AU3" s="1"/>
+      <c r="AV3" s="1"/>
+      <c r="AW3" s="1"/>
+      <c r="AX3" s="1"/>
+      <c r="AY3" s="1"/>
+      <c r="AZ3" s="1"/>
+      <c r="BA3" s="1"/>
+      <c r="BB3" s="1"/>
+      <c r="BC3" s="1"/>
+      <c r="BD3" s="1"/>
+      <c r="BE3" s="1"/>
+      <c r="BF3" s="1"/>
+      <c r="BG3" s="1"/>
+      <c r="BH3" s="1"/>
+      <c r="BI3" s="1"/>
+      <c r="BJ3" s="1"/>
+      <c r="BK3" s="1"/>
+      <c r="BL3" s="1"/>
+      <c r="BM3" s="1"/>
+      <c r="BN3" s="1"/>
+      <c r="BO3" s="1"/>
+      <c r="BP3" s="1"/>
+      <c r="BQ3" s="1"/>
+      <c r="BR3" s="1"/>
+      <c r="BS3" s="1"/>
+      <c r="BT3" s="1"/>
+      <c r="BU3" s="1"/>
+      <c r="BV3" s="1"/>
+      <c r="BW3" s="1"/>
+      <c r="BX3" s="1"/>
+      <c r="BY3" s="1"/>
+      <c r="BZ3" s="1"/>
+      <c r="CA3" s="1"/>
+      <c r="CB3" s="1"/>
+      <c r="CC3" s="1"/>
+      <c r="CD3" s="1"/>
+      <c r="CE3" s="1"/>
+      <c r="CF3" s="1"/>
+      <c r="CG3" s="1"/>
+      <c r="CH3" s="1"/>
+      <c r="CI3" s="1"/>
+      <c r="CJ3" s="1"/>
+      <c r="CK3" s="1"/>
+      <c r="CL3" s="1"/>
+      <c r="CM3" s="1"/>
+      <c r="CN3" s="1"/>
+      <c r="CO3" s="1"/>
+      <c r="CP3" s="1"/>
+      <c r="CQ3" s="1"/>
+      <c r="CR3" s="1"/>
+      <c r="CS3" s="1"/>
+      <c r="CT3" s="1"/>
+      <c r="CU3" s="1"/>
+      <c r="CV3" s="1"/>
+      <c r="CW3" s="1"/>
+      <c r="CX3" s="1"/>
+      <c r="CY3" s="1"/>
+      <c r="CZ3" s="1"/>
+      <c r="DA3" s="1"/>
+      <c r="DB3" s="1"/>
+      <c r="DC3" s="1"/>
+      <c r="DD3" s="1"/>
+      <c r="DE3" s="1"/>
+      <c r="DF3" s="1"/>
+      <c r="DG3" s="1"/>
+      <c r="DH3" s="1"/>
+      <c r="DI3" s="1"/>
+      <c r="DJ3" s="1"/>
+      <c r="DK3" s="1"/>
+      <c r="DL3" s="1"/>
+      <c r="DM3" s="1"/>
+      <c r="DN3" s="1"/>
+      <c r="DO3" s="1"/>
+      <c r="DP3" s="1"/>
+      <c r="DQ3" s="1"/>
+      <c r="DR3" s="1"/>
+      <c r="DS3" s="1"/>
+      <c r="DT3" s="1"/>
+      <c r="DU3" s="1"/>
+      <c r="DV3" s="1"/>
+      <c r="DW3" s="1"/>
+      <c r="DX3" s="1"/>
+      <c r="DY3" s="1"/>
+      <c r="DZ3" s="1"/>
+      <c r="EA3" s="1"/>
+      <c r="EB3" s="1"/>
+      <c r="EC3" s="1"/>
+      <c r="ED3" s="1"/>
+      <c r="EE3" s="1"/>
+      <c r="EF3" s="1"/>
+      <c r="EG3" s="1"/>
+      <c r="EH3" s="1"/>
+      <c r="EI3" s="1"/>
+      <c r="EJ3" s="1"/>
+      <c r="EK3" s="1"/>
+      <c r="EL3" s="1"/>
+      <c r="EM3" s="1"/>
+      <c r="EN3" s="1"/>
+      <c r="EO3" s="1"/>
+      <c r="EP3" s="1"/>
+      <c r="EQ3" s="1"/>
+      <c r="ER3" s="1"/>
+      <c r="ES3" s="1"/>
+      <c r="ET3" s="1"/>
+      <c r="EU3" s="1"/>
+      <c r="EV3" s="1"/>
+      <c r="EW3" s="1"/>
+      <c r="EX3" s="1"/>
+      <c r="EY3" s="1"/>
+      <c r="EZ3" s="1"/>
+      <c r="FA3" s="1"/>
+      <c r="FB3" s="1"/>
+      <c r="FC3" s="1"/>
+      <c r="FD3" s="1"/>
+      <c r="FE3" s="1"/>
+      <c r="FF3" s="1"/>
+      <c r="FG3" s="1"/>
+      <c r="FH3" s="1"/>
+      <c r="FI3" s="1"/>
+      <c r="FJ3" s="1"/>
+      <c r="FK3" s="1"/>
+      <c r="FL3" s="1"/>
+      <c r="FM3" s="1"/>
+      <c r="FN3" s="1"/>
+      <c r="FO3" s="1"/>
+      <c r="FP3" s="1"/>
+      <c r="FQ3" s="1"/>
+      <c r="FR3" s="1"/>
+      <c r="FS3" s="1"/>
+      <c r="FT3" s="1"/>
+      <c r="FU3" s="1"/>
+      <c r="FV3" s="1"/>
+      <c r="FW3" s="1"/>
+      <c r="FX3" s="1"/>
+      <c r="FY3" s="1"/>
+      <c r="FZ3" s="1"/>
+      <c r="GA3" s="1"/>
+      <c r="GB3" s="1"/>
+      <c r="GC3" s="1"/>
+      <c r="GD3" s="1"/>
+      <c r="GE3" s="1"/>
+      <c r="GF3" s="1"/>
+      <c r="GG3" s="1"/>
+      <c r="GH3" s="1"/>
+      <c r="GI3" s="1"/>
+      <c r="GJ3" s="1"/>
+      <c r="GK3" s="1"/>
+      <c r="GL3" s="1"/>
+      <c r="GM3" s="1"/>
+      <c r="GN3" s="1"/>
+      <c r="GO3" s="1"/>
+      <c r="GP3" s="1"/>
+      <c r="GQ3" s="1"/>
+      <c r="GR3" s="1"/>
+      <c r="GS3" s="1"/>
+      <c r="GT3" s="1"/>
+      <c r="GU3" s="1"/>
+      <c r="GV3" s="1"/>
+      <c r="GW3" s="1"/>
+      <c r="GX3" s="1"/>
+      <c r="GY3" s="1"/>
+      <c r="GZ3" s="1"/>
+      <c r="HA3" s="1"/>
+      <c r="HB3" s="1"/>
+      <c r="HC3" s="1"/>
+      <c r="HD3" s="1"/>
+      <c r="HE3" s="1"/>
+      <c r="HF3" s="1"/>
+      <c r="HG3" s="1"/>
+      <c r="HH3" s="1"/>
+      <c r="HI3" s="1"/>
+      <c r="HJ3" s="1"/>
+      <c r="HK3" s="1"/>
+      <c r="HL3" s="1"/>
+      <c r="HM3" s="1"/>
+      <c r="HN3" s="1"/>
+      <c r="HO3" s="1"/>
+      <c r="HP3" s="1"/>
+      <c r="HQ3" s="1"/>
+      <c r="HR3" s="1"/>
+      <c r="HS3" s="1"/>
+      <c r="HT3" s="1"/>
+      <c r="HU3" s="1"/>
+      <c r="HV3" s="1"/>
+      <c r="HW3" s="1"/>
+      <c r="HX3" s="1"/>
+      <c r="HY3" s="1"/>
+      <c r="HZ3" s="1"/>
+      <c r="IA3" s="1"/>
+      <c r="IB3" s="1"/>
+      <c r="IC3" s="1"/>
+      <c r="ID3" s="1"/>
+      <c r="IE3" s="1"/>
+      <c r="IF3" s="1"/>
+      <c r="IG3" s="1"/>
+      <c r="IH3" s="1"/>
+      <c r="II3" s="1"/>
+      <c r="IJ3" s="1"/>
+      <c r="IK3" s="1"/>
+      <c r="IL3" s="1"/>
+      <c r="IM3" s="1"/>
+      <c r="IN3" s="1"/>
+      <c r="IO3" s="1"/>
+      <c r="IP3" s="1"/>
+      <c r="IQ3" s="1"/>
+      <c r="IR3" s="1"/>
+      <c r="IS3" s="1"/>
+      <c r="IT3" s="1"/>
+      <c r="IU3" s="1"/>
+      <c r="IV3" s="1"/>
+      <c r="IW3" s="1"/>
+      <c r="IX3" s="1"/>
+      <c r="IY3" s="1"/>
+      <c r="IZ3" s="1"/>
+      <c r="JA3" s="1"/>
+      <c r="JB3" s="1"/>
+      <c r="JC3" s="1"/>
+      <c r="JD3" s="1"/>
+      <c r="JE3" s="1"/>
+      <c r="JF3" s="1"/>
+      <c r="JG3" s="1"/>
+      <c r="JH3" s="1"/>
+      <c r="JI3" s="1"/>
+      <c r="JJ3" s="1"/>
+      <c r="JK3" s="1"/>
+      <c r="JL3" s="1"/>
+      <c r="JM3" s="1"/>
+      <c r="JN3" s="1"/>
+      <c r="JO3" s="1"/>
+      <c r="JP3" s="1"/>
+      <c r="JQ3" s="1"/>
+      <c r="JR3" s="1"/>
+      <c r="JS3" s="1"/>
+      <c r="JT3" s="1"/>
+      <c r="JU3" s="1"/>
+      <c r="JV3" s="1"/>
+      <c r="JW3" s="1"/>
+      <c r="JX3" s="1"/>
+      <c r="JY3" s="1"/>
+      <c r="JZ3" s="1"/>
+      <c r="KA3" s="1"/>
+      <c r="KB3" s="1"/>
+      <c r="KC3" s="1"/>
+      <c r="KD3" s="1"/>
+      <c r="KE3" s="1"/>
+      <c r="KF3" s="1"/>
+      <c r="KG3" s="1"/>
+      <c r="KH3" s="1"/>
+      <c r="KI3" s="1"/>
+      <c r="KJ3" s="1"/>
+      <c r="KK3" s="1"/>
+      <c r="KL3" s="1"/>
+      <c r="KM3" s="1"/>
+      <c r="KN3" s="1"/>
+      <c r="KO3" s="1"/>
+      <c r="KP3" s="1"/>
+      <c r="KQ3" s="1"/>
+      <c r="KR3" s="1"/>
+      <c r="KS3" s="1"/>
+      <c r="KT3" s="1"/>
+      <c r="KU3" s="1"/>
+      <c r="KV3" s="1"/>
+      <c r="KW3" s="1"/>
+      <c r="KX3" s="1"/>
+      <c r="KY3" s="1"/>
+      <c r="KZ3" s="1"/>
+      <c r="LA3" s="1"/>
+      <c r="LB3" s="1"/>
+      <c r="LC3" s="1"/>
+      <c r="LD3" s="1"/>
+      <c r="LE3" s="1"/>
+      <c r="LF3" s="1"/>
+      <c r="LG3" s="1"/>
+      <c r="LH3" s="1"/>
+      <c r="LI3" s="1"/>
+      <c r="LJ3" s="1"/>
+      <c r="LK3" s="1"/>
+      <c r="LL3" s="1"/>
+      <c r="LM3" s="1"/>
+      <c r="LN3" s="1"/>
+      <c r="LO3" s="1"/>
+      <c r="LP3" s="1"/>
+      <c r="LQ3" s="1"/>
+      <c r="LR3" s="1"/>
+      <c r="LS3" s="1"/>
+      <c r="LT3" s="1"/>
+      <c r="LU3" s="1"/>
+      <c r="LV3" s="1"/>
+      <c r="LW3" s="1"/>
+      <c r="LX3" s="1"/>
+      <c r="LY3" s="1"/>
+      <c r="LZ3" s="1"/>
+      <c r="MA3" s="1"/>
+      <c r="MB3" s="1"/>
+      <c r="MC3" s="1"/>
+      <c r="MD3" s="1"/>
+      <c r="ME3" s="1"/>
+      <c r="MF3" s="1"/>
+      <c r="MG3" s="1"/>
+      <c r="MH3" s="1"/>
+      <c r="MI3" s="1"/>
+      <c r="MJ3" s="1"/>
+      <c r="MK3" s="1"/>
+      <c r="ML3" s="1"/>
+      <c r="MM3" s="1"/>
+      <c r="MN3" s="1"/>
+      <c r="MO3" s="1"/>
+      <c r="MP3" s="1"/>
+      <c r="MQ3" s="1"/>
+      <c r="MR3" s="1"/>
+      <c r="MS3" s="1"/>
+      <c r="MT3" s="1"/>
+      <c r="MU3" s="1"/>
+      <c r="MV3" s="1"/>
+      <c r="MW3" s="1"/>
+      <c r="MX3" s="1"/>
+      <c r="MY3" s="1"/>
+      <c r="MZ3" s="1"/>
+      <c r="NA3" s="1"/>
+      <c r="NB3" s="1"/>
+      <c r="NC3" s="1"/>
+      <c r="ND3" s="1"/>
+      <c r="NE3" s="1"/>
+      <c r="NF3" s="1"/>
+      <c r="NG3" s="1"/>
+      <c r="NH3" s="1"/>
+      <c r="NI3" s="1"/>
+      <c r="NJ3" s="1"/>
+      <c r="NK3" s="1"/>
+      <c r="NL3" s="1"/>
+      <c r="NM3" s="1"/>
+      <c r="NN3" s="1"/>
+      <c r="NO3" s="1"/>
+      <c r="NP3" s="1"/>
+      <c r="NQ3" s="1"/>
+      <c r="NR3" s="1"/>
+      <c r="NS3" s="1"/>
+      <c r="NT3" s="1"/>
+      <c r="NU3" s="1"/>
+      <c r="NV3" s="1"/>
+      <c r="NW3" s="1"/>
+      <c r="NX3" s="1"/>
+      <c r="NY3" s="1"/>
+      <c r="NZ3" s="1"/>
+      <c r="OA3" s="1"/>
+      <c r="OB3" s="1"/>
+      <c r="OC3" s="1"/>
+      <c r="OD3" s="1"/>
+      <c r="OE3" s="1"/>
+      <c r="OF3" s="1"/>
+      <c r="OG3" s="1"/>
+      <c r="OH3" s="1"/>
+      <c r="OI3" s="1"/>
+      <c r="OJ3" s="1"/>
+      <c r="OK3" s="1"/>
+      <c r="OL3" s="1"/>
+      <c r="OM3" s="1"/>
+      <c r="ON3" s="1"/>
+      <c r="OO3" s="1"/>
+      <c r="OP3" s="1"/>
+      <c r="OQ3" s="1"/>
+      <c r="OR3" s="1"/>
+      <c r="OS3" s="1"/>
+      <c r="OT3" s="1"/>
+      <c r="OU3" s="1"/>
+      <c r="OV3" s="1"/>
+      <c r="OW3" s="1"/>
+      <c r="OX3" s="1"/>
+      <c r="OY3" s="1"/>
+      <c r="OZ3" s="1"/>
+      <c r="PA3" s="1"/>
+      <c r="PB3" s="1"/>
+      <c r="PC3" s="1"/>
+      <c r="PD3" s="1"/>
+      <c r="PE3" s="1"/>
+      <c r="PF3" s="1"/>
+      <c r="PG3" s="1"/>
+      <c r="PH3" s="1"/>
+      <c r="PI3" s="1"/>
+      <c r="PJ3" s="1"/>
+      <c r="PK3" s="1"/>
+      <c r="PL3" s="1"/>
+      <c r="PM3" s="1"/>
+      <c r="PN3" s="1"/>
+      <c r="PO3" s="1"/>
+      <c r="PP3" s="1"/>
+      <c r="PQ3" s="1"/>
+      <c r="PR3" s="1"/>
+      <c r="PS3" s="1"/>
+      <c r="PT3" s="1"/>
+      <c r="PU3" s="1"/>
+      <c r="PV3" s="1"/>
+      <c r="PW3" s="1"/>
+      <c r="PX3" s="1"/>
+      <c r="PY3" s="1"/>
+      <c r="PZ3" s="1"/>
+      <c r="QA3" s="1"/>
+      <c r="QB3" s="1"/>
+      <c r="QC3" s="1"/>
+      <c r="QD3" s="1"/>
+      <c r="QE3" s="1"/>
+      <c r="QF3" s="1"/>
+      <c r="QG3" s="1"/>
+      <c r="QH3" s="1"/>
+      <c r="QI3" s="1"/>
+      <c r="QJ3" s="1"/>
+      <c r="QK3" s="1"/>
+      <c r="QL3" s="1"/>
+      <c r="QM3" s="1"/>
+      <c r="QN3" s="1"/>
+      <c r="QO3" s="1"/>
+      <c r="QP3" s="1"/>
+      <c r="QQ3" s="1"/>
+      <c r="QR3" s="1"/>
+      <c r="QS3" s="1"/>
+      <c r="QT3" s="1"/>
+      <c r="QU3" s="1"/>
+      <c r="QV3" s="1"/>
+      <c r="QW3" s="1"/>
+      <c r="QX3" s="1"/>
+      <c r="QY3" s="1"/>
+      <c r="QZ3" s="1"/>
+      <c r="RA3" s="1"/>
+      <c r="RB3" s="1"/>
+      <c r="RC3" s="1"/>
+      <c r="RD3" s="1"/>
+      <c r="RE3" s="1"/>
+      <c r="RF3" s="1"/>
+      <c r="RG3" s="1"/>
+      <c r="RH3" s="1"/>
+      <c r="RI3" s="1"/>
+      <c r="RJ3" s="1"/>
+      <c r="RK3" s="1"/>
+      <c r="RL3" s="1"/>
+      <c r="RM3" s="1"/>
+      <c r="RN3" s="1"/>
+      <c r="RO3" s="1"/>
+      <c r="RP3" s="1"/>
+      <c r="RQ3" s="1"/>
+      <c r="RR3" s="1"/>
+      <c r="RS3" s="1"/>
+      <c r="RT3" s="1"/>
+      <c r="RU3" s="1"/>
+      <c r="RV3" s="1"/>
+      <c r="RW3" s="1"/>
+      <c r="RX3" s="1"/>
+      <c r="RY3" s="1"/>
+      <c r="RZ3" s="1"/>
+      <c r="SA3" s="1"/>
+      <c r="SB3" s="1"/>
+      <c r="SC3" s="1"/>
+      <c r="SD3" s="1"/>
+      <c r="SE3" s="1"/>
+      <c r="SF3" s="1"/>
+      <c r="SG3" s="1"/>
+      <c r="SH3" s="1"/>
+      <c r="SI3" s="1"/>
+      <c r="SJ3" s="1"/>
+      <c r="SK3" s="1"/>
+      <c r="SL3" s="1"/>
+      <c r="SM3" s="1"/>
+      <c r="SN3" s="1"/>
+      <c r="SO3" s="1"/>
+      <c r="SP3" s="1"/>
+      <c r="SQ3" s="1"/>
+      <c r="SR3" s="1"/>
+      <c r="SS3" s="1"/>
+      <c r="ST3" s="1"/>
+      <c r="SU3" s="1"/>
+      <c r="SV3" s="1"/>
+      <c r="SW3" s="1"/>
+      <c r="SX3" s="1"/>
+      <c r="SY3" s="1"/>
+      <c r="SZ3" s="1"/>
+      <c r="TA3" s="1"/>
+      <c r="TB3" s="1"/>
+      <c r="TC3" s="1"/>
+      <c r="TD3" s="1"/>
+      <c r="TE3" s="1"/>
+      <c r="TF3" s="1"/>
+      <c r="TG3" s="1"/>
+      <c r="TH3" s="1"/>
+      <c r="TI3" s="1"/>
+      <c r="TJ3" s="1"/>
+      <c r="TK3" s="1"/>
+      <c r="TL3" s="1"/>
+      <c r="TM3" s="1"/>
+      <c r="TN3" s="1"/>
+      <c r="TO3" s="1"/>
+      <c r="TP3" s="1"/>
+      <c r="TQ3" s="1"/>
+      <c r="TR3" s="1"/>
+      <c r="TS3" s="1"/>
+      <c r="TT3" s="1"/>
+      <c r="TU3" s="1"/>
+      <c r="TV3" s="1"/>
+      <c r="TW3" s="1"/>
+      <c r="TX3" s="1"/>
+      <c r="TY3" s="1"/>
+      <c r="TZ3" s="1"/>
+      <c r="UA3" s="1"/>
+      <c r="UB3" s="1"/>
+      <c r="UC3" s="1"/>
+      <c r="UD3" s="1"/>
+      <c r="UE3" s="1"/>
+      <c r="UF3" s="1"/>
+      <c r="UG3" s="1"/>
+      <c r="UH3" s="1"/>
+      <c r="UI3" s="1"/>
+      <c r="UJ3" s="1"/>
+      <c r="UK3" s="1"/>
+      <c r="UL3" s="1"/>
+      <c r="UM3" s="1"/>
+      <c r="UN3" s="1"/>
+      <c r="UO3" s="1"/>
+      <c r="UP3" s="1"/>
+      <c r="UQ3" s="1"/>
+      <c r="UR3" s="1"/>
+      <c r="US3" s="1"/>
+      <c r="UT3" s="1"/>
+      <c r="UU3" s="1"/>
+      <c r="UV3" s="1"/>
+      <c r="UW3" s="1"/>
+      <c r="UX3" s="1"/>
+      <c r="UY3" s="1"/>
+      <c r="UZ3" s="1"/>
+      <c r="VA3" s="1"/>
+      <c r="VB3" s="1"/>
+      <c r="VC3" s="1"/>
+      <c r="VD3" s="1"/>
+      <c r="VE3" s="1"/>
+      <c r="VF3" s="1"/>
+      <c r="VG3" s="1"/>
+      <c r="VH3" s="1"/>
+      <c r="VI3" s="1"/>
+      <c r="VJ3" s="1"/>
+      <c r="VK3" s="1"/>
+      <c r="VL3" s="1"/>
+      <c r="VM3" s="1"/>
+      <c r="VN3" s="1"/>
+      <c r="VO3" s="1"/>
+      <c r="VP3" s="1"/>
+      <c r="VQ3" s="1"/>
+      <c r="VR3" s="1"/>
+      <c r="VS3" s="1"/>
+      <c r="VT3" s="1"/>
+      <c r="VU3" s="1"/>
+      <c r="VV3" s="1"/>
+      <c r="VW3" s="1"/>
+      <c r="VX3" s="1"/>
+      <c r="VY3" s="1"/>
+      <c r="VZ3" s="1"/>
+      <c r="WA3" s="1"/>
+      <c r="WB3" s="1"/>
+      <c r="WC3" s="1"/>
+      <c r="WD3" s="1"/>
+      <c r="WE3" s="1"/>
+      <c r="WF3" s="1"/>
+      <c r="WG3" s="1"/>
+      <c r="WH3" s="1"/>
+      <c r="WI3" s="1"/>
+      <c r="WJ3" s="1"/>
+      <c r="WK3" s="1"/>
+      <c r="WL3" s="1"/>
+      <c r="WM3" s="1"/>
+      <c r="WN3" s="1"/>
+      <c r="WO3" s="1"/>
+      <c r="WP3" s="1"/>
+      <c r="WQ3" s="1"/>
+      <c r="WR3" s="1"/>
+      <c r="WS3" s="1"/>
+      <c r="WT3" s="1"/>
+      <c r="WU3" s="1"/>
+      <c r="WV3" s="1"/>
+      <c r="WW3" s="1"/>
+      <c r="WX3" s="1"/>
+      <c r="WY3" s="1"/>
+      <c r="WZ3" s="1"/>
+      <c r="XA3" s="1"/>
+      <c r="XB3" s="1"/>
+      <c r="XC3" s="1"/>
+      <c r="XD3" s="1"/>
+      <c r="XE3" s="1"/>
+      <c r="XF3" s="1"/>
+      <c r="XG3" s="1"/>
+      <c r="XH3" s="1"/>
+      <c r="XI3" s="1"/>
+      <c r="XJ3" s="1"/>
+      <c r="XK3" s="1"/>
+      <c r="XL3" s="1"/>
+      <c r="XM3" s="1"/>
+      <c r="XN3" s="1"/>
+      <c r="XO3" s="1"/>
+      <c r="XP3" s="1"/>
+      <c r="XQ3" s="1"/>
+      <c r="XR3" s="1"/>
+      <c r="XS3" s="1"/>
+      <c r="XT3" s="1"/>
+      <c r="XU3" s="1"/>
+      <c r="XV3" s="1"/>
+      <c r="XW3" s="1"/>
+      <c r="XX3" s="1"/>
+      <c r="XY3" s="1"/>
+      <c r="XZ3" s="1"/>
+      <c r="YA3" s="1"/>
+      <c r="YB3" s="1"/>
+      <c r="YC3" s="1"/>
+      <c r="YD3" s="1"/>
+      <c r="YE3" s="1"/>
+      <c r="YF3" s="1"/>
+      <c r="YG3" s="1"/>
+      <c r="YH3" s="1"/>
+      <c r="YI3" s="1"/>
+      <c r="YJ3" s="1"/>
+      <c r="YK3" s="1"/>
+      <c r="YL3" s="1"/>
+      <c r="YM3" s="1"/>
+      <c r="YN3" s="1"/>
+      <c r="YO3" s="1"/>
+      <c r="YP3" s="1"/>
+      <c r="YQ3" s="1"/>
+      <c r="YR3" s="1"/>
+      <c r="YS3" s="1"/>
+      <c r="YT3" s="1"/>
+      <c r="YU3" s="1"/>
+      <c r="YV3" s="1"/>
+      <c r="YW3" s="1"/>
+      <c r="YX3" s="1"/>
+      <c r="YY3" s="1"/>
+      <c r="YZ3" s="1"/>
+      <c r="ZA3" s="1"/>
+      <c r="ZB3" s="1"/>
+      <c r="ZC3" s="1"/>
+      <c r="ZD3" s="1"/>
+      <c r="ZE3" s="1"/>
+      <c r="ZF3" s="1"/>
+      <c r="ZG3" s="1"/>
+      <c r="ZH3" s="1"/>
+      <c r="ZI3" s="1"/>
+      <c r="ZJ3" s="1"/>
+      <c r="ZK3" s="1"/>
+      <c r="ZL3" s="1"/>
+      <c r="ZM3" s="1"/>
+      <c r="ZN3" s="1"/>
+      <c r="ZO3" s="1"/>
+      <c r="ZP3" s="1"/>
+      <c r="ZQ3" s="1"/>
+      <c r="ZR3" s="1"/>
+      <c r="ZS3" s="1"/>
+      <c r="ZT3" s="1"/>
+      <c r="ZU3" s="1"/>
+      <c r="ZV3" s="1"/>
+      <c r="ZW3" s="1"/>
+      <c r="ZX3" s="1"/>
+      <c r="ZY3" s="1"/>
+      <c r="ZZ3" s="1"/>
+      <c r="AAA3" s="1"/>
+      <c r="AAB3" s="1"/>
+      <c r="AAC3" s="1"/>
+      <c r="AAD3" s="1"/>
+      <c r="AAE3" s="1"/>
+      <c r="AAF3" s="1"/>
+      <c r="AAG3" s="1"/>
+      <c r="AAH3" s="1"/>
+      <c r="AAI3" s="1"/>
+      <c r="AAJ3" s="1"/>
+      <c r="AAK3" s="1"/>
+      <c r="AAL3" s="1"/>
+      <c r="AAM3" s="1"/>
+      <c r="AAN3" s="1"/>
+      <c r="AAO3" s="1"/>
+      <c r="AAP3" s="1"/>
+      <c r="AAQ3" s="1"/>
+      <c r="AAR3" s="1"/>
+      <c r="AAS3" s="1"/>
+      <c r="AAT3" s="1"/>
+      <c r="AAU3" s="1"/>
+      <c r="AAV3" s="1"/>
+      <c r="AAW3" s="1"/>
+      <c r="AAX3" s="1"/>
+      <c r="AAY3" s="1"/>
+      <c r="AAZ3" s="1"/>
+      <c r="ABA3" s="1"/>
+      <c r="ABB3" s="1"/>
+      <c r="ABC3" s="1"/>
+      <c r="ABD3" s="1"/>
+      <c r="ABE3" s="1"/>
+      <c r="ABF3" s="1"/>
+      <c r="ABG3" s="1"/>
+      <c r="ABH3" s="1"/>
+      <c r="ABI3" s="1"/>
+      <c r="ABJ3" s="1"/>
+      <c r="ABK3" s="1"/>
+      <c r="ABL3" s="1"/>
+      <c r="ABM3" s="1"/>
+      <c r="ABN3" s="1"/>
+      <c r="ABO3" s="1"/>
+      <c r="ABP3" s="1"/>
+      <c r="ABQ3" s="1"/>
+      <c r="ABR3" s="1"/>
+      <c r="ABS3" s="1"/>
+      <c r="ABT3" s="1"/>
+      <c r="ABU3" s="1"/>
+      <c r="ABV3" s="1"/>
+      <c r="ABW3" s="1"/>
+      <c r="ABX3" s="1"/>
+      <c r="ABY3" s="1"/>
+      <c r="ABZ3" s="1"/>
+      <c r="ACA3" s="1"/>
+      <c r="ACB3" s="1"/>
+      <c r="ACC3" s="1"/>
+      <c r="ACD3" s="1"/>
+      <c r="ACE3" s="1"/>
+      <c r="ACF3" s="1"/>
+      <c r="ACG3" s="1"/>
+      <c r="ACH3" s="1"/>
+      <c r="ACI3" s="1"/>
+      <c r="ACJ3" s="1"/>
+      <c r="ACK3" s="1"/>
+      <c r="ACL3" s="1"/>
+      <c r="ACM3" s="1"/>
+      <c r="ACN3" s="1"/>
+      <c r="ACO3" s="1"/>
+      <c r="ACP3" s="1"/>
+      <c r="ACQ3" s="1"/>
+      <c r="ACR3" s="1"/>
+      <c r="ACS3" s="1"/>
+      <c r="ACT3" s="1"/>
+      <c r="ACU3" s="1"/>
+      <c r="ACV3" s="1"/>
+      <c r="ACW3" s="1"/>
+      <c r="ACX3" s="1"/>
+      <c r="ACY3" s="1"/>
+      <c r="ACZ3" s="1"/>
+      <c r="ADA3" s="1"/>
+      <c r="ADB3" s="1"/>
+      <c r="ADC3" s="1"/>
+      <c r="ADD3" s="1"/>
+      <c r="ADE3" s="1"/>
+      <c r="ADF3" s="1"/>
+      <c r="ADG3" s="1"/>
+      <c r="ADH3" s="1"/>
+      <c r="ADI3" s="1"/>
+      <c r="ADJ3" s="1"/>
+      <c r="ADK3" s="1"/>
+      <c r="ADL3" s="1"/>
+      <c r="ADM3" s="1"/>
+      <c r="ADN3" s="1"/>
+      <c r="ADO3" s="1"/>
+      <c r="ADP3" s="1"/>
+      <c r="ADQ3" s="1"/>
+      <c r="ADR3" s="1"/>
+      <c r="ADS3" s="1"/>
+      <c r="ADT3" s="1"/>
+      <c r="ADU3" s="1"/>
+      <c r="ADV3" s="1"/>
+      <c r="ADW3" s="1"/>
+      <c r="ADX3" s="1"/>
+      <c r="ADY3" s="1"/>
+      <c r="ADZ3" s="1"/>
+      <c r="AEA3" s="1"/>
+      <c r="AEB3" s="1"/>
+      <c r="AEC3" s="1"/>
+      <c r="AED3" s="1"/>
+      <c r="AEE3" s="1"/>
+      <c r="AEF3" s="1"/>
+      <c r="AEG3" s="1"/>
+      <c r="AEH3" s="1"/>
+      <c r="AEI3" s="1"/>
+      <c r="AEJ3" s="1"/>
+      <c r="AEK3" s="1"/>
+      <c r="AEL3" s="1"/>
+      <c r="AEM3" s="1"/>
+      <c r="AEN3" s="1"/>
+      <c r="AEO3" s="1"/>
+      <c r="AEP3" s="1"/>
+      <c r="AEQ3" s="1"/>
+      <c r="AER3" s="1"/>
+      <c r="AES3" s="1"/>
+      <c r="AET3" s="1"/>
+      <c r="AEU3" s="1"/>
+      <c r="AEV3" s="1"/>
+      <c r="AEW3" s="1"/>
+      <c r="AEX3" s="1"/>
+      <c r="AEY3" s="1"/>
+      <c r="AEZ3" s="1"/>
+      <c r="AFA3" s="1"/>
+      <c r="AFB3" s="1"/>
+      <c r="AFC3" s="1"/>
+      <c r="AFD3" s="1"/>
+      <c r="AFE3" s="1"/>
+      <c r="AFF3" s="1"/>
+      <c r="AFG3" s="1"/>
+      <c r="AFH3" s="1"/>
+      <c r="AFI3" s="1"/>
+      <c r="AFJ3" s="1"/>
+      <c r="AFK3" s="1"/>
+      <c r="AFL3" s="1"/>
+      <c r="AFM3" s="1"/>
+      <c r="AFN3" s="1"/>
+      <c r="AFO3" s="1"/>
+      <c r="AFP3" s="1"/>
+      <c r="AFQ3" s="1"/>
+      <c r="AFR3" s="1"/>
+      <c r="AFS3" s="1"/>
+      <c r="AFT3" s="1"/>
+      <c r="AFU3" s="1"/>
+      <c r="AFV3" s="1"/>
+      <c r="AFW3" s="1"/>
+      <c r="AFX3" s="1"/>
+      <c r="AFY3" s="1"/>
+      <c r="AFZ3" s="1"/>
+      <c r="AGA3" s="1"/>
+      <c r="AGB3" s="1"/>
+      <c r="AGC3" s="1"/>
+      <c r="AGD3" s="1"/>
+      <c r="AGE3" s="1"/>
+      <c r="AGF3" s="1"/>
+      <c r="AGG3" s="1"/>
+      <c r="AGH3" s="1"/>
+      <c r="AGI3" s="1"/>
+      <c r="AGJ3" s="1"/>
+      <c r="AGK3" s="1"/>
+      <c r="AGL3" s="1"/>
+      <c r="AGM3" s="1"/>
+      <c r="AGN3" s="1"/>
+      <c r="AGO3" s="1"/>
+      <c r="AGP3" s="1"/>
+      <c r="AGQ3" s="1"/>
+      <c r="AGR3" s="1"/>
+      <c r="AGS3" s="1"/>
+      <c r="AGT3" s="1"/>
+      <c r="AGU3" s="1"/>
+      <c r="AGV3" s="1"/>
+      <c r="AGW3" s="1"/>
+      <c r="AGX3" s="1"/>
+      <c r="AGY3" s="1"/>
+      <c r="AGZ3" s="1"/>
+      <c r="AHA3" s="1"/>
+      <c r="AHB3" s="1"/>
+      <c r="AHC3" s="1"/>
+      <c r="AHD3" s="1"/>
+      <c r="AHE3" s="1"/>
+      <c r="AHF3" s="1"/>
+      <c r="AHG3" s="1"/>
+      <c r="AHH3" s="1"/>
+      <c r="AHI3" s="1"/>
+      <c r="AHJ3" s="1"/>
+      <c r="AHK3" s="1"/>
+      <c r="AHL3" s="1"/>
+      <c r="AHM3" s="1"/>
+      <c r="AHN3" s="1"/>
+      <c r="AHO3" s="1"/>
+      <c r="AHP3" s="1"/>
+      <c r="AHQ3" s="1"/>
+      <c r="AHR3" s="1"/>
+      <c r="AHS3" s="1"/>
+      <c r="AHT3" s="1"/>
+      <c r="AHU3" s="1"/>
+      <c r="AHV3" s="1"/>
+      <c r="AHW3" s="1"/>
+      <c r="AHX3" s="1"/>
+      <c r="AHY3" s="1"/>
+      <c r="AHZ3" s="1"/>
+      <c r="AIA3" s="1"/>
+      <c r="AIB3" s="1"/>
+      <c r="AIC3" s="1"/>
+      <c r="AID3" s="1"/>
+      <c r="AIE3" s="1"/>
+      <c r="AIF3" s="1"/>
+      <c r="AIG3" s="1"/>
+      <c r="AIH3" s="1"/>
+      <c r="AII3" s="1"/>
+      <c r="AIJ3" s="1"/>
+      <c r="AIK3" s="1"/>
+      <c r="AIL3" s="1"/>
+      <c r="AIM3" s="1"/>
+      <c r="AIN3" s="1"/>
+      <c r="AIO3" s="1"/>
+      <c r="AIP3" s="1"/>
+      <c r="AIQ3" s="1"/>
+      <c r="AIR3" s="1"/>
+      <c r="AIS3" s="1"/>
+      <c r="AIT3" s="1"/>
+      <c r="AIU3" s="1"/>
+      <c r="AIV3" s="1"/>
+      <c r="AIW3" s="1"/>
+      <c r="AIX3" s="1"/>
+      <c r="AIY3" s="1"/>
+      <c r="AIZ3" s="1"/>
+      <c r="AJA3" s="1"/>
+      <c r="AJB3" s="1"/>
+      <c r="AJC3" s="1"/>
+      <c r="AJD3" s="1"/>
+      <c r="AJE3" s="1"/>
+      <c r="AJF3" s="1"/>
+      <c r="AJG3" s="1"/>
+      <c r="AJH3" s="1"/>
+      <c r="AJI3" s="1"/>
+      <c r="AJJ3" s="1"/>
+      <c r="AJK3" s="1"/>
+      <c r="AJL3" s="1"/>
+      <c r="AJM3" s="1"/>
+      <c r="AJN3" s="1"/>
+      <c r="AJO3" s="1"/>
+      <c r="AJP3" s="1"/>
+      <c r="AJQ3" s="1"/>
+      <c r="AJR3" s="1"/>
+      <c r="AJS3" s="1"/>
+      <c r="AJT3" s="1"/>
+      <c r="AJU3" s="1"/>
+      <c r="AJV3" s="1"/>
+      <c r="AJW3" s="1"/>
+      <c r="AJX3" s="1"/>
+      <c r="AJY3" s="1"/>
+      <c r="AJZ3" s="1"/>
+      <c r="AKA3" s="1"/>
+      <c r="AKB3" s="1"/>
+      <c r="AKC3" s="1"/>
+      <c r="AKD3" s="1"/>
+      <c r="AKE3" s="1"/>
+      <c r="AKF3" s="1"/>
+      <c r="AKG3" s="1"/>
+      <c r="AKH3" s="1"/>
+      <c r="AKI3" s="1"/>
+      <c r="AKJ3" s="1"/>
+      <c r="AKK3" s="1"/>
+      <c r="AKL3" s="1"/>
+      <c r="AKM3" s="1"/>
+      <c r="AKN3" s="1"/>
+      <c r="AKO3" s="1"/>
+      <c r="AKP3" s="1"/>
+      <c r="AKQ3" s="1"/>
+      <c r="AKR3" s="1"/>
+      <c r="AKS3" s="1"/>
+      <c r="AKT3" s="1"/>
+      <c r="AKU3" s="1"/>
+      <c r="AKV3" s="1"/>
+      <c r="AKW3" s="1"/>
+      <c r="AKX3" s="1"/>
+      <c r="AKY3" s="1"/>
+      <c r="AKZ3" s="1"/>
+      <c r="ALA3" s="1"/>
+      <c r="ALB3" s="1"/>
+      <c r="ALC3" s="1"/>
+      <c r="ALD3" s="1"/>
+      <c r="ALE3" s="1"/>
+      <c r="ALF3" s="1"/>
+      <c r="ALG3" s="1"/>
+      <c r="ALH3" s="1"/>
+      <c r="ALI3" s="1"/>
+      <c r="ALJ3" s="1"/>
+      <c r="ALK3" s="1"/>
+      <c r="ALL3" s="1"/>
+      <c r="ALM3" s="1"/>
+      <c r="ALN3" s="1"/>
+      <c r="ALO3" s="1"/>
+      <c r="ALP3" s="1"/>
+      <c r="ALQ3" s="1"/>
+      <c r="ALR3" s="1"/>
+      <c r="ALS3" s="1"/>
+      <c r="ALT3" s="1"/>
+      <c r="ALU3" s="1"/>
+      <c r="ALV3" s="1"/>
+      <c r="ALW3" s="1"/>
+      <c r="ALX3" s="1"/>
+      <c r="ALY3" s="1"/>
+      <c r="ALZ3" s="1"/>
+      <c r="AMA3" s="1"/>
+      <c r="AMB3" s="1"/>
+      <c r="AMC3" s="1"/>
+      <c r="AMD3" s="1"/>
+      <c r="AME3" s="1"/>
+      <c r="AMF3" s="1"/>
+      <c r="AMG3" s="1"/>
+      <c r="AMH3" s="1"/>
+      <c r="AMI3" s="1"/>
+      <c r="AMJ3" s="1"/>
+      <c r="AMK3" s="1"/>
+    </row>
+    <row r="4" spans="1:1025" ht="59" customHeight="1">
+      <c r="A4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="K4" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="L4" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1"/>
+      <c r="W4" s="1"/>
+      <c r="X4" s="1"/>
+      <c r="Y4" s="1"/>
+      <c r="Z4" s="1"/>
+      <c r="AA4" s="1"/>
+      <c r="AB4" s="1"/>
+      <c r="AC4" s="1"/>
+      <c r="AD4" s="1"/>
+      <c r="AE4" s="1"/>
+      <c r="AF4" s="1"/>
+      <c r="AG4" s="1"/>
+      <c r="AH4" s="1"/>
+      <c r="AI4" s="1"/>
+      <c r="AJ4" s="1"/>
+      <c r="AK4" s="1"/>
+      <c r="AL4" s="1"/>
+      <c r="AM4" s="1"/>
+      <c r="AN4" s="1"/>
+      <c r="AO4" s="1"/>
+      <c r="AP4" s="1"/>
+      <c r="AQ4" s="1"/>
+      <c r="AR4" s="1"/>
+      <c r="AS4" s="1"/>
+      <c r="AT4" s="1"/>
+      <c r="AU4" s="1"/>
+      <c r="AV4" s="1"/>
+      <c r="AW4" s="1"/>
+      <c r="AX4" s="1"/>
+      <c r="AY4" s="1"/>
+      <c r="AZ4" s="1"/>
+      <c r="BA4" s="1"/>
+      <c r="BB4" s="1"/>
+      <c r="BC4" s="1"/>
+      <c r="BD4" s="1"/>
+      <c r="BE4" s="1"/>
+      <c r="BF4" s="1"/>
+      <c r="BG4" s="1"/>
+      <c r="BH4" s="1"/>
+      <c r="BI4" s="1"/>
+      <c r="BJ4" s="1"/>
+      <c r="BK4" s="1"/>
+      <c r="BL4" s="1"/>
+      <c r="BM4" s="1"/>
+      <c r="BN4" s="1"/>
+      <c r="BO4" s="1"/>
+      <c r="BP4" s="1"/>
+      <c r="BQ4" s="1"/>
+      <c r="BR4" s="1"/>
+      <c r="BS4" s="1"/>
+      <c r="BT4" s="1"/>
+      <c r="BU4" s="1"/>
+      <c r="BV4" s="1"/>
+      <c r="BW4" s="1"/>
+      <c r="BX4" s="1"/>
+      <c r="BY4" s="1"/>
+      <c r="BZ4" s="1"/>
+      <c r="CA4" s="1"/>
+      <c r="CB4" s="1"/>
+      <c r="CC4" s="1"/>
+      <c r="CD4" s="1"/>
+      <c r="CE4" s="1"/>
+      <c r="CF4" s="1"/>
+      <c r="CG4" s="1"/>
+      <c r="CH4" s="1"/>
+      <c r="CI4" s="1"/>
+      <c r="CJ4" s="1"/>
+      <c r="CK4" s="1"/>
+      <c r="CL4" s="1"/>
+      <c r="CM4" s="1"/>
+      <c r="CN4" s="1"/>
+      <c r="CO4" s="1"/>
+      <c r="CP4" s="1"/>
+      <c r="CQ4" s="1"/>
+      <c r="CR4" s="1"/>
+      <c r="CS4" s="1"/>
+      <c r="CT4" s="1"/>
+      <c r="CU4" s="1"/>
+      <c r="CV4" s="1"/>
+      <c r="CW4" s="1"/>
+      <c r="CX4" s="1"/>
+      <c r="CY4" s="1"/>
+      <c r="CZ4" s="1"/>
+      <c r="DA4" s="1"/>
+      <c r="DB4" s="1"/>
+      <c r="DC4" s="1"/>
+      <c r="DD4" s="1"/>
+      <c r="DE4" s="1"/>
+      <c r="DF4" s="1"/>
+      <c r="DG4" s="1"/>
+      <c r="DH4" s="1"/>
+      <c r="DI4" s="1"/>
+      <c r="DJ4" s="1"/>
+      <c r="DK4" s="1"/>
+      <c r="DL4" s="1"/>
+      <c r="DM4" s="1"/>
+      <c r="DN4" s="1"/>
+      <c r="DO4" s="1"/>
+      <c r="DP4" s="1"/>
+      <c r="DQ4" s="1"/>
+      <c r="DR4" s="1"/>
+      <c r="DS4" s="1"/>
+      <c r="DT4" s="1"/>
+      <c r="DU4" s="1"/>
+      <c r="DV4" s="1"/>
+      <c r="DW4" s="1"/>
+      <c r="DX4" s="1"/>
+      <c r="DY4" s="1"/>
+      <c r="DZ4" s="1"/>
+      <c r="EA4" s="1"/>
+      <c r="EB4" s="1"/>
+      <c r="EC4" s="1"/>
+      <c r="ED4" s="1"/>
+      <c r="EE4" s="1"/>
+      <c r="EF4" s="1"/>
+      <c r="EG4" s="1"/>
+      <c r="EH4" s="1"/>
+      <c r="EI4" s="1"/>
+      <c r="EJ4" s="1"/>
+      <c r="EK4" s="1"/>
+      <c r="EL4" s="1"/>
+      <c r="EM4" s="1"/>
+      <c r="EN4" s="1"/>
+      <c r="EO4" s="1"/>
+      <c r="EP4" s="1"/>
+      <c r="EQ4" s="1"/>
+      <c r="ER4" s="1"/>
+      <c r="ES4" s="1"/>
+      <c r="ET4" s="1"/>
+      <c r="EU4" s="1"/>
+      <c r="EV4" s="1"/>
+      <c r="EW4" s="1"/>
+      <c r="EX4" s="1"/>
+      <c r="EY4" s="1"/>
+      <c r="EZ4" s="1"/>
+      <c r="FA4" s="1"/>
+      <c r="FB4" s="1"/>
+      <c r="FC4" s="1"/>
+      <c r="FD4" s="1"/>
+      <c r="FE4" s="1"/>
+      <c r="FF4" s="1"/>
+      <c r="FG4" s="1"/>
+      <c r="FH4" s="1"/>
+      <c r="FI4" s="1"/>
+      <c r="FJ4" s="1"/>
+      <c r="FK4" s="1"/>
+      <c r="FL4" s="1"/>
+      <c r="FM4" s="1"/>
+      <c r="FN4" s="1"/>
+      <c r="FO4" s="1"/>
+      <c r="FP4" s="1"/>
+      <c r="FQ4" s="1"/>
+      <c r="FR4" s="1"/>
+      <c r="FS4" s="1"/>
+      <c r="FT4" s="1"/>
+      <c r="FU4" s="1"/>
+      <c r="FV4" s="1"/>
+      <c r="FW4" s="1"/>
+      <c r="FX4" s="1"/>
+      <c r="FY4" s="1"/>
+      <c r="FZ4" s="1"/>
+      <c r="GA4" s="1"/>
+      <c r="GB4" s="1"/>
+      <c r="GC4" s="1"/>
+      <c r="GD4" s="1"/>
+      <c r="GE4" s="1"/>
+      <c r="GF4" s="1"/>
+      <c r="GG4" s="1"/>
+      <c r="GH4" s="1"/>
+      <c r="GI4" s="1"/>
+      <c r="GJ4" s="1"/>
+      <c r="GK4" s="1"/>
+      <c r="GL4" s="1"/>
+      <c r="GM4" s="1"/>
+      <c r="GN4" s="1"/>
+      <c r="GO4" s="1"/>
+      <c r="GP4" s="1"/>
+      <c r="GQ4" s="1"/>
+      <c r="GR4" s="1"/>
+      <c r="GS4" s="1"/>
+      <c r="GT4" s="1"/>
+      <c r="GU4" s="1"/>
+      <c r="GV4" s="1"/>
+      <c r="GW4" s="1"/>
+      <c r="GX4" s="1"/>
+      <c r="GY4" s="1"/>
+      <c r="GZ4" s="1"/>
+      <c r="HA4" s="1"/>
+      <c r="HB4" s="1"/>
+      <c r="HC4" s="1"/>
+      <c r="HD4" s="1"/>
+      <c r="HE4" s="1"/>
+      <c r="HF4" s="1"/>
+      <c r="HG4" s="1"/>
+      <c r="HH4" s="1"/>
+      <c r="HI4" s="1"/>
+      <c r="HJ4" s="1"/>
+      <c r="HK4" s="1"/>
+      <c r="HL4" s="1"/>
+      <c r="HM4" s="1"/>
+      <c r="HN4" s="1"/>
+      <c r="HO4" s="1"/>
+      <c r="HP4" s="1"/>
+      <c r="HQ4" s="1"/>
+      <c r="HR4" s="1"/>
+      <c r="HS4" s="1"/>
+      <c r="HT4" s="1"/>
+      <c r="HU4" s="1"/>
+      <c r="HV4" s="1"/>
+      <c r="HW4" s="1"/>
+      <c r="HX4" s="1"/>
+      <c r="HY4" s="1"/>
+      <c r="HZ4" s="1"/>
+      <c r="IA4" s="1"/>
+      <c r="IB4" s="1"/>
+      <c r="IC4" s="1"/>
+      <c r="ID4" s="1"/>
+      <c r="IE4" s="1"/>
+      <c r="IF4" s="1"/>
+      <c r="IG4" s="1"/>
+      <c r="IH4" s="1"/>
+      <c r="II4" s="1"/>
+      <c r="IJ4" s="1"/>
+      <c r="IK4" s="1"/>
+      <c r="IL4" s="1"/>
+      <c r="IM4" s="1"/>
+      <c r="IN4" s="1"/>
+      <c r="IO4" s="1"/>
+      <c r="IP4" s="1"/>
+      <c r="IQ4" s="1"/>
+      <c r="IR4" s="1"/>
+      <c r="IS4" s="1"/>
+      <c r="IT4" s="1"/>
+      <c r="IU4" s="1"/>
+      <c r="IV4" s="1"/>
+      <c r="IW4" s="1"/>
+      <c r="IX4" s="1"/>
+      <c r="IY4" s="1"/>
+      <c r="IZ4" s="1"/>
+      <c r="JA4" s="1"/>
+      <c r="JB4" s="1"/>
+      <c r="JC4" s="1"/>
+      <c r="JD4" s="1"/>
+      <c r="JE4" s="1"/>
+      <c r="JF4" s="1"/>
+      <c r="JG4" s="1"/>
+      <c r="JH4" s="1"/>
+      <c r="JI4" s="1"/>
+      <c r="JJ4" s="1"/>
+      <c r="JK4" s="1"/>
+      <c r="JL4" s="1"/>
+      <c r="JM4" s="1"/>
+      <c r="JN4" s="1"/>
+      <c r="JO4" s="1"/>
+      <c r="JP4" s="1"/>
+      <c r="JQ4" s="1"/>
+      <c r="JR4" s="1"/>
+      <c r="JS4" s="1"/>
+      <c r="JT4" s="1"/>
+      <c r="JU4" s="1"/>
+      <c r="JV4" s="1"/>
+      <c r="JW4" s="1"/>
+      <c r="JX4" s="1"/>
+      <c r="JY4" s="1"/>
+      <c r="JZ4" s="1"/>
+      <c r="KA4" s="1"/>
+      <c r="KB4" s="1"/>
+      <c r="KC4" s="1"/>
+      <c r="KD4" s="1"/>
+      <c r="KE4" s="1"/>
+      <c r="KF4" s="1"/>
+      <c r="KG4" s="1"/>
+      <c r="KH4" s="1"/>
+      <c r="KI4" s="1"/>
+      <c r="KJ4" s="1"/>
+      <c r="KK4" s="1"/>
+      <c r="KL4" s="1"/>
+      <c r="KM4" s="1"/>
+      <c r="KN4" s="1"/>
+      <c r="KO4" s="1"/>
+      <c r="KP4" s="1"/>
+      <c r="KQ4" s="1"/>
+      <c r="KR4" s="1"/>
+      <c r="KS4" s="1"/>
+      <c r="KT4" s="1"/>
+      <c r="KU4" s="1"/>
+      <c r="KV4" s="1"/>
+      <c r="KW4" s="1"/>
+      <c r="KX4" s="1"/>
+      <c r="KY4" s="1"/>
+      <c r="KZ4" s="1"/>
+      <c r="LA4" s="1"/>
+      <c r="LB4" s="1"/>
+      <c r="LC4" s="1"/>
+      <c r="LD4" s="1"/>
+      <c r="LE4" s="1"/>
+      <c r="LF4" s="1"/>
+      <c r="LG4" s="1"/>
+      <c r="LH4" s="1"/>
+      <c r="LI4" s="1"/>
+      <c r="LJ4" s="1"/>
+      <c r="LK4" s="1"/>
+      <c r="LL4" s="1"/>
+      <c r="LM4" s="1"/>
+      <c r="LN4" s="1"/>
+      <c r="LO4" s="1"/>
+      <c r="LP4" s="1"/>
+      <c r="LQ4" s="1"/>
+      <c r="LR4" s="1"/>
+      <c r="LS4" s="1"/>
+      <c r="LT4" s="1"/>
+      <c r="LU4" s="1"/>
+      <c r="LV4" s="1"/>
+      <c r="LW4" s="1"/>
+      <c r="LX4" s="1"/>
+      <c r="LY4" s="1"/>
+      <c r="LZ4" s="1"/>
+      <c r="MA4" s="1"/>
+      <c r="MB4" s="1"/>
+      <c r="MC4" s="1"/>
+      <c r="MD4" s="1"/>
+      <c r="ME4" s="1"/>
+      <c r="MF4" s="1"/>
+      <c r="MG4" s="1"/>
+      <c r="MH4" s="1"/>
+      <c r="MI4" s="1"/>
+      <c r="MJ4" s="1"/>
+      <c r="MK4" s="1"/>
+      <c r="ML4" s="1"/>
+      <c r="MM4" s="1"/>
+      <c r="MN4" s="1"/>
+      <c r="MO4" s="1"/>
+      <c r="MP4" s="1"/>
+      <c r="MQ4" s="1"/>
+      <c r="MR4" s="1"/>
+      <c r="MS4" s="1"/>
+      <c r="MT4" s="1"/>
+      <c r="MU4" s="1"/>
+      <c r="MV4" s="1"/>
+      <c r="MW4" s="1"/>
+      <c r="MX4" s="1"/>
+      <c r="MY4" s="1"/>
+      <c r="MZ4" s="1"/>
+      <c r="NA4" s="1"/>
+      <c r="NB4" s="1"/>
+      <c r="NC4" s="1"/>
+      <c r="ND4" s="1"/>
+      <c r="NE4" s="1"/>
+      <c r="NF4" s="1"/>
+      <c r="NG4" s="1"/>
+      <c r="NH4" s="1"/>
+      <c r="NI4" s="1"/>
+      <c r="NJ4" s="1"/>
+      <c r="NK4" s="1"/>
+      <c r="NL4" s="1"/>
+      <c r="NM4" s="1"/>
+      <c r="NN4" s="1"/>
+      <c r="NO4" s="1"/>
+      <c r="NP4" s="1"/>
+      <c r="NQ4" s="1"/>
+      <c r="NR4" s="1"/>
+      <c r="NS4" s="1"/>
+      <c r="NT4" s="1"/>
+      <c r="NU4" s="1"/>
+      <c r="NV4" s="1"/>
+      <c r="NW4" s="1"/>
+      <c r="NX4" s="1"/>
+      <c r="NY4" s="1"/>
+      <c r="NZ4" s="1"/>
+      <c r="OA4" s="1"/>
+      <c r="OB4" s="1"/>
+      <c r="OC4" s="1"/>
+      <c r="OD4" s="1"/>
+      <c r="OE4" s="1"/>
+      <c r="OF4" s="1"/>
+      <c r="OG4" s="1"/>
+      <c r="OH4" s="1"/>
+      <c r="OI4" s="1"/>
+      <c r="OJ4" s="1"/>
+      <c r="OK4" s="1"/>
+      <c r="OL4" s="1"/>
+      <c r="OM4" s="1"/>
+      <c r="ON4" s="1"/>
+      <c r="OO4" s="1"/>
+      <c r="OP4" s="1"/>
+      <c r="OQ4" s="1"/>
+      <c r="OR4" s="1"/>
+      <c r="OS4" s="1"/>
+      <c r="OT4" s="1"/>
+      <c r="OU4" s="1"/>
+      <c r="OV4" s="1"/>
+      <c r="OW4" s="1"/>
+      <c r="OX4" s="1"/>
+      <c r="OY4" s="1"/>
+      <c r="OZ4" s="1"/>
+      <c r="PA4" s="1"/>
+      <c r="PB4" s="1"/>
+      <c r="PC4" s="1"/>
+      <c r="PD4" s="1"/>
+      <c r="PE4" s="1"/>
+      <c r="PF4" s="1"/>
+      <c r="PG4" s="1"/>
+      <c r="PH4" s="1"/>
+      <c r="PI4" s="1"/>
+      <c r="PJ4" s="1"/>
+      <c r="PK4" s="1"/>
+      <c r="PL4" s="1"/>
+      <c r="PM4" s="1"/>
+      <c r="PN4" s="1"/>
+      <c r="PO4" s="1"/>
+      <c r="PP4" s="1"/>
+      <c r="PQ4" s="1"/>
+      <c r="PR4" s="1"/>
+      <c r="PS4" s="1"/>
+      <c r="PT4" s="1"/>
+      <c r="PU4" s="1"/>
+      <c r="PV4" s="1"/>
+      <c r="PW4" s="1"/>
+      <c r="PX4" s="1"/>
+      <c r="PY4" s="1"/>
+      <c r="PZ4" s="1"/>
+      <c r="QA4" s="1"/>
+      <c r="QB4" s="1"/>
+      <c r="QC4" s="1"/>
+      <c r="QD4" s="1"/>
+      <c r="QE4" s="1"/>
+      <c r="QF4" s="1"/>
+      <c r="QG4" s="1"/>
+      <c r="QH4" s="1"/>
+      <c r="QI4" s="1"/>
+      <c r="QJ4" s="1"/>
+      <c r="QK4" s="1"/>
+      <c r="QL4" s="1"/>
+      <c r="QM4" s="1"/>
+      <c r="QN4" s="1"/>
+      <c r="QO4" s="1"/>
+      <c r="QP4" s="1"/>
+      <c r="QQ4" s="1"/>
+      <c r="QR4" s="1"/>
+      <c r="QS4" s="1"/>
+      <c r="QT4" s="1"/>
+      <c r="QU4" s="1"/>
+      <c r="QV4" s="1"/>
+      <c r="QW4" s="1"/>
+      <c r="QX4" s="1"/>
+      <c r="QY4" s="1"/>
+      <c r="QZ4" s="1"/>
+      <c r="RA4" s="1"/>
+      <c r="RB4" s="1"/>
+      <c r="RC4" s="1"/>
+      <c r="RD4" s="1"/>
+      <c r="RE4" s="1"/>
+      <c r="RF4" s="1"/>
+      <c r="RG4" s="1"/>
+      <c r="RH4" s="1"/>
+      <c r="RI4" s="1"/>
+      <c r="RJ4" s="1"/>
+      <c r="RK4" s="1"/>
+      <c r="RL4" s="1"/>
+      <c r="RM4" s="1"/>
+      <c r="RN4" s="1"/>
+      <c r="RO4" s="1"/>
+      <c r="RP4" s="1"/>
+      <c r="RQ4" s="1"/>
+      <c r="RR4" s="1"/>
+      <c r="RS4" s="1"/>
+      <c r="RT4" s="1"/>
+      <c r="RU4" s="1"/>
+      <c r="RV4" s="1"/>
+      <c r="RW4" s="1"/>
+      <c r="RX4" s="1"/>
+      <c r="RY4" s="1"/>
+      <c r="RZ4" s="1"/>
+      <c r="SA4" s="1"/>
+      <c r="SB4" s="1"/>
+      <c r="SC4" s="1"/>
+      <c r="SD4" s="1"/>
+      <c r="SE4" s="1"/>
+      <c r="SF4" s="1"/>
+      <c r="SG4" s="1"/>
+      <c r="SH4" s="1"/>
+      <c r="SI4" s="1"/>
+      <c r="SJ4" s="1"/>
+      <c r="SK4" s="1"/>
+      <c r="SL4" s="1"/>
+      <c r="SM4" s="1"/>
+      <c r="SN4" s="1"/>
+      <c r="SO4" s="1"/>
+      <c r="SP4" s="1"/>
+      <c r="SQ4" s="1"/>
+      <c r="SR4" s="1"/>
+      <c r="SS4" s="1"/>
+      <c r="ST4" s="1"/>
+      <c r="SU4" s="1"/>
+      <c r="SV4" s="1"/>
+      <c r="SW4" s="1"/>
+      <c r="SX4" s="1"/>
+      <c r="SY4" s="1"/>
+      <c r="SZ4" s="1"/>
+      <c r="TA4" s="1"/>
+      <c r="TB4" s="1"/>
+      <c r="TC4" s="1"/>
+      <c r="TD4" s="1"/>
+      <c r="TE4" s="1"/>
+      <c r="TF4" s="1"/>
+      <c r="TG4" s="1"/>
+      <c r="TH4" s="1"/>
+      <c r="TI4" s="1"/>
+      <c r="TJ4" s="1"/>
+      <c r="TK4" s="1"/>
+      <c r="TL4" s="1"/>
+      <c r="TM4" s="1"/>
+      <c r="TN4" s="1"/>
+      <c r="TO4" s="1"/>
+      <c r="TP4" s="1"/>
+      <c r="TQ4" s="1"/>
+      <c r="TR4" s="1"/>
+      <c r="TS4" s="1"/>
+      <c r="TT4" s="1"/>
+      <c r="TU4" s="1"/>
+      <c r="TV4" s="1"/>
+      <c r="TW4" s="1"/>
+      <c r="TX4" s="1"/>
+      <c r="TY4" s="1"/>
+      <c r="TZ4" s="1"/>
+      <c r="UA4" s="1"/>
+      <c r="UB4" s="1"/>
+      <c r="UC4" s="1"/>
+      <c r="UD4" s="1"/>
+      <c r="UE4" s="1"/>
+      <c r="UF4" s="1"/>
+      <c r="UG4" s="1"/>
+      <c r="UH4" s="1"/>
+      <c r="UI4" s="1"/>
+      <c r="UJ4" s="1"/>
+      <c r="UK4" s="1"/>
+      <c r="UL4" s="1"/>
+      <c r="UM4" s="1"/>
+      <c r="UN4" s="1"/>
+      <c r="UO4" s="1"/>
+      <c r="UP4" s="1"/>
+      <c r="UQ4" s="1"/>
+      <c r="UR4" s="1"/>
+      <c r="US4" s="1"/>
+      <c r="UT4" s="1"/>
+      <c r="UU4" s="1"/>
+      <c r="UV4" s="1"/>
+      <c r="UW4" s="1"/>
+      <c r="UX4" s="1"/>
+      <c r="UY4" s="1"/>
+      <c r="UZ4" s="1"/>
+      <c r="VA4" s="1"/>
+      <c r="VB4" s="1"/>
+      <c r="VC4" s="1"/>
+      <c r="VD4" s="1"/>
+      <c r="VE4" s="1"/>
+      <c r="VF4" s="1"/>
+      <c r="VG4" s="1"/>
+      <c r="VH4" s="1"/>
+      <c r="VI4" s="1"/>
+      <c r="VJ4" s="1"/>
+      <c r="VK4" s="1"/>
+      <c r="VL4" s="1"/>
+      <c r="VM4" s="1"/>
+      <c r="VN4" s="1"/>
+      <c r="VO4" s="1"/>
+      <c r="VP4" s="1"/>
+      <c r="VQ4" s="1"/>
+      <c r="VR4" s="1"/>
+      <c r="VS4" s="1"/>
+      <c r="VT4" s="1"/>
+      <c r="VU4" s="1"/>
+      <c r="VV4" s="1"/>
+      <c r="VW4" s="1"/>
+      <c r="VX4" s="1"/>
+      <c r="VY4" s="1"/>
+      <c r="VZ4" s="1"/>
+      <c r="WA4" s="1"/>
+      <c r="WB4" s="1"/>
+      <c r="WC4" s="1"/>
+      <c r="WD4" s="1"/>
+      <c r="WE4" s="1"/>
+      <c r="WF4" s="1"/>
+      <c r="WG4" s="1"/>
+      <c r="WH4" s="1"/>
+      <c r="WI4" s="1"/>
+      <c r="WJ4" s="1"/>
+      <c r="WK4" s="1"/>
+      <c r="WL4" s="1"/>
+      <c r="WM4" s="1"/>
+      <c r="WN4" s="1"/>
+      <c r="WO4" s="1"/>
+      <c r="WP4" s="1"/>
+      <c r="WQ4" s="1"/>
+      <c r="WR4" s="1"/>
+      <c r="WS4" s="1"/>
+      <c r="WT4" s="1"/>
+      <c r="WU4" s="1"/>
+      <c r="WV4" s="1"/>
+      <c r="WW4" s="1"/>
+      <c r="WX4" s="1"/>
+      <c r="WY4" s="1"/>
+      <c r="WZ4" s="1"/>
+      <c r="XA4" s="1"/>
+      <c r="XB4" s="1"/>
+      <c r="XC4" s="1"/>
+      <c r="XD4" s="1"/>
+      <c r="XE4" s="1"/>
+      <c r="XF4" s="1"/>
+      <c r="XG4" s="1"/>
+      <c r="XH4" s="1"/>
+      <c r="XI4" s="1"/>
+      <c r="XJ4" s="1"/>
+      <c r="XK4" s="1"/>
+      <c r="XL4" s="1"/>
+      <c r="XM4" s="1"/>
+      <c r="XN4" s="1"/>
+      <c r="XO4" s="1"/>
+      <c r="XP4" s="1"/>
+      <c r="XQ4" s="1"/>
+      <c r="XR4" s="1"/>
+      <c r="XS4" s="1"/>
+      <c r="XT4" s="1"/>
+      <c r="XU4" s="1"/>
+      <c r="XV4" s="1"/>
+      <c r="XW4" s="1"/>
+      <c r="XX4" s="1"/>
+      <c r="XY4" s="1"/>
+      <c r="XZ4" s="1"/>
+      <c r="YA4" s="1"/>
+      <c r="YB4" s="1"/>
+      <c r="YC4" s="1"/>
+      <c r="YD4" s="1"/>
+      <c r="YE4" s="1"/>
+      <c r="YF4" s="1"/>
+      <c r="YG4" s="1"/>
+      <c r="YH4" s="1"/>
+      <c r="YI4" s="1"/>
+      <c r="YJ4" s="1"/>
+      <c r="YK4" s="1"/>
+      <c r="YL4" s="1"/>
+      <c r="YM4" s="1"/>
+      <c r="YN4" s="1"/>
+      <c r="YO4" s="1"/>
+      <c r="YP4" s="1"/>
+      <c r="YQ4" s="1"/>
+      <c r="YR4" s="1"/>
+      <c r="YS4" s="1"/>
+      <c r="YT4" s="1"/>
+      <c r="YU4" s="1"/>
+      <c r="YV4" s="1"/>
+      <c r="YW4" s="1"/>
+      <c r="YX4" s="1"/>
+      <c r="YY4" s="1"/>
+      <c r="YZ4" s="1"/>
+      <c r="ZA4" s="1"/>
+      <c r="ZB4" s="1"/>
+      <c r="ZC4" s="1"/>
+      <c r="ZD4" s="1"/>
+      <c r="ZE4" s="1"/>
+      <c r="ZF4" s="1"/>
+      <c r="ZG4" s="1"/>
+      <c r="ZH4" s="1"/>
+      <c r="ZI4" s="1"/>
+      <c r="ZJ4" s="1"/>
+      <c r="ZK4" s="1"/>
+      <c r="ZL4" s="1"/>
+      <c r="ZM4" s="1"/>
+      <c r="ZN4" s="1"/>
+      <c r="ZO4" s="1"/>
+      <c r="ZP4" s="1"/>
+      <c r="ZQ4" s="1"/>
+      <c r="ZR4" s="1"/>
+      <c r="ZS4" s="1"/>
+      <c r="ZT4" s="1"/>
+      <c r="ZU4" s="1"/>
+      <c r="ZV4" s="1"/>
+      <c r="ZW4" s="1"/>
+      <c r="ZX4" s="1"/>
+      <c r="ZY4" s="1"/>
+      <c r="ZZ4" s="1"/>
+      <c r="AAA4" s="1"/>
+      <c r="AAB4" s="1"/>
+      <c r="AAC4" s="1"/>
+      <c r="AAD4" s="1"/>
+      <c r="AAE4" s="1"/>
+      <c r="AAF4" s="1"/>
+      <c r="AAG4" s="1"/>
+      <c r="AAH4" s="1"/>
+      <c r="AAI4" s="1"/>
+      <c r="AAJ4" s="1"/>
+      <c r="AAK4" s="1"/>
+      <c r="AAL4" s="1"/>
+      <c r="AAM4" s="1"/>
+      <c r="AAN4" s="1"/>
+      <c r="AAO4" s="1"/>
+      <c r="AAP4" s="1"/>
+      <c r="AAQ4" s="1"/>
+      <c r="AAR4" s="1"/>
+      <c r="AAS4" s="1"/>
+      <c r="AAT4" s="1"/>
+      <c r="AAU4" s="1"/>
+      <c r="AAV4" s="1"/>
+      <c r="AAW4" s="1"/>
+      <c r="AAX4" s="1"/>
+      <c r="AAY4" s="1"/>
+      <c r="AAZ4" s="1"/>
+      <c r="ABA4" s="1"/>
+      <c r="ABB4" s="1"/>
+      <c r="ABC4" s="1"/>
+      <c r="ABD4" s="1"/>
+      <c r="ABE4" s="1"/>
+      <c r="ABF4" s="1"/>
+      <c r="ABG4" s="1"/>
+      <c r="ABH4" s="1"/>
+      <c r="ABI4" s="1"/>
+      <c r="ABJ4" s="1"/>
+      <c r="ABK4" s="1"/>
+      <c r="ABL4" s="1"/>
+      <c r="ABM4" s="1"/>
+      <c r="ABN4" s="1"/>
+      <c r="ABO4" s="1"/>
+      <c r="ABP4" s="1"/>
+      <c r="ABQ4" s="1"/>
+      <c r="ABR4" s="1"/>
+      <c r="ABS4" s="1"/>
+      <c r="ABT4" s="1"/>
+      <c r="ABU4" s="1"/>
+      <c r="ABV4" s="1"/>
+      <c r="ABW4" s="1"/>
+      <c r="ABX4" s="1"/>
+      <c r="ABY4" s="1"/>
+      <c r="ABZ4" s="1"/>
+      <c r="ACA4" s="1"/>
+      <c r="ACB4" s="1"/>
+      <c r="ACC4" s="1"/>
+      <c r="ACD4" s="1"/>
+      <c r="ACE4" s="1"/>
+      <c r="ACF4" s="1"/>
+      <c r="ACG4" s="1"/>
+      <c r="ACH4" s="1"/>
+      <c r="ACI4" s="1"/>
+      <c r="ACJ4" s="1"/>
+      <c r="ACK4" s="1"/>
+      <c r="ACL4" s="1"/>
+      <c r="ACM4" s="1"/>
+      <c r="ACN4" s="1"/>
+      <c r="ACO4" s="1"/>
+      <c r="ACP4" s="1"/>
+      <c r="ACQ4" s="1"/>
+      <c r="ACR4" s="1"/>
+      <c r="ACS4" s="1"/>
+      <c r="ACT4" s="1"/>
+      <c r="ACU4" s="1"/>
+      <c r="ACV4" s="1"/>
+      <c r="ACW4" s="1"/>
+      <c r="ACX4" s="1"/>
+      <c r="ACY4" s="1"/>
+      <c r="ACZ4" s="1"/>
+      <c r="ADA4" s="1"/>
+      <c r="ADB4" s="1"/>
+      <c r="ADC4" s="1"/>
+      <c r="ADD4" s="1"/>
+      <c r="ADE4" s="1"/>
+      <c r="ADF4" s="1"/>
+      <c r="ADG4" s="1"/>
+      <c r="ADH4" s="1"/>
+      <c r="ADI4" s="1"/>
+      <c r="ADJ4" s="1"/>
+      <c r="ADK4" s="1"/>
+      <c r="ADL4" s="1"/>
+      <c r="ADM4" s="1"/>
+      <c r="ADN4" s="1"/>
+      <c r="ADO4" s="1"/>
+      <c r="ADP4" s="1"/>
+      <c r="ADQ4" s="1"/>
+      <c r="ADR4" s="1"/>
+      <c r="ADS4" s="1"/>
+      <c r="ADT4" s="1"/>
+      <c r="ADU4" s="1"/>
+      <c r="ADV4" s="1"/>
+      <c r="ADW4" s="1"/>
+      <c r="ADX4" s="1"/>
+      <c r="ADY4" s="1"/>
+      <c r="ADZ4" s="1"/>
+      <c r="AEA4" s="1"/>
+      <c r="AEB4" s="1"/>
+      <c r="AEC4" s="1"/>
+      <c r="AED4" s="1"/>
+      <c r="AEE4" s="1"/>
+      <c r="AEF4" s="1"/>
+      <c r="AEG4" s="1"/>
+      <c r="AEH4" s="1"/>
+      <c r="AEI4" s="1"/>
+      <c r="AEJ4" s="1"/>
+      <c r="AEK4" s="1"/>
+      <c r="AEL4" s="1"/>
+      <c r="AEM4" s="1"/>
+      <c r="AEN4" s="1"/>
+      <c r="AEO4" s="1"/>
+      <c r="AEP4" s="1"/>
+      <c r="AEQ4" s="1"/>
+      <c r="AER4" s="1"/>
+      <c r="AES4" s="1"/>
+      <c r="AET4" s="1"/>
+      <c r="AEU4" s="1"/>
+      <c r="AEV4" s="1"/>
+      <c r="AEW4" s="1"/>
+      <c r="AEX4" s="1"/>
+      <c r="AEY4" s="1"/>
+      <c r="AEZ4" s="1"/>
+      <c r="AFA4" s="1"/>
+      <c r="AFB4" s="1"/>
+      <c r="AFC4" s="1"/>
+      <c r="AFD4" s="1"/>
+      <c r="AFE4" s="1"/>
+      <c r="AFF4" s="1"/>
+      <c r="AFG4" s="1"/>
+      <c r="AFH4" s="1"/>
+      <c r="AFI4" s="1"/>
+      <c r="AFJ4" s="1"/>
+      <c r="AFK4" s="1"/>
+      <c r="AFL4" s="1"/>
+      <c r="AFM4" s="1"/>
+      <c r="AFN4" s="1"/>
+      <c r="AFO4" s="1"/>
+      <c r="AFP4" s="1"/>
+      <c r="AFQ4" s="1"/>
+      <c r="AFR4" s="1"/>
+      <c r="AFS4" s="1"/>
+      <c r="AFT4" s="1"/>
+      <c r="AFU4" s="1"/>
+      <c r="AFV4" s="1"/>
+      <c r="AFW4" s="1"/>
+      <c r="AFX4" s="1"/>
+      <c r="AFY4" s="1"/>
+      <c r="AFZ4" s="1"/>
+      <c r="AGA4" s="1"/>
+      <c r="AGB4" s="1"/>
+      <c r="AGC4" s="1"/>
+      <c r="AGD4" s="1"/>
+      <c r="AGE4" s="1"/>
+      <c r="AGF4" s="1"/>
+      <c r="AGG4" s="1"/>
+      <c r="AGH4" s="1"/>
+      <c r="AGI4" s="1"/>
+      <c r="AGJ4" s="1"/>
+      <c r="AGK4" s="1"/>
+      <c r="AGL4" s="1"/>
+      <c r="AGM4" s="1"/>
+      <c r="AGN4" s="1"/>
+      <c r="AGO4" s="1"/>
+      <c r="AGP4" s="1"/>
+      <c r="AGQ4" s="1"/>
+      <c r="AGR4" s="1"/>
+      <c r="AGS4" s="1"/>
+      <c r="AGT4" s="1"/>
+      <c r="AGU4" s="1"/>
+      <c r="AGV4" s="1"/>
+      <c r="AGW4" s="1"/>
+      <c r="AGX4" s="1"/>
+      <c r="AGY4" s="1"/>
+      <c r="AGZ4" s="1"/>
+      <c r="AHA4" s="1"/>
+      <c r="AHB4" s="1"/>
+      <c r="AHC4" s="1"/>
+      <c r="AHD4" s="1"/>
+      <c r="AHE4" s="1"/>
+      <c r="AHF4" s="1"/>
+      <c r="AHG4" s="1"/>
+      <c r="AHH4" s="1"/>
+      <c r="AHI4" s="1"/>
+      <c r="AHJ4" s="1"/>
+      <c r="AHK4" s="1"/>
+      <c r="AHL4" s="1"/>
+      <c r="AHM4" s="1"/>
+      <c r="AHN4" s="1"/>
+      <c r="AHO4" s="1"/>
+      <c r="AHP4" s="1"/>
+      <c r="AHQ4" s="1"/>
+      <c r="AHR4" s="1"/>
+      <c r="AHS4" s="1"/>
+      <c r="AHT4" s="1"/>
+      <c r="AHU4" s="1"/>
+      <c r="AHV4" s="1"/>
+      <c r="AHW4" s="1"/>
+      <c r="AHX4" s="1"/>
+      <c r="AHY4" s="1"/>
+      <c r="AHZ4" s="1"/>
+      <c r="AIA4" s="1"/>
+      <c r="AIB4" s="1"/>
+      <c r="AIC4" s="1"/>
+      <c r="AID4" s="1"/>
+      <c r="AIE4" s="1"/>
+      <c r="AIF4" s="1"/>
+      <c r="AIG4" s="1"/>
+      <c r="AIH4" s="1"/>
+      <c r="AII4" s="1"/>
+      <c r="AIJ4" s="1"/>
+      <c r="AIK4" s="1"/>
+      <c r="AIL4" s="1"/>
+      <c r="AIM4" s="1"/>
+      <c r="AIN4" s="1"/>
+      <c r="AIO4" s="1"/>
+      <c r="AIP4" s="1"/>
+      <c r="AIQ4" s="1"/>
+      <c r="AIR4" s="1"/>
+      <c r="AIS4" s="1"/>
+      <c r="AIT4" s="1"/>
+      <c r="AIU4" s="1"/>
+      <c r="AIV4" s="1"/>
+      <c r="AIW4" s="1"/>
+      <c r="AIX4" s="1"/>
+      <c r="AIY4" s="1"/>
+      <c r="AIZ4" s="1"/>
+      <c r="AJA4" s="1"/>
+      <c r="AJB4" s="1"/>
+      <c r="AJC4" s="1"/>
+      <c r="AJD4" s="1"/>
+      <c r="AJE4" s="1"/>
+      <c r="AJF4" s="1"/>
+      <c r="AJG4" s="1"/>
+      <c r="AJH4" s="1"/>
+      <c r="AJI4" s="1"/>
+      <c r="AJJ4" s="1"/>
+      <c r="AJK4" s="1"/>
+      <c r="AJL4" s="1"/>
+      <c r="AJM4" s="1"/>
+      <c r="AJN4" s="1"/>
+      <c r="AJO4" s="1"/>
+      <c r="AJP4" s="1"/>
+      <c r="AJQ4" s="1"/>
+      <c r="AJR4" s="1"/>
+      <c r="AJS4" s="1"/>
+      <c r="AJT4" s="1"/>
+      <c r="AJU4" s="1"/>
+      <c r="AJV4" s="1"/>
+      <c r="AJW4" s="1"/>
+      <c r="AJX4" s="1"/>
+      <c r="AJY4" s="1"/>
+      <c r="AJZ4" s="1"/>
+      <c r="AKA4" s="1"/>
+      <c r="AKB4" s="1"/>
+      <c r="AKC4" s="1"/>
+      <c r="AKD4" s="1"/>
+      <c r="AKE4" s="1"/>
+      <c r="AKF4" s="1"/>
+      <c r="AKG4" s="1"/>
+      <c r="AKH4" s="1"/>
+      <c r="AKI4" s="1"/>
+      <c r="AKJ4" s="1"/>
+      <c r="AKK4" s="1"/>
+      <c r="AKL4" s="1"/>
+      <c r="AKM4" s="1"/>
+      <c r="AKN4" s="1"/>
+      <c r="AKO4" s="1"/>
+      <c r="AKP4" s="1"/>
+      <c r="AKQ4" s="1"/>
+      <c r="AKR4" s="1"/>
+      <c r="AKS4" s="1"/>
+      <c r="AKT4" s="1"/>
+      <c r="AKU4" s="1"/>
+      <c r="AKV4" s="1"/>
+      <c r="AKW4" s="1"/>
+      <c r="AKX4" s="1"/>
+      <c r="AKY4" s="1"/>
+      <c r="AKZ4" s="1"/>
+      <c r="ALA4" s="1"/>
+      <c r="ALB4" s="1"/>
+      <c r="ALC4" s="1"/>
+      <c r="ALD4" s="1"/>
+      <c r="ALE4" s="1"/>
+      <c r="ALF4" s="1"/>
+      <c r="ALG4" s="1"/>
+      <c r="ALH4" s="1"/>
+      <c r="ALI4" s="1"/>
+      <c r="ALJ4" s="1"/>
+      <c r="ALK4" s="1"/>
+      <c r="ALL4" s="1"/>
+      <c r="ALM4" s="1"/>
+      <c r="ALN4" s="1"/>
+      <c r="ALO4" s="1"/>
+      <c r="ALP4" s="1"/>
+      <c r="ALQ4" s="1"/>
+      <c r="ALR4" s="1"/>
+      <c r="ALS4" s="1"/>
+      <c r="ALT4" s="1"/>
+      <c r="ALU4" s="1"/>
+      <c r="ALV4" s="1"/>
+      <c r="ALW4" s="1"/>
+      <c r="ALX4" s="1"/>
+      <c r="ALY4" s="1"/>
+      <c r="ALZ4" s="1"/>
+      <c r="AMA4" s="1"/>
+      <c r="AMB4" s="1"/>
+      <c r="AMC4" s="1"/>
+      <c r="AMD4" s="1"/>
+      <c r="AME4" s="1"/>
+      <c r="AMF4" s="1"/>
+      <c r="AMG4" s="1"/>
+      <c r="AMH4" s="1"/>
+      <c r="AMI4" s="1"/>
+      <c r="AMJ4" s="1"/>
+      <c r="AMK4" s="1"/>
+    </row>
+    <row r="5" spans="1:1025" ht="15.75" customHeight="1">
+      <c r="A5" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="J5" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="K5" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="L5" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+      <c r="U5" s="1"/>
+      <c r="V5" s="1"/>
+      <c r="W5" s="1"/>
+      <c r="X5" s="1"/>
+      <c r="Y5" s="1"/>
+      <c r="Z5" s="1"/>
+      <c r="AA5" s="1"/>
+      <c r="AB5" s="1"/>
+      <c r="AC5" s="1"/>
+      <c r="AD5" s="1"/>
+      <c r="AE5" s="1"/>
+      <c r="AF5" s="1"/>
+      <c r="AG5" s="1"/>
+      <c r="AH5" s="1"/>
+      <c r="AI5" s="1"/>
+      <c r="AJ5" s="1"/>
+      <c r="AK5" s="1"/>
+      <c r="AL5" s="1"/>
+      <c r="AM5" s="1"/>
+      <c r="AN5" s="1"/>
+      <c r="AO5" s="1"/>
+      <c r="AP5" s="1"/>
+      <c r="AQ5" s="1"/>
+      <c r="AR5" s="1"/>
+      <c r="AS5" s="1"/>
+      <c r="AT5" s="1"/>
+      <c r="AU5" s="1"/>
+      <c r="AV5" s="1"/>
+      <c r="AW5" s="1"/>
+      <c r="AX5" s="1"/>
+      <c r="AY5" s="1"/>
+      <c r="AZ5" s="1"/>
+      <c r="BA5" s="1"/>
+      <c r="BB5" s="1"/>
+      <c r="BC5" s="1"/>
+      <c r="BD5" s="1"/>
+      <c r="BE5" s="1"/>
+      <c r="BF5" s="1"/>
+      <c r="BG5" s="1"/>
+      <c r="BH5" s="1"/>
+      <c r="BI5" s="1"/>
+      <c r="BJ5" s="1"/>
+      <c r="BK5" s="1"/>
+      <c r="BL5" s="1"/>
+      <c r="BM5" s="1"/>
+      <c r="BN5" s="1"/>
+      <c r="BO5" s="1"/>
+      <c r="BP5" s="1"/>
+      <c r="BQ5" s="1"/>
+      <c r="BR5" s="1"/>
+      <c r="BS5" s="1"/>
+      <c r="BT5" s="1"/>
+      <c r="BU5" s="1"/>
+      <c r="BV5" s="1"/>
+      <c r="BW5" s="1"/>
+      <c r="BX5" s="1"/>
+      <c r="BY5" s="1"/>
+      <c r="BZ5" s="1"/>
+      <c r="CA5" s="1"/>
+      <c r="CB5" s="1"/>
+      <c r="CC5" s="1"/>
+      <c r="CD5" s="1"/>
+      <c r="CE5" s="1"/>
+      <c r="CF5" s="1"/>
+      <c r="CG5" s="1"/>
+      <c r="CH5" s="1"/>
+      <c r="CI5" s="1"/>
+      <c r="CJ5" s="1"/>
+      <c r="CK5" s="1"/>
+      <c r="CL5" s="1"/>
+      <c r="CM5" s="1"/>
+      <c r="CN5" s="1"/>
+      <c r="CO5" s="1"/>
+      <c r="CP5" s="1"/>
+      <c r="CQ5" s="1"/>
+      <c r="CR5" s="1"/>
+      <c r="CS5" s="1"/>
+      <c r="CT5" s="1"/>
+      <c r="CU5" s="1"/>
+      <c r="CV5" s="1"/>
+      <c r="CW5" s="1"/>
+      <c r="CX5" s="1"/>
+      <c r="CY5" s="1"/>
+      <c r="CZ5" s="1"/>
+      <c r="DA5" s="1"/>
+      <c r="DB5" s="1"/>
+      <c r="DC5" s="1"/>
+      <c r="DD5" s="1"/>
+      <c r="DE5" s="1"/>
+      <c r="DF5" s="1"/>
+      <c r="DG5" s="1"/>
+      <c r="DH5" s="1"/>
+      <c r="DI5" s="1"/>
+      <c r="DJ5" s="1"/>
+      <c r="DK5" s="1"/>
+      <c r="DL5" s="1"/>
+      <c r="DM5" s="1"/>
+      <c r="DN5" s="1"/>
+      <c r="DO5" s="1"/>
+      <c r="DP5" s="1"/>
+      <c r="DQ5" s="1"/>
+      <c r="DR5" s="1"/>
+      <c r="DS5" s="1"/>
+      <c r="DT5" s="1"/>
+      <c r="DU5" s="1"/>
+      <c r="DV5" s="1"/>
+      <c r="DW5" s="1"/>
+      <c r="DX5" s="1"/>
+      <c r="DY5" s="1"/>
+      <c r="DZ5" s="1"/>
+      <c r="EA5" s="1"/>
+      <c r="EB5" s="1"/>
+      <c r="EC5" s="1"/>
+      <c r="ED5" s="1"/>
+      <c r="EE5" s="1"/>
+      <c r="EF5" s="1"/>
+      <c r="EG5" s="1"/>
+      <c r="EH5" s="1"/>
+      <c r="EI5" s="1"/>
+      <c r="EJ5" s="1"/>
+      <c r="EK5" s="1"/>
+      <c r="EL5" s="1"/>
+      <c r="EM5" s="1"/>
+      <c r="EN5" s="1"/>
+      <c r="EO5" s="1"/>
+      <c r="EP5" s="1"/>
+      <c r="EQ5" s="1"/>
+      <c r="ER5" s="1"/>
+      <c r="ES5" s="1"/>
+      <c r="ET5" s="1"/>
+      <c r="EU5" s="1"/>
+      <c r="EV5" s="1"/>
+      <c r="EW5" s="1"/>
+      <c r="EX5" s="1"/>
+      <c r="EY5" s="1"/>
+      <c r="EZ5" s="1"/>
+      <c r="FA5" s="1"/>
+      <c r="FB5" s="1"/>
+      <c r="FC5" s="1"/>
+      <c r="FD5" s="1"/>
+      <c r="FE5" s="1"/>
+      <c r="FF5" s="1"/>
+      <c r="FG5" s="1"/>
+      <c r="FH5" s="1"/>
+      <c r="FI5" s="1"/>
+      <c r="FJ5" s="1"/>
+      <c r="FK5" s="1"/>
+      <c r="FL5" s="1"/>
+      <c r="FM5" s="1"/>
+      <c r="FN5" s="1"/>
+      <c r="FO5" s="1"/>
+      <c r="FP5" s="1"/>
+      <c r="FQ5" s="1"/>
+      <c r="FR5" s="1"/>
+      <c r="FS5" s="1"/>
+      <c r="FT5" s="1"/>
+      <c r="FU5" s="1"/>
+      <c r="FV5" s="1"/>
+      <c r="FW5" s="1"/>
+      <c r="FX5" s="1"/>
+      <c r="FY5" s="1"/>
+      <c r="FZ5" s="1"/>
+      <c r="GA5" s="1"/>
+      <c r="GB5" s="1"/>
+      <c r="GC5" s="1"/>
+      <c r="GD5" s="1"/>
+      <c r="GE5" s="1"/>
+      <c r="GF5" s="1"/>
+      <c r="GG5" s="1"/>
+      <c r="GH5" s="1"/>
+      <c r="GI5" s="1"/>
+      <c r="GJ5" s="1"/>
+      <c r="GK5" s="1"/>
+      <c r="GL5" s="1"/>
+      <c r="GM5" s="1"/>
+      <c r="GN5" s="1"/>
+      <c r="GO5" s="1"/>
+      <c r="GP5" s="1"/>
+      <c r="GQ5" s="1"/>
+      <c r="GR5" s="1"/>
+      <c r="GS5" s="1"/>
+      <c r="GT5" s="1"/>
+      <c r="GU5" s="1"/>
+      <c r="GV5" s="1"/>
+      <c r="GW5" s="1"/>
+      <c r="GX5" s="1"/>
+      <c r="GY5" s="1"/>
+      <c r="GZ5" s="1"/>
+      <c r="HA5" s="1"/>
+      <c r="HB5" s="1"/>
+      <c r="HC5" s="1"/>
+      <c r="HD5" s="1"/>
+      <c r="HE5" s="1"/>
+      <c r="HF5" s="1"/>
+      <c r="HG5" s="1"/>
+      <c r="HH5" s="1"/>
+      <c r="HI5" s="1"/>
+      <c r="HJ5" s="1"/>
+      <c r="HK5" s="1"/>
+      <c r="HL5" s="1"/>
+      <c r="HM5" s="1"/>
+      <c r="HN5" s="1"/>
+      <c r="HO5" s="1"/>
+      <c r="HP5" s="1"/>
+      <c r="HQ5" s="1"/>
+      <c r="HR5" s="1"/>
+      <c r="HS5" s="1"/>
+      <c r="HT5" s="1"/>
+      <c r="HU5" s="1"/>
+      <c r="HV5" s="1"/>
+      <c r="HW5" s="1"/>
+      <c r="HX5" s="1"/>
+      <c r="HY5" s="1"/>
+      <c r="HZ5" s="1"/>
+      <c r="IA5" s="1"/>
+      <c r="IB5" s="1"/>
+      <c r="IC5" s="1"/>
+      <c r="ID5" s="1"/>
+      <c r="IE5" s="1"/>
+      <c r="IF5" s="1"/>
+      <c r="IG5" s="1"/>
+      <c r="IH5" s="1"/>
+      <c r="II5" s="1"/>
+      <c r="IJ5" s="1"/>
+      <c r="IK5" s="1"/>
+      <c r="IL5" s="1"/>
+      <c r="IM5" s="1"/>
+      <c r="IN5" s="1"/>
+      <c r="IO5" s="1"/>
+      <c r="IP5" s="1"/>
+      <c r="IQ5" s="1"/>
+      <c r="IR5" s="1"/>
+      <c r="IS5" s="1"/>
+      <c r="IT5" s="1"/>
+      <c r="IU5" s="1"/>
+      <c r="IV5" s="1"/>
+      <c r="IW5" s="1"/>
+      <c r="IX5" s="1"/>
+      <c r="IY5" s="1"/>
+      <c r="IZ5" s="1"/>
+      <c r="JA5" s="1"/>
+      <c r="JB5" s="1"/>
+      <c r="JC5" s="1"/>
+      <c r="JD5" s="1"/>
+      <c r="JE5" s="1"/>
+      <c r="JF5" s="1"/>
+      <c r="JG5" s="1"/>
+      <c r="JH5" s="1"/>
+      <c r="JI5" s="1"/>
+      <c r="JJ5" s="1"/>
+      <c r="JK5" s="1"/>
+      <c r="JL5" s="1"/>
+      <c r="JM5" s="1"/>
+      <c r="JN5" s="1"/>
+      <c r="JO5" s="1"/>
+      <c r="JP5" s="1"/>
+      <c r="JQ5" s="1"/>
+      <c r="JR5" s="1"/>
+      <c r="JS5" s="1"/>
+      <c r="JT5" s="1"/>
+      <c r="JU5" s="1"/>
+      <c r="JV5" s="1"/>
+      <c r="JW5" s="1"/>
+      <c r="JX5" s="1"/>
+      <c r="JY5" s="1"/>
+      <c r="JZ5" s="1"/>
+      <c r="KA5" s="1"/>
+      <c r="KB5" s="1"/>
+      <c r="KC5" s="1"/>
+      <c r="KD5" s="1"/>
+      <c r="KE5" s="1"/>
+      <c r="KF5" s="1"/>
+      <c r="KG5" s="1"/>
+      <c r="KH5" s="1"/>
+      <c r="KI5" s="1"/>
+      <c r="KJ5" s="1"/>
+      <c r="KK5" s="1"/>
+      <c r="KL5" s="1"/>
+      <c r="KM5" s="1"/>
+      <c r="KN5" s="1"/>
+      <c r="KO5" s="1"/>
+      <c r="KP5" s="1"/>
+      <c r="KQ5" s="1"/>
+      <c r="KR5" s="1"/>
+      <c r="KS5" s="1"/>
+      <c r="KT5" s="1"/>
+      <c r="KU5" s="1"/>
+      <c r="KV5" s="1"/>
+      <c r="KW5" s="1"/>
+      <c r="KX5" s="1"/>
+      <c r="KY5" s="1"/>
+      <c r="KZ5" s="1"/>
+      <c r="LA5" s="1"/>
+      <c r="LB5" s="1"/>
+      <c r="LC5" s="1"/>
+      <c r="LD5" s="1"/>
+      <c r="LE5" s="1"/>
+      <c r="LF5" s="1"/>
+      <c r="LG5" s="1"/>
+      <c r="LH5" s="1"/>
+      <c r="LI5" s="1"/>
+      <c r="LJ5" s="1"/>
+      <c r="LK5" s="1"/>
+      <c r="LL5" s="1"/>
+      <c r="LM5" s="1"/>
+      <c r="LN5" s="1"/>
+      <c r="LO5" s="1"/>
+      <c r="LP5" s="1"/>
+      <c r="LQ5" s="1"/>
+      <c r="LR5" s="1"/>
+      <c r="LS5" s="1"/>
+      <c r="LT5" s="1"/>
+      <c r="LU5" s="1"/>
+      <c r="LV5" s="1"/>
+      <c r="LW5" s="1"/>
+      <c r="LX5" s="1"/>
+      <c r="LY5" s="1"/>
+      <c r="LZ5" s="1"/>
+      <c r="MA5" s="1"/>
+      <c r="MB5" s="1"/>
+      <c r="MC5" s="1"/>
+      <c r="MD5" s="1"/>
+      <c r="ME5" s="1"/>
+      <c r="MF5" s="1"/>
+      <c r="MG5" s="1"/>
+      <c r="MH5" s="1"/>
+      <c r="MI5" s="1"/>
+      <c r="MJ5" s="1"/>
+      <c r="MK5" s="1"/>
+      <c r="ML5" s="1"/>
+      <c r="MM5" s="1"/>
+      <c r="MN5" s="1"/>
+      <c r="MO5" s="1"/>
+      <c r="MP5" s="1"/>
+      <c r="MQ5" s="1"/>
+      <c r="MR5" s="1"/>
+      <c r="MS5" s="1"/>
+      <c r="MT5" s="1"/>
+      <c r="MU5" s="1"/>
+      <c r="MV5" s="1"/>
+      <c r="MW5" s="1"/>
+      <c r="MX5" s="1"/>
+      <c r="MY5" s="1"/>
+      <c r="MZ5" s="1"/>
+      <c r="NA5" s="1"/>
+      <c r="NB5" s="1"/>
+      <c r="NC5" s="1"/>
+      <c r="ND5" s="1"/>
+      <c r="NE5" s="1"/>
+      <c r="NF5" s="1"/>
+      <c r="NG5" s="1"/>
+      <c r="NH5" s="1"/>
+      <c r="NI5" s="1"/>
+      <c r="NJ5" s="1"/>
+      <c r="NK5" s="1"/>
+      <c r="NL5" s="1"/>
+      <c r="NM5" s="1"/>
+      <c r="NN5" s="1"/>
+      <c r="NO5" s="1"/>
+      <c r="NP5" s="1"/>
+      <c r="NQ5" s="1"/>
+      <c r="NR5" s="1"/>
+      <c r="NS5" s="1"/>
+      <c r="NT5" s="1"/>
+      <c r="NU5" s="1"/>
+      <c r="NV5" s="1"/>
+      <c r="NW5" s="1"/>
+      <c r="NX5" s="1"/>
+      <c r="NY5" s="1"/>
+      <c r="NZ5" s="1"/>
+      <c r="OA5" s="1"/>
+      <c r="OB5" s="1"/>
+      <c r="OC5" s="1"/>
+      <c r="OD5" s="1"/>
+      <c r="OE5" s="1"/>
+      <c r="OF5" s="1"/>
+      <c r="OG5" s="1"/>
+      <c r="OH5" s="1"/>
+      <c r="OI5" s="1"/>
+      <c r="OJ5" s="1"/>
+      <c r="OK5" s="1"/>
+      <c r="OL5" s="1"/>
+      <c r="OM5" s="1"/>
+      <c r="ON5" s="1"/>
+      <c r="OO5" s="1"/>
+      <c r="OP5" s="1"/>
+      <c r="OQ5" s="1"/>
+      <c r="OR5" s="1"/>
+      <c r="OS5" s="1"/>
+      <c r="OT5" s="1"/>
+      <c r="OU5" s="1"/>
+      <c r="OV5" s="1"/>
+      <c r="OW5" s="1"/>
+      <c r="OX5" s="1"/>
+      <c r="OY5" s="1"/>
+      <c r="OZ5" s="1"/>
+      <c r="PA5" s="1"/>
+      <c r="PB5" s="1"/>
+      <c r="PC5" s="1"/>
+      <c r="PD5" s="1"/>
+      <c r="PE5" s="1"/>
+      <c r="PF5" s="1"/>
+      <c r="PG5" s="1"/>
+      <c r="PH5" s="1"/>
+      <c r="PI5" s="1"/>
+      <c r="PJ5" s="1"/>
+      <c r="PK5" s="1"/>
+      <c r="PL5" s="1"/>
+      <c r="PM5" s="1"/>
+      <c r="PN5" s="1"/>
+      <c r="PO5" s="1"/>
+      <c r="PP5" s="1"/>
+      <c r="PQ5" s="1"/>
+      <c r="PR5" s="1"/>
+      <c r="PS5" s="1"/>
+      <c r="PT5" s="1"/>
+      <c r="PU5" s="1"/>
+      <c r="PV5" s="1"/>
+      <c r="PW5" s="1"/>
+      <c r="PX5" s="1"/>
+      <c r="PY5" s="1"/>
+      <c r="PZ5" s="1"/>
+      <c r="QA5" s="1"/>
+      <c r="QB5" s="1"/>
+      <c r="QC5" s="1"/>
+      <c r="QD5" s="1"/>
+      <c r="QE5" s="1"/>
+      <c r="QF5" s="1"/>
+      <c r="QG5" s="1"/>
+      <c r="QH5" s="1"/>
+      <c r="QI5" s="1"/>
+      <c r="QJ5" s="1"/>
+      <c r="QK5" s="1"/>
+      <c r="QL5" s="1"/>
+      <c r="QM5" s="1"/>
+      <c r="QN5" s="1"/>
+      <c r="QO5" s="1"/>
+      <c r="QP5" s="1"/>
+      <c r="QQ5" s="1"/>
+      <c r="QR5" s="1"/>
+      <c r="QS5" s="1"/>
+      <c r="QT5" s="1"/>
+      <c r="QU5" s="1"/>
+      <c r="QV5" s="1"/>
+      <c r="QW5" s="1"/>
+      <c r="QX5" s="1"/>
+      <c r="QY5" s="1"/>
+      <c r="QZ5" s="1"/>
+      <c r="RA5" s="1"/>
+      <c r="RB5" s="1"/>
+      <c r="RC5" s="1"/>
+      <c r="RD5" s="1"/>
+      <c r="RE5" s="1"/>
+      <c r="RF5" s="1"/>
+      <c r="RG5" s="1"/>
+      <c r="RH5" s="1"/>
+      <c r="RI5" s="1"/>
+      <c r="RJ5" s="1"/>
+      <c r="RK5" s="1"/>
+      <c r="RL5" s="1"/>
+      <c r="RM5" s="1"/>
+      <c r="RN5" s="1"/>
+      <c r="RO5" s="1"/>
+      <c r="RP5" s="1"/>
+      <c r="RQ5" s="1"/>
+      <c r="RR5" s="1"/>
+      <c r="RS5" s="1"/>
+      <c r="RT5" s="1"/>
+      <c r="RU5" s="1"/>
+      <c r="RV5" s="1"/>
+      <c r="RW5" s="1"/>
+      <c r="RX5" s="1"/>
+      <c r="RY5" s="1"/>
+      <c r="RZ5" s="1"/>
+      <c r="SA5" s="1"/>
+      <c r="SB5" s="1"/>
+      <c r="SC5" s="1"/>
+      <c r="SD5" s="1"/>
+      <c r="SE5" s="1"/>
+      <c r="SF5" s="1"/>
+      <c r="SG5" s="1"/>
+      <c r="SH5" s="1"/>
+      <c r="SI5" s="1"/>
+      <c r="SJ5" s="1"/>
+      <c r="SK5" s="1"/>
+      <c r="SL5" s="1"/>
+      <c r="SM5" s="1"/>
+      <c r="SN5" s="1"/>
+      <c r="SO5" s="1"/>
+      <c r="SP5" s="1"/>
+      <c r="SQ5" s="1"/>
+      <c r="SR5" s="1"/>
+      <c r="SS5" s="1"/>
+      <c r="ST5" s="1"/>
+      <c r="SU5" s="1"/>
+      <c r="SV5" s="1"/>
+      <c r="SW5" s="1"/>
+      <c r="SX5" s="1"/>
+      <c r="SY5" s="1"/>
+      <c r="SZ5" s="1"/>
+      <c r="TA5" s="1"/>
+      <c r="TB5" s="1"/>
+      <c r="TC5" s="1"/>
+      <c r="TD5" s="1"/>
+      <c r="TE5" s="1"/>
+      <c r="TF5" s="1"/>
+      <c r="TG5" s="1"/>
+      <c r="TH5" s="1"/>
+      <c r="TI5" s="1"/>
+      <c r="TJ5" s="1"/>
+      <c r="TK5" s="1"/>
+      <c r="TL5" s="1"/>
+      <c r="TM5" s="1"/>
+      <c r="TN5" s="1"/>
+      <c r="TO5" s="1"/>
+      <c r="TP5" s="1"/>
+      <c r="TQ5" s="1"/>
+      <c r="TR5" s="1"/>
+      <c r="TS5" s="1"/>
+      <c r="TT5" s="1"/>
+      <c r="TU5" s="1"/>
+      <c r="TV5" s="1"/>
+      <c r="TW5" s="1"/>
+      <c r="TX5" s="1"/>
+      <c r="TY5" s="1"/>
+      <c r="TZ5" s="1"/>
+      <c r="UA5" s="1"/>
+      <c r="UB5" s="1"/>
+      <c r="UC5" s="1"/>
+      <c r="UD5" s="1"/>
+      <c r="UE5" s="1"/>
+      <c r="UF5" s="1"/>
+      <c r="UG5" s="1"/>
+      <c r="UH5" s="1"/>
+      <c r="UI5" s="1"/>
+      <c r="UJ5" s="1"/>
+      <c r="UK5" s="1"/>
+      <c r="UL5" s="1"/>
+      <c r="UM5" s="1"/>
+      <c r="UN5" s="1"/>
+      <c r="UO5" s="1"/>
+      <c r="UP5" s="1"/>
+      <c r="UQ5" s="1"/>
+      <c r="UR5" s="1"/>
+      <c r="US5" s="1"/>
+      <c r="UT5" s="1"/>
+      <c r="UU5" s="1"/>
+      <c r="UV5" s="1"/>
+      <c r="UW5" s="1"/>
+      <c r="UX5" s="1"/>
+      <c r="UY5" s="1"/>
+      <c r="UZ5" s="1"/>
+      <c r="VA5" s="1"/>
+      <c r="VB5" s="1"/>
+      <c r="VC5" s="1"/>
+      <c r="VD5" s="1"/>
+      <c r="VE5" s="1"/>
+      <c r="VF5" s="1"/>
+      <c r="VG5" s="1"/>
+      <c r="VH5" s="1"/>
+      <c r="VI5" s="1"/>
+      <c r="VJ5" s="1"/>
+      <c r="VK5" s="1"/>
+      <c r="VL5" s="1"/>
+      <c r="VM5" s="1"/>
+      <c r="VN5" s="1"/>
+      <c r="VO5" s="1"/>
+      <c r="VP5" s="1"/>
+      <c r="VQ5" s="1"/>
+      <c r="VR5" s="1"/>
+      <c r="VS5" s="1"/>
+      <c r="VT5" s="1"/>
+      <c r="VU5" s="1"/>
+      <c r="VV5" s="1"/>
+      <c r="VW5" s="1"/>
+      <c r="VX5" s="1"/>
+      <c r="VY5" s="1"/>
+      <c r="VZ5" s="1"/>
+      <c r="WA5" s="1"/>
+      <c r="WB5" s="1"/>
+      <c r="WC5" s="1"/>
+      <c r="WD5" s="1"/>
+      <c r="WE5" s="1"/>
+      <c r="WF5" s="1"/>
+      <c r="WG5" s="1"/>
+      <c r="WH5" s="1"/>
+      <c r="WI5" s="1"/>
+      <c r="WJ5" s="1"/>
+      <c r="WK5" s="1"/>
+      <c r="WL5" s="1"/>
+      <c r="WM5" s="1"/>
+      <c r="WN5" s="1"/>
+      <c r="WO5" s="1"/>
+      <c r="WP5" s="1"/>
+      <c r="WQ5" s="1"/>
+      <c r="WR5" s="1"/>
+      <c r="WS5" s="1"/>
+      <c r="WT5" s="1"/>
+      <c r="WU5" s="1"/>
+      <c r="WV5" s="1"/>
+      <c r="WW5" s="1"/>
+      <c r="WX5" s="1"/>
+      <c r="WY5" s="1"/>
+      <c r="WZ5" s="1"/>
+      <c r="XA5" s="1"/>
+      <c r="XB5" s="1"/>
+      <c r="XC5" s="1"/>
+      <c r="XD5" s="1"/>
+      <c r="XE5" s="1"/>
+      <c r="XF5" s="1"/>
+      <c r="XG5" s="1"/>
+      <c r="XH5" s="1"/>
+      <c r="XI5" s="1"/>
+      <c r="XJ5" s="1"/>
+      <c r="XK5" s="1"/>
+      <c r="XL5" s="1"/>
+      <c r="XM5" s="1"/>
+      <c r="XN5" s="1"/>
+      <c r="XO5" s="1"/>
+      <c r="XP5" s="1"/>
+      <c r="XQ5" s="1"/>
+      <c r="XR5" s="1"/>
+      <c r="XS5" s="1"/>
+      <c r="XT5" s="1"/>
+      <c r="XU5" s="1"/>
+      <c r="XV5" s="1"/>
+      <c r="XW5" s="1"/>
+      <c r="XX5" s="1"/>
+      <c r="XY5" s="1"/>
+      <c r="XZ5" s="1"/>
+      <c r="YA5" s="1"/>
+      <c r="YB5" s="1"/>
+      <c r="YC5" s="1"/>
+      <c r="YD5" s="1"/>
+      <c r="YE5" s="1"/>
+      <c r="YF5" s="1"/>
+      <c r="YG5" s="1"/>
+      <c r="YH5" s="1"/>
+      <c r="YI5" s="1"/>
+      <c r="YJ5" s="1"/>
+      <c r="YK5" s="1"/>
+      <c r="YL5" s="1"/>
+      <c r="YM5" s="1"/>
+      <c r="YN5" s="1"/>
+      <c r="YO5" s="1"/>
+      <c r="YP5" s="1"/>
+      <c r="YQ5" s="1"/>
+      <c r="YR5" s="1"/>
+      <c r="YS5" s="1"/>
+      <c r="YT5" s="1"/>
+      <c r="YU5" s="1"/>
+      <c r="YV5" s="1"/>
+      <c r="YW5" s="1"/>
+      <c r="YX5" s="1"/>
+      <c r="YY5" s="1"/>
+      <c r="YZ5" s="1"/>
+      <c r="ZA5" s="1"/>
+      <c r="ZB5" s="1"/>
+      <c r="ZC5" s="1"/>
+      <c r="ZD5" s="1"/>
+      <c r="ZE5" s="1"/>
+      <c r="ZF5" s="1"/>
+      <c r="ZG5" s="1"/>
+      <c r="ZH5" s="1"/>
+      <c r="ZI5" s="1"/>
+      <c r="ZJ5" s="1"/>
+      <c r="ZK5" s="1"/>
+      <c r="ZL5" s="1"/>
+      <c r="ZM5" s="1"/>
+      <c r="ZN5" s="1"/>
+      <c r="ZO5" s="1"/>
+      <c r="ZP5" s="1"/>
+      <c r="ZQ5" s="1"/>
+      <c r="ZR5" s="1"/>
+      <c r="ZS5" s="1"/>
+      <c r="ZT5" s="1"/>
+      <c r="ZU5" s="1"/>
+      <c r="ZV5" s="1"/>
+      <c r="ZW5" s="1"/>
+      <c r="ZX5" s="1"/>
+      <c r="ZY5" s="1"/>
+      <c r="ZZ5" s="1"/>
+      <c r="AAA5" s="1"/>
+      <c r="AAB5" s="1"/>
+      <c r="AAC5" s="1"/>
+      <c r="AAD5" s="1"/>
+      <c r="AAE5" s="1"/>
+      <c r="AAF5" s="1"/>
+      <c r="AAG5" s="1"/>
+      <c r="AAH5" s="1"/>
+      <c r="AAI5" s="1"/>
+      <c r="AAJ5" s="1"/>
+      <c r="AAK5" s="1"/>
+      <c r="AAL5" s="1"/>
+      <c r="AAM5" s="1"/>
+      <c r="AAN5" s="1"/>
+      <c r="AAO5" s="1"/>
+      <c r="AAP5" s="1"/>
+      <c r="AAQ5" s="1"/>
+      <c r="AAR5" s="1"/>
+      <c r="AAS5" s="1"/>
+      <c r="AAT5" s="1"/>
+      <c r="AAU5" s="1"/>
+      <c r="AAV5" s="1"/>
+      <c r="AAW5" s="1"/>
+      <c r="AAX5" s="1"/>
+      <c r="AAY5" s="1"/>
+      <c r="AAZ5" s="1"/>
+      <c r="ABA5" s="1"/>
+      <c r="ABB5" s="1"/>
+      <c r="ABC5" s="1"/>
+      <c r="ABD5" s="1"/>
+      <c r="ABE5" s="1"/>
+      <c r="ABF5" s="1"/>
+      <c r="ABG5" s="1"/>
+      <c r="ABH5" s="1"/>
+      <c r="ABI5" s="1"/>
+      <c r="ABJ5" s="1"/>
+      <c r="ABK5" s="1"/>
+      <c r="ABL5" s="1"/>
+      <c r="ABM5" s="1"/>
+      <c r="ABN5" s="1"/>
+      <c r="ABO5" s="1"/>
+      <c r="ABP5" s="1"/>
+      <c r="ABQ5" s="1"/>
+      <c r="ABR5" s="1"/>
+      <c r="ABS5" s="1"/>
+      <c r="ABT5" s="1"/>
+      <c r="ABU5" s="1"/>
+      <c r="ABV5" s="1"/>
+      <c r="ABW5" s="1"/>
+      <c r="ABX5" s="1"/>
+      <c r="ABY5" s="1"/>
+      <c r="ABZ5" s="1"/>
+      <c r="ACA5" s="1"/>
+      <c r="ACB5" s="1"/>
+      <c r="ACC5" s="1"/>
+      <c r="ACD5" s="1"/>
+      <c r="ACE5" s="1"/>
+      <c r="ACF5" s="1"/>
+      <c r="ACG5" s="1"/>
+      <c r="ACH5" s="1"/>
+      <c r="ACI5" s="1"/>
+      <c r="ACJ5" s="1"/>
+      <c r="ACK5" s="1"/>
+      <c r="ACL5" s="1"/>
+      <c r="ACM5" s="1"/>
+      <c r="ACN5" s="1"/>
+      <c r="ACO5" s="1"/>
+      <c r="ACP5" s="1"/>
+      <c r="ACQ5" s="1"/>
+      <c r="ACR5" s="1"/>
+      <c r="ACS5" s="1"/>
+      <c r="ACT5" s="1"/>
+      <c r="ACU5" s="1"/>
+      <c r="ACV5" s="1"/>
+      <c r="ACW5" s="1"/>
+      <c r="ACX5" s="1"/>
+      <c r="ACY5" s="1"/>
+      <c r="ACZ5" s="1"/>
+      <c r="ADA5" s="1"/>
+      <c r="ADB5" s="1"/>
+      <c r="ADC5" s="1"/>
+      <c r="ADD5" s="1"/>
+      <c r="ADE5" s="1"/>
+      <c r="ADF5" s="1"/>
+      <c r="ADG5" s="1"/>
+      <c r="ADH5" s="1"/>
+      <c r="ADI5" s="1"/>
+      <c r="ADJ5" s="1"/>
+      <c r="ADK5" s="1"/>
+      <c r="ADL5" s="1"/>
+      <c r="ADM5" s="1"/>
+      <c r="ADN5" s="1"/>
+      <c r="ADO5" s="1"/>
+      <c r="ADP5" s="1"/>
+      <c r="ADQ5" s="1"/>
+      <c r="ADR5" s="1"/>
+      <c r="ADS5" s="1"/>
+      <c r="ADT5" s="1"/>
+      <c r="ADU5" s="1"/>
+      <c r="ADV5" s="1"/>
+      <c r="ADW5" s="1"/>
+      <c r="ADX5" s="1"/>
+      <c r="ADY5" s="1"/>
+      <c r="ADZ5" s="1"/>
+      <c r="AEA5" s="1"/>
+      <c r="AEB5" s="1"/>
+      <c r="AEC5" s="1"/>
+      <c r="AED5" s="1"/>
+      <c r="AEE5" s="1"/>
+      <c r="AEF5" s="1"/>
+      <c r="AEG5" s="1"/>
+      <c r="AEH5" s="1"/>
+      <c r="AEI5" s="1"/>
+      <c r="AEJ5" s="1"/>
+      <c r="AEK5" s="1"/>
+      <c r="AEL5" s="1"/>
+      <c r="AEM5" s="1"/>
+      <c r="AEN5" s="1"/>
+      <c r="AEO5" s="1"/>
+      <c r="AEP5" s="1"/>
+      <c r="AEQ5" s="1"/>
+      <c r="AER5" s="1"/>
+      <c r="AES5" s="1"/>
+      <c r="AET5" s="1"/>
+      <c r="AEU5" s="1"/>
+      <c r="AEV5" s="1"/>
+      <c r="AEW5" s="1"/>
+      <c r="AEX5" s="1"/>
+      <c r="AEY5" s="1"/>
+      <c r="AEZ5" s="1"/>
+      <c r="AFA5" s="1"/>
+      <c r="AFB5" s="1"/>
+      <c r="AFC5" s="1"/>
+      <c r="AFD5" s="1"/>
+      <c r="AFE5" s="1"/>
+      <c r="AFF5" s="1"/>
+      <c r="AFG5" s="1"/>
+      <c r="AFH5" s="1"/>
+      <c r="AFI5" s="1"/>
+      <c r="AFJ5" s="1"/>
+      <c r="AFK5" s="1"/>
+      <c r="AFL5" s="1"/>
+      <c r="AFM5" s="1"/>
+      <c r="AFN5" s="1"/>
+      <c r="AFO5" s="1"/>
+      <c r="AFP5" s="1"/>
+      <c r="AFQ5" s="1"/>
+      <c r="AFR5" s="1"/>
+      <c r="AFS5" s="1"/>
+      <c r="AFT5" s="1"/>
+      <c r="AFU5" s="1"/>
+      <c r="AFV5" s="1"/>
+      <c r="AFW5" s="1"/>
+      <c r="AFX5" s="1"/>
+      <c r="AFY5" s="1"/>
+      <c r="AFZ5" s="1"/>
+      <c r="AGA5" s="1"/>
+      <c r="AGB5" s="1"/>
+      <c r="AGC5" s="1"/>
+      <c r="AGD5" s="1"/>
+      <c r="AGE5" s="1"/>
+      <c r="AGF5" s="1"/>
+      <c r="AGG5" s="1"/>
+      <c r="AGH5" s="1"/>
+      <c r="AGI5" s="1"/>
+      <c r="AGJ5" s="1"/>
+      <c r="AGK5" s="1"/>
+      <c r="AGL5" s="1"/>
+      <c r="AGM5" s="1"/>
+      <c r="AGN5" s="1"/>
+      <c r="AGO5" s="1"/>
+      <c r="AGP5" s="1"/>
+      <c r="AGQ5" s="1"/>
+      <c r="AGR5" s="1"/>
+      <c r="AGS5" s="1"/>
+      <c r="AGT5" s="1"/>
+      <c r="AGU5" s="1"/>
+      <c r="AGV5" s="1"/>
+      <c r="AGW5" s="1"/>
+      <c r="AGX5" s="1"/>
+      <c r="AGY5" s="1"/>
+      <c r="AGZ5" s="1"/>
+      <c r="AHA5" s="1"/>
+      <c r="AHB5" s="1"/>
+      <c r="AHC5" s="1"/>
+      <c r="AHD5" s="1"/>
+      <c r="AHE5" s="1"/>
+      <c r="AHF5" s="1"/>
+      <c r="AHG5" s="1"/>
+      <c r="AHH5" s="1"/>
+      <c r="AHI5" s="1"/>
+      <c r="AHJ5" s="1"/>
+      <c r="AHK5" s="1"/>
+      <c r="AHL5" s="1"/>
+      <c r="AHM5" s="1"/>
+      <c r="AHN5" s="1"/>
+      <c r="AHO5" s="1"/>
+      <c r="AHP5" s="1"/>
+      <c r="AHQ5" s="1"/>
+      <c r="AHR5" s="1"/>
+      <c r="AHS5" s="1"/>
+      <c r="AHT5" s="1"/>
+      <c r="AHU5" s="1"/>
+      <c r="AHV5" s="1"/>
+      <c r="AHW5" s="1"/>
+      <c r="AHX5" s="1"/>
+      <c r="AHY5" s="1"/>
+      <c r="AHZ5" s="1"/>
+      <c r="AIA5" s="1"/>
+      <c r="AIB5" s="1"/>
+      <c r="AIC5" s="1"/>
+      <c r="AID5" s="1"/>
+      <c r="AIE5" s="1"/>
+      <c r="AIF5" s="1"/>
+      <c r="AIG5" s="1"/>
+      <c r="AIH5" s="1"/>
+      <c r="AII5" s="1"/>
+      <c r="AIJ5" s="1"/>
+      <c r="AIK5" s="1"/>
+      <c r="AIL5" s="1"/>
+      <c r="AIM5" s="1"/>
+      <c r="AIN5" s="1"/>
+      <c r="AIO5" s="1"/>
+      <c r="AIP5" s="1"/>
+      <c r="AIQ5" s="1"/>
+      <c r="AIR5" s="1"/>
+      <c r="AIS5" s="1"/>
+      <c r="AIT5" s="1"/>
+      <c r="AIU5" s="1"/>
+      <c r="AIV5" s="1"/>
+      <c r="AIW5" s="1"/>
+      <c r="AIX5" s="1"/>
+      <c r="AIY5" s="1"/>
+      <c r="AIZ5" s="1"/>
+      <c r="AJA5" s="1"/>
+      <c r="AJB5" s="1"/>
+      <c r="AJC5" s="1"/>
+      <c r="AJD5" s="1"/>
+      <c r="AJE5" s="1"/>
+      <c r="AJF5" s="1"/>
+      <c r="AJG5" s="1"/>
+      <c r="AJH5" s="1"/>
+      <c r="AJI5" s="1"/>
+      <c r="AJJ5" s="1"/>
+      <c r="AJK5" s="1"/>
+      <c r="AJL5" s="1"/>
+      <c r="AJM5" s="1"/>
+      <c r="AJN5" s="1"/>
+      <c r="AJO5" s="1"/>
+      <c r="AJP5" s="1"/>
+      <c r="AJQ5" s="1"/>
+      <c r="AJR5" s="1"/>
+      <c r="AJS5" s="1"/>
+      <c r="AJT5" s="1"/>
+      <c r="AJU5" s="1"/>
+      <c r="AJV5" s="1"/>
+      <c r="AJW5" s="1"/>
+      <c r="AJX5" s="1"/>
+      <c r="AJY5" s="1"/>
+      <c r="AJZ5" s="1"/>
+      <c r="AKA5" s="1"/>
+      <c r="AKB5" s="1"/>
+      <c r="AKC5" s="1"/>
+      <c r="AKD5" s="1"/>
+      <c r="AKE5" s="1"/>
+      <c r="AKF5" s="1"/>
+      <c r="AKG5" s="1"/>
+      <c r="AKH5" s="1"/>
+      <c r="AKI5" s="1"/>
+      <c r="AKJ5" s="1"/>
+      <c r="AKK5" s="1"/>
+      <c r="AKL5" s="1"/>
+      <c r="AKM5" s="1"/>
+      <c r="AKN5" s="1"/>
+      <c r="AKO5" s="1"/>
+      <c r="AKP5" s="1"/>
+      <c r="AKQ5" s="1"/>
+      <c r="AKR5" s="1"/>
+      <c r="AKS5" s="1"/>
+      <c r="AKT5" s="1"/>
+      <c r="AKU5" s="1"/>
+      <c r="AKV5" s="1"/>
+      <c r="AKW5" s="1"/>
+      <c r="AKX5" s="1"/>
+      <c r="AKY5" s="1"/>
+      <c r="AKZ5" s="1"/>
+      <c r="ALA5" s="1"/>
+      <c r="ALB5" s="1"/>
+      <c r="ALC5" s="1"/>
+      <c r="ALD5" s="1"/>
+      <c r="ALE5" s="1"/>
+      <c r="ALF5" s="1"/>
+      <c r="ALG5" s="1"/>
+      <c r="ALH5" s="1"/>
+      <c r="ALI5" s="1"/>
+      <c r="ALJ5" s="1"/>
+      <c r="ALK5" s="1"/>
+      <c r="ALL5" s="1"/>
+      <c r="ALM5" s="1"/>
+      <c r="ALN5" s="1"/>
+      <c r="ALO5" s="1"/>
+      <c r="ALP5" s="1"/>
+      <c r="ALQ5" s="1"/>
+      <c r="ALR5" s="1"/>
+      <c r="ALS5" s="1"/>
+      <c r="ALT5" s="1"/>
+      <c r="ALU5" s="1"/>
+      <c r="ALV5" s="1"/>
+      <c r="ALW5" s="1"/>
+      <c r="ALX5" s="1"/>
+      <c r="ALY5" s="1"/>
+      <c r="ALZ5" s="1"/>
+      <c r="AMA5" s="1"/>
+      <c r="AMB5" s="1"/>
+      <c r="AMC5" s="1"/>
+      <c r="AMD5" s="1"/>
+      <c r="AME5" s="1"/>
+      <c r="AMF5" s="1"/>
+      <c r="AMG5" s="1"/>
+      <c r="AMH5" s="1"/>
+      <c r="AMI5" s="1"/>
+      <c r="AMJ5" s="1"/>
+      <c r="AMK5" s="1"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F3" r:id="rId1" xr:uid="{652119A4-6CE1-0249-9325-C5E77474DC40}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64AAAA0D-5817-1341-B477-9691324CEEB6}">
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="5" max="5" width="14.83203125" customWidth="1"/>
+    <col min="7" max="7" width="18.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="17">
+      <c r="A1" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="D1" s="33" t="s">
+        <v>127</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="G1" s="34" t="s">
+        <v>188</v>
+      </c>
+      <c r="H1" s="35" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="210">
+      <c r="A2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="119">
+      <c r="A3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="C3" s="47" t="s">
+        <v>201</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="G3" s="36" t="s">
+        <v>197</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="51">
+      <c r="A4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="D4" s="37" t="s">
+        <v>137</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="17">
+      <c r="A5" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C3" r:id="rId1" xr:uid="{D1D88DB1-06B1-7D44-965D-70333E7AFD80}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/public/static/templates/metadata_template.xlsx
+++ b/public/static/templates/metadata_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tushar/CancerModels/pdxfinder-data/template/active_templates/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9588770-7D15-8340-AF5B-913507B94064}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{497D5A0A-BFF0-1348-BA2B-31AF0BB4AE4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="840" yWindow="580" windowWidth="33600" windowHeight="19260" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19260" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="patient" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="356">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="335">
   <si>
     <t>Field</t>
   </si>
@@ -599,18 +599,9 @@
     <t>validation_host_strain_nomenclature</t>
   </si>
   <si>
-    <t>Any technique used to validate PDX against their original patient tumour, including fingerprinting, histology, immunohistochemistry - if several technique were used to validate one model, please list all  techniques/descriptions/passage used. Add rows as necessary.</t>
-  </si>
-  <si>
-    <t>Short description of what was compared and what was the result: (e.g. high, good, moderate concordance between xenograft, 'model validated against histological features of same diagnosis' or 'not determined') - It needs to be clear if the model is validated or not.</t>
-  </si>
-  <si>
     <t>Provide a list of all passages where validation was performed. Passage 0 correspond to first engraftment (if this is not the case please define how passages are numbered).</t>
   </si>
   <si>
-    <t>Validation host mouse strain, following mouse strain nomenclature from MGI JAX.</t>
-  </si>
-  <si>
     <t>fingerprinting</t>
   </si>
   <si>
@@ -728,9 +719,6 @@
     <t>Please add the model Id of the model used to generate the model. If the model was not in this set, please refer to it by external id</t>
   </si>
   <si>
-    <t>Add crucial comments about the model that cannot be expressed by other fields</t>
-  </si>
-  <si>
     <t>Depmap accession, Cellusaurus accession or other id. Please place in comma separated list</t>
   </si>
   <si>
@@ -756,9 +744,6 @@
   </si>
   <si>
     <t>CRC0014LM-P1</t>
-  </si>
-  <si>
-    <t>MSI Status, Ploidy status</t>
   </si>
   <si>
     <t>Most common name associate with model. Please use the CCLE name if available</t>
@@ -1069,15 +1054,6 @@
     <t>KRAS:G12C</t>
   </si>
   <si>
-    <t>HLA_type</t>
-  </si>
-  <si>
-    <t>HLA type</t>
-  </si>
-  <si>
-    <t>HLA-A</t>
-  </si>
-  <si>
     <t>HGNC Symbols</t>
   </si>
   <si>
@@ -1118,9 +1094,6 @@
   </si>
   <si>
     <t>Please provide the supliers brief acronym or name followed by a colon and the number or name use to reference the model</t>
-  </si>
-  <si>
-    <t>Depmap accession, Cellosaurus accession or other id. Please place in comma separated list</t>
   </si>
   <si>
     <r>
@@ -1267,63 +1240,12 @@
     <t>CVCL_0023</t>
   </si>
   <si>
-    <t>related_models</t>
-  </si>
-  <si>
-    <t>Model_ids of any related models linked to the same patient. </t>
-  </si>
-  <si>
-    <t>A088a</t>
-  </si>
-  <si>
-    <t>free alphanumerical and _~. Separated by commas in case of multiple models</t>
-  </si>
-  <si>
-    <t>msi_status</t>
-  </si>
-  <si>
-    <t>MSI status of the model</t>
-  </si>
-  <si>
-    <t>MSS</t>
-  </si>
-  <si>
-    <t>MSI: Miscosatellite Instable, MSS: Miscrosatellite stable</t>
-  </si>
-  <si>
-    <t>mutational_burden</t>
-  </si>
-  <si>
-    <t>Mutational rate per Mb </t>
-  </si>
-  <si>
-    <t>ploidy</t>
-  </si>
-  <si>
-    <t>Ploidy status of the model</t>
-  </si>
-  <si>
     <t>morphological_features</t>
   </si>
   <si>
-    <t>Morphological features of the model</t>
-  </si>
-  <si>
     <t>elongated</t>
   </si>
   <si>
-    <t>histological_validation</t>
-  </si>
-  <si>
-    <t>Immunofluorescent or immunohistochemical validation of the model </t>
-  </si>
-  <si>
-    <t>High concordance</t>
-  </si>
-  <si>
-    <t>Free text</t>
-  </si>
-  <si>
     <t>SNP_analysis</t>
   </si>
   <si>
@@ -1354,14 +1276,29 @@
     <t>Comments about the model that cannot be expressed by other fields</t>
   </si>
   <si>
-    <t>free text , not collected or not provided</t>
+    <t>essential if</t>
+  </si>
+  <si>
+    <t>Any technique used to validate model against their original patient tumour, including fingerprinting, histology, immunohistochemistry - if several technique were used to validate one model, please list all  techniques/descriptions/passage used. Add rows as necessary.</t>
+  </si>
+  <si>
+    <t>Short description of what was compared and what was the result: (e.g. high, good, moderate concordance between model, 'model validated against histological features of same diagnosis' or 'not determined') - It needs to be clear if the model is validated or not.</t>
+  </si>
+  <si>
+    <t>If model type is PDX, then Validation host mouse strain, following mouse strain nomenclature from MGI JAX.</t>
+  </si>
+  <si>
+    <t>If model type is 3D: Organoid or cell lines, Morphological features of the model</t>
+  </si>
+  <si>
+    <t>free text, not collected or not provided</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="26">
+  <fonts count="27">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -1549,6 +1486,12 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -1672,7 +1615,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1818,6 +1761,7 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2244,19 +2188,19 @@
         <v>7</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="J1" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="L1" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>245</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="120">
@@ -2270,34 +2214,34 @@
         <v>10</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>11</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="H2" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="J2" s="6" t="s">
         <v>238</v>
       </c>
-      <c r="I2" s="6" t="s">
-        <v>240</v>
-      </c>
-      <c r="J2" s="6" t="s">
+      <c r="K2" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="L2" s="6" t="s">
         <v>243</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="M2" s="6" t="s">
         <v>246</v>
-      </c>
-      <c r="L2" s="6" t="s">
-        <v>248</v>
-      </c>
-      <c r="M2" s="6" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="29" customHeight="1">
@@ -2326,16 +2270,16 @@
         <v>19</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="K3" s="7" t="s">
         <v>74</v>
       </c>
       <c r="L3" s="7" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="M3" s="7" t="s">
         <v>74</v>
@@ -2367,19 +2311,19 @@
         <v>26</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="J4" s="8" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="K4" s="8" t="s">
         <v>87</v>
       </c>
       <c r="L4" s="8" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="M4" s="8" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="15.75" customHeight="1">
@@ -2569,9 +2513,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AMO980"/>
+  <dimension ref="A1:AMN980"/>
   <sheetViews>
-    <sheetView zoomScale="87" zoomScaleNormal="87" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
+      <selection activeCell="W2" sqref="W2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <cols>
@@ -2590,14 +2536,14 @@
     <col min="14" max="14" width="25" style="12" customWidth="1"/>
     <col min="15" max="15" width="17.5" style="12" customWidth="1"/>
     <col min="16" max="16" width="18.6640625" style="12" customWidth="1"/>
-    <col min="17" max="19" width="34.33203125" style="12" customWidth="1"/>
-    <col min="20" max="22" width="31.83203125" style="12" customWidth="1"/>
-    <col min="23" max="24" width="26.1640625" style="12" customWidth="1"/>
-    <col min="25" max="25" width="28.83203125" style="12" customWidth="1"/>
-    <col min="26" max="1029" width="11.1640625" style="12" customWidth="1"/>
+    <col min="17" max="18" width="34.33203125" style="12" customWidth="1"/>
+    <col min="19" max="21" width="31.83203125" style="12" customWidth="1"/>
+    <col min="22" max="23" width="26.1640625" style="12" customWidth="1"/>
+    <col min="24" max="24" width="28.83203125" style="12" customWidth="1"/>
+    <col min="25" max="1028" width="11.1640625" style="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="4" customFormat="1" ht="49" customHeight="1">
+    <row r="1" spans="1:26" s="4" customFormat="1" ht="49" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2632,7 +2578,7 @@
         <v>38</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="M1" s="14" t="s">
         <v>39</v>
@@ -2650,48 +2596,45 @@
         <v>43</v>
       </c>
       <c r="R1" s="3" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="S1" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="W1" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="T1" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="U1" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="V1" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="W1" s="3" t="s">
-        <v>47</v>
-      </c>
       <c r="X1" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="Y1" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:27" ht="109" customHeight="1">
+    <row r="2" spans="1:26" ht="109" customHeight="1">
       <c r="A2" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>49</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="E2" s="17" t="s">
         <v>50</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="G2" s="16" t="s">
         <v>51</v>
@@ -2709,7 +2652,7 @@
         <v>55</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="M2" s="18" t="s">
         <v>56</v>
@@ -2721,37 +2664,34 @@
         <v>58</v>
       </c>
       <c r="P2" s="19" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="Q2" s="6" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="R2" s="6" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="S2" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="T2" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="U2" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="V2" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="W2" s="6" t="s">
         <v>265</v>
       </c>
-      <c r="T2" s="6" t="s">
-        <v>257</v>
-      </c>
-      <c r="U2" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="V2" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="W2" s="6" t="s">
-        <v>61</v>
-      </c>
       <c r="X2" s="6" t="s">
-        <v>273</v>
-      </c>
-      <c r="Y2" s="6" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="3" spans="1:27" ht="64.25" customHeight="1">
+    <row r="3" spans="1:26" ht="64.25" customHeight="1">
       <c r="A3" s="5" t="s">
         <v>12</v>
       </c>
@@ -2786,7 +2726,7 @@
         <v>68</v>
       </c>
       <c r="L3" s="7" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="M3" s="22" t="s">
         <v>69</v>
@@ -2804,31 +2744,28 @@
         <v>73</v>
       </c>
       <c r="R3" s="7" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="S3" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="T3" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="U3" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="V3" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="W3" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="T3" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="U3" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="V3" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="W3" s="7" t="s">
-        <v>75</v>
-      </c>
       <c r="X3" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="Y3" s="7" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="4" spans="1:27" ht="79.75" customHeight="1">
+    <row r="4" spans="1:26" ht="79.75" customHeight="1">
       <c r="A4" s="5" t="s">
         <v>20</v>
       </c>
@@ -2863,7 +2800,7 @@
         <v>84</v>
       </c>
       <c r="L4" s="8" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="M4" s="27" t="s">
         <v>85</v>
@@ -2881,31 +2818,28 @@
         <v>86</v>
       </c>
       <c r="R4" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="S4" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="T4" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="U4" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="V4" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="W4" s="8" t="s">
         <v>267</v>
       </c>
-      <c r="S4" s="8" t="s">
-        <v>265</v>
-      </c>
-      <c r="T4" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="U4" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="V4" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="W4" s="8" t="s">
-        <v>90</v>
-      </c>
       <c r="X4" s="8" t="s">
-        <v>275</v>
-      </c>
-      <c r="Y4" s="8" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="5" spans="1:27" ht="31" customHeight="1">
+    <row r="5" spans="1:26" ht="31" customHeight="1">
       <c r="A5" s="5" t="s">
         <v>27</v>
       </c>
@@ -2960,14 +2894,14 @@
       <c r="R5" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="S5" s="11" t="s">
-        <v>29</v>
+      <c r="S5" s="10" t="s">
+        <v>28</v>
       </c>
       <c r="T5" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="U5" s="10" t="s">
-        <v>28</v>
+      <c r="U5" s="11" t="s">
+        <v>29</v>
       </c>
       <c r="V5" s="11" t="s">
         <v>29</v>
@@ -2975,53 +2909,47 @@
       <c r="W5" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="X5" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y5" s="30" t="s">
+      <c r="X5" s="30" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:27" ht="15.75" customHeight="1"/>
-    <row r="7" spans="1:27" ht="15.75" customHeight="1"/>
-    <row r="8" spans="1:27" ht="15.75" customHeight="1">
+    <row r="6" spans="1:26" ht="15.75" customHeight="1"/>
+    <row r="7" spans="1:26" ht="15.75" customHeight="1"/>
+    <row r="8" spans="1:26" ht="15.75" customHeight="1">
       <c r="I8" s="48"/>
       <c r="J8" s="49"/>
       <c r="K8" s="49"/>
       <c r="L8" s="49"/>
     </row>
-    <row r="9" spans="1:27" ht="15.75" customHeight="1"/>
-    <row r="10" spans="1:27" ht="15.75" customHeight="1">
+    <row r="9" spans="1:26" ht="15.75" customHeight="1"/>
+    <row r="10" spans="1:26" ht="15.75" customHeight="1">
       <c r="K10" s="48"/>
       <c r="L10" s="49"/>
       <c r="M10" s="49"/>
     </row>
-    <row r="11" spans="1:27" ht="15.75" customHeight="1">
+    <row r="11" spans="1:26" ht="15.75" customHeight="1">
       <c r="K11" s="48"/>
       <c r="L11" s="49"/>
       <c r="M11" s="49"/>
       <c r="Q11" s="48"/>
       <c r="R11" s="48"/>
-      <c r="S11" s="48"/>
     </row>
-    <row r="12" spans="1:27" ht="15.75" customHeight="1">
+    <row r="12" spans="1:26" ht="15.75" customHeight="1">
       <c r="Q12" s="49"/>
       <c r="R12" s="49"/>
-      <c r="S12" s="49"/>
     </row>
-    <row r="13" spans="1:27" ht="15.75" customHeight="1">
+    <row r="13" spans="1:26" ht="15.75" customHeight="1">
       <c r="Q13" s="49"/>
       <c r="R13" s="49"/>
-      <c r="S13" s="49"/>
-      <c r="W13" s="48"/>
+      <c r="V13" s="48"/>
+      <c r="W13" s="49"/>
       <c r="X13" s="49"/>
       <c r="Y13" s="49"/>
-      <c r="Z13" s="49"/>
-      <c r="AA13" s="50"/>
+      <c r="Z13" s="50"/>
     </row>
-    <row r="14" spans="1:27" ht="15.75" customHeight="1"/>
-    <row r="15" spans="1:27" ht="15.75" customHeight="1"/>
-    <row r="16" spans="1:27" ht="15.75" customHeight="1"/>
+    <row r="14" spans="1:26" ht="15.75" customHeight="1"/>
+    <row r="15" spans="1:26" ht="15.75" customHeight="1"/>
+    <row r="16" spans="1:26" ht="15.75" customHeight="1"/>
     <row r="17" ht="15.75" customHeight="1"/>
     <row r="18" ht="15.75" customHeight="1"/>
     <row r="19" ht="15.75" customHeight="1"/>
@@ -4000,10 +3928,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:AMK982"/>
+  <dimension ref="A1:ALY982"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
@@ -4018,10 +3946,10 @@
     <col min="8" max="8" width="24.33203125" style="1" customWidth="1"/>
     <col min="9" max="9" width="46.6640625" style="1" customWidth="1"/>
     <col min="10" max="10" width="18" style="1" customWidth="1"/>
-    <col min="11" max="1025" width="11.1640625" style="1" customWidth="1"/>
+    <col min="11" max="1013" width="11.1640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="4" customFormat="1" ht="44" customHeight="1">
+    <row r="1" spans="1:10" s="4" customFormat="1" ht="44" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4052,44 +3980,8 @@
       <c r="J1" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="K1" s="39" t="s">
-        <v>326</v>
-      </c>
-      <c r="L1" s="39" t="s">
-        <v>170</v>
-      </c>
-      <c r="M1" s="39" t="s">
-        <v>330</v>
-      </c>
-      <c r="N1" s="39" t="s">
-        <v>334</v>
-      </c>
-      <c r="O1" s="39" t="s">
-        <v>336</v>
-      </c>
-      <c r="P1" s="39" t="s">
-        <v>338</v>
-      </c>
-      <c r="Q1" s="39" t="s">
-        <v>341</v>
-      </c>
-      <c r="R1" s="39" t="s">
-        <v>345</v>
-      </c>
-      <c r="S1" s="39" t="s">
-        <v>348</v>
-      </c>
-      <c r="T1" s="39" t="s">
-        <v>350</v>
-      </c>
-      <c r="U1" s="39" t="s">
-        <v>352</v>
-      </c>
-      <c r="V1" s="39" t="s">
-        <v>168</v>
-      </c>
     </row>
-    <row r="2" spans="1:22" ht="120">
+    <row r="2" spans="1:10" ht="120">
       <c r="A2" s="5" t="s">
         <v>8</v>
       </c>
@@ -4120,44 +4012,8 @@
       <c r="J2" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="K2" s="41" t="s">
-        <v>327</v>
-      </c>
-      <c r="L2" s="41" t="s">
-        <v>174</v>
-      </c>
-      <c r="M2" s="41" t="s">
-        <v>331</v>
-      </c>
-      <c r="N2" s="41" t="s">
-        <v>335</v>
-      </c>
-      <c r="O2" s="41" t="s">
-        <v>337</v>
-      </c>
-      <c r="P2" s="41" t="s">
-        <v>339</v>
-      </c>
-      <c r="Q2" s="41" t="s">
-        <v>342</v>
-      </c>
-      <c r="R2" s="41" t="s">
-        <v>346</v>
-      </c>
-      <c r="S2" s="41" t="s">
-        <v>349</v>
-      </c>
-      <c r="T2" s="41" t="s">
-        <v>351</v>
-      </c>
-      <c r="U2" s="41" t="s">
-        <v>353</v>
-      </c>
-      <c r="V2" s="41" t="s">
-        <v>354</v>
-      </c>
     </row>
-    <row r="3" spans="1:22" ht="51">
+    <row r="3" spans="1:10" ht="34">
       <c r="A3" s="5" t="s">
         <v>12</v>
       </c>
@@ -4188,38 +4044,8 @@
       <c r="J3" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="K3" s="43" t="s">
-        <v>328</v>
-      </c>
-      <c r="L3" s="43" t="s">
-        <v>325</v>
-      </c>
-      <c r="M3" s="43" t="s">
-        <v>332</v>
-      </c>
-      <c r="N3" s="43">
-        <v>4.76</v>
-      </c>
-      <c r="O3" s="43">
-        <v>2.0299999999999998</v>
-      </c>
-      <c r="P3" s="43" t="s">
-        <v>340</v>
-      </c>
-      <c r="Q3" s="43" t="s">
-        <v>343</v>
-      </c>
-      <c r="R3" s="43" t="s">
-        <v>74</v>
-      </c>
-      <c r="S3" s="43" t="s">
-        <v>74</v>
-      </c>
-      <c r="T3" s="43"/>
-      <c r="U3" s="43"/>
-      <c r="V3" s="43"/>
     </row>
-    <row r="4" spans="1:22" ht="74.5" customHeight="1">
+    <row r="4" spans="1:10" ht="74.5" customHeight="1">
       <c r="A4" s="5" t="s">
         <v>20</v>
       </c>
@@ -4250,44 +4076,8 @@
       <c r="J4" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="K4" s="43" t="s">
-        <v>329</v>
-      </c>
-      <c r="L4" s="43" t="s">
-        <v>158</v>
-      </c>
-      <c r="M4" s="43" t="s">
-        <v>333</v>
-      </c>
-      <c r="N4" s="43" t="s">
-        <v>80</v>
-      </c>
-      <c r="O4" s="43" t="s">
-        <v>80</v>
-      </c>
-      <c r="P4" s="43" t="s">
-        <v>137</v>
-      </c>
-      <c r="Q4" s="43" t="s">
-        <v>344</v>
-      </c>
-      <c r="R4" s="43" t="s">
-        <v>347</v>
-      </c>
-      <c r="S4" s="43" t="s">
-        <v>347</v>
-      </c>
-      <c r="T4" s="43" t="s">
-        <v>344</v>
-      </c>
-      <c r="U4" s="43" t="s">
-        <v>344</v>
-      </c>
-      <c r="V4" s="43" t="s">
-        <v>355</v>
-      </c>
     </row>
-    <row r="5" spans="1:22" ht="15.75" customHeight="1">
+    <row r="5" spans="1:10" ht="15.75" customHeight="1">
       <c r="A5" s="5" t="s">
         <v>27</v>
       </c>
@@ -4318,54 +4108,18 @@
       <c r="J5" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="K5" s="45" t="s">
-        <v>162</v>
-      </c>
-      <c r="L5" s="46" t="s">
-        <v>29</v>
-      </c>
-      <c r="M5" s="46" t="s">
-        <v>29</v>
-      </c>
-      <c r="N5" s="46" t="s">
-        <v>29</v>
-      </c>
-      <c r="O5" s="46" t="s">
-        <v>29</v>
-      </c>
-      <c r="P5" s="45" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q5" s="45" t="s">
-        <v>28</v>
-      </c>
-      <c r="R5" s="45" t="s">
-        <v>28</v>
-      </c>
-      <c r="S5" s="45" t="s">
-        <v>28</v>
-      </c>
-      <c r="T5" s="45" t="s">
-        <v>28</v>
-      </c>
-      <c r="U5" s="45" t="s">
-        <v>28</v>
-      </c>
-      <c r="V5" s="46" t="s">
-        <v>29</v>
-      </c>
     </row>
-    <row r="6" spans="1:22" ht="15.75" customHeight="1"/>
-    <row r="7" spans="1:22" ht="15.75" customHeight="1"/>
-    <row r="8" spans="1:22" ht="15.75" customHeight="1"/>
-    <row r="9" spans="1:22" ht="15.75" customHeight="1"/>
-    <row r="10" spans="1:22" ht="15.75" customHeight="1"/>
-    <row r="11" spans="1:22" ht="15.75" customHeight="1"/>
-    <row r="12" spans="1:22" ht="15.75" customHeight="1"/>
-    <row r="13" spans="1:22" ht="15.75" customHeight="1"/>
-    <row r="14" spans="1:22" ht="15.75" customHeight="1"/>
-    <row r="15" spans="1:22" ht="15.75" customHeight="1"/>
-    <row r="16" spans="1:22" ht="15.75" customHeight="1"/>
+    <row r="6" spans="1:10" ht="15.75" customHeight="1"/>
+    <row r="7" spans="1:10" ht="15.75" customHeight="1"/>
+    <row r="8" spans="1:10" ht="15.75" customHeight="1"/>
+    <row r="9" spans="1:10" ht="15.75" customHeight="1"/>
+    <row r="10" spans="1:10" ht="15.75" customHeight="1"/>
+    <row r="11" spans="1:10" ht="15.75" customHeight="1"/>
+    <row r="12" spans="1:10" ht="15.75" customHeight="1"/>
+    <row r="13" spans="1:10" ht="15.75" customHeight="1"/>
+    <row r="14" spans="1:10" ht="15.75" customHeight="1"/>
+    <row r="15" spans="1:10" ht="15.75" customHeight="1"/>
+    <row r="16" spans="1:10" ht="15.75" customHeight="1"/>
     <row r="17" ht="15.75" customHeight="1"/>
     <row r="18" ht="15.75" customHeight="1"/>
     <row r="19" ht="15.75" customHeight="1"/>
@@ -5343,10 +5097,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:AMK5"/>
+  <dimension ref="A1:AMI14"/>
   <sheetViews>
-    <sheetView zoomScale="107" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView topLeftCell="E1" zoomScale="107" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
@@ -5355,10 +5109,16 @@
     <col min="2" max="3" width="32" style="1" customWidth="1"/>
     <col min="4" max="4" width="42.6640625" style="1" customWidth="1"/>
     <col min="5" max="6" width="35.1640625" style="1" customWidth="1"/>
-    <col min="7" max="1025" width="11.1640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="23" style="1" customWidth="1"/>
+    <col min="8" max="8" width="20.5" style="1" customWidth="1"/>
+    <col min="9" max="9" width="16.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="20.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="19.33203125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="25.5" style="1" customWidth="1"/>
+    <col min="13" max="1023" width="11.1640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="37" customHeight="1">
+    <row r="1" spans="1:12" ht="37" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -5377,8 +5137,26 @@
       <c r="F1" s="3" t="s">
         <v>129</v>
       </c>
+      <c r="G1" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>165</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" ht="105">
+    <row r="2" spans="1:12" ht="105">
       <c r="A2" s="5" t="s">
         <v>8</v>
       </c>
@@ -5386,19 +5164,37 @@
         <v>101</v>
       </c>
       <c r="C2" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>331</v>
+      </c>
+      <c r="E2" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>132</v>
-      </c>
       <c r="F2" s="6" t="s">
-        <v>133</v>
+        <v>332</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>320</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>323</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>325</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>328</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="34">
+    <row r="3" spans="1:12" ht="34">
       <c r="A3" s="5" t="s">
         <v>12</v>
       </c>
@@ -5406,19 +5202,31 @@
         <v>76</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="F3" s="7" t="s">
         <v>112</v>
       </c>
+      <c r="G3" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
     </row>
-    <row r="4" spans="1:6" ht="34">
+    <row r="4" spans="1:12" ht="51">
       <c r="A4" s="5" t="s">
         <v>20</v>
       </c>
@@ -5426,19 +5234,37 @@
         <v>91</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>139</v>
+        <v>136</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>334</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>321</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>321</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>334</v>
+      </c>
+      <c r="K4" s="8" t="s">
+        <v>334</v>
+      </c>
+      <c r="L4" s="8" t="s">
+        <v>334</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="1" customFormat="1" ht="15" customHeight="1">
+    <row r="5" spans="1:12" s="1" customFormat="1" ht="15" customHeight="1">
       <c r="A5" s="5" t="s">
         <v>27</v>
       </c>
@@ -5452,11 +5278,71 @@
         <v>28</v>
       </c>
       <c r="E5" s="10" t="s">
+        <v>329</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>329</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>329</v>
+      </c>
+      <c r="H5" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="I5" s="10" t="s">
         <v>28</v>
       </c>
+      <c r="J5" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="K5" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="L5" s="10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="G8" s="53"/>
+      <c r="H8" s="53"/>
+      <c r="I8" s="53"/>
+      <c r="J8" s="53"/>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="G9" s="53"/>
+      <c r="H9" s="53"/>
+      <c r="I9" s="53"/>
+      <c r="J9" s="53"/>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="G10" s="53"/>
+      <c r="H10" s="53"/>
+      <c r="I10" s="53"/>
+      <c r="J10" s="53"/>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="G11" s="53"/>
+      <c r="H11" s="53"/>
+      <c r="I11" s="53"/>
+      <c r="J11" s="53"/>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="G12" s="53"/>
+      <c r="H12" s="53"/>
+      <c r="I12" s="53"/>
+      <c r="J12" s="53"/>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="G13" s="53"/>
+      <c r="H13" s="53"/>
+      <c r="I13" s="53"/>
+      <c r="J13" s="53"/>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="G14" s="53"/>
+      <c r="H14" s="53"/>
+      <c r="I14" s="53"/>
+      <c r="J14" s="53"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -5466,15 +5352,15 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF6038AA-9EAD-E846-B5BE-A0ADCFA2926F}">
-  <dimension ref="A1:AL24"/>
+  <dimension ref="A1:Z24"/>
   <sheetViews>
-    <sheetView topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="AA1" sqref="AA1:AL5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:38">
+    <row r="1" spans="1:26" ht="17">
       <c r="A1" s="38" t="s">
         <v>0</v>
       </c>
@@ -5482,115 +5368,79 @@
         <v>48</v>
       </c>
       <c r="C1" s="39" t="s">
+        <v>268</v>
+      </c>
+      <c r="D1" s="39" t="s">
+        <v>269</v>
+      </c>
+      <c r="E1" s="39" t="s">
+        <v>161</v>
+      </c>
+      <c r="F1" s="39" t="s">
+        <v>163</v>
+      </c>
+      <c r="G1" s="39" t="s">
+        <v>164</v>
+      </c>
+      <c r="H1" s="39" t="s">
+        <v>162</v>
+      </c>
+      <c r="I1" s="39" t="s">
+        <v>274</v>
+      </c>
+      <c r="J1" s="39" t="s">
         <v>276</v>
       </c>
-      <c r="D1" s="39" t="s">
-        <v>277</v>
-      </c>
-      <c r="E1" s="39" t="s">
-        <v>164</v>
-      </c>
-      <c r="F1" s="39" t="s">
-        <v>166</v>
-      </c>
-      <c r="G1" s="39" t="s">
-        <v>167</v>
-      </c>
-      <c r="H1" s="39" t="s">
-        <v>165</v>
-      </c>
-      <c r="I1" s="39" t="s">
+      <c r="K1" s="39" t="s">
+        <v>279</v>
+      </c>
+      <c r="L1" s="39" t="s">
         <v>283</v>
-      </c>
-      <c r="J1" s="39" t="s">
-        <v>285</v>
-      </c>
-      <c r="K1" s="39" t="s">
-        <v>288</v>
-      </c>
-      <c r="L1" s="39" t="s">
-        <v>292</v>
       </c>
       <c r="M1" s="39" t="s">
         <v>99</v>
       </c>
       <c r="N1" s="39" t="s">
+        <v>288</v>
+      </c>
+      <c r="O1" s="39" t="s">
+        <v>291</v>
+      </c>
+      <c r="P1" s="39" t="s">
+        <v>294</v>
+      </c>
+      <c r="Q1" s="39" t="s">
         <v>297</v>
       </c>
-      <c r="O1" s="39" t="s">
+      <c r="R1" s="39" t="s">
         <v>300</v>
       </c>
-      <c r="P1" s="39" t="s">
-        <v>303</v>
-      </c>
-      <c r="Q1" s="39" t="s">
-        <v>306</v>
-      </c>
-      <c r="R1" s="39" t="s">
-        <v>309</v>
-      </c>
       <c r="S1" s="39" t="s">
-        <v>168</v>
+        <v>100</v>
       </c>
       <c r="T1" s="39" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="U1" s="39" t="s">
-        <v>100</v>
+        <v>304</v>
       </c>
       <c r="V1" s="39" t="s">
-        <v>169</v>
+        <v>308</v>
       </c>
       <c r="W1" s="39" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="X1" s="39" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="Y1" s="39" t="s">
-        <v>320</v>
-      </c>
-      <c r="Z1" s="39" t="s">
-        <v>323</v>
-      </c>
-      <c r="AA1" s="39" t="s">
-        <v>326</v>
-      </c>
-      <c r="AB1" s="39" t="s">
-        <v>170</v>
-      </c>
-      <c r="AC1" s="39" t="s">
-        <v>330</v>
-      </c>
-      <c r="AD1" s="39" t="s">
-        <v>334</v>
-      </c>
-      <c r="AE1" s="39" t="s">
-        <v>336</v>
-      </c>
-      <c r="AF1" s="39" t="s">
-        <v>338</v>
-      </c>
-      <c r="AG1" s="39" t="s">
-        <v>341</v>
-      </c>
-      <c r="AH1" s="39" t="s">
-        <v>345</v>
-      </c>
-      <c r="AI1" s="39" t="s">
-        <v>348</v>
-      </c>
-      <c r="AJ1" s="39" t="s">
-        <v>350</v>
-      </c>
-      <c r="AK1" s="39" t="s">
-        <v>352</v>
-      </c>
-      <c r="AL1" s="39" t="s">
-        <v>168</v>
+        <v>167</v>
+      </c>
+      <c r="Z1" s="3" t="s">
+        <v>165</v>
       </c>
     </row>
-    <row r="2" spans="1:38" ht="165">
+    <row r="2" spans="1:26" ht="165">
       <c r="A2" s="40" t="s">
         <v>8</v>
       </c>
@@ -5598,115 +5448,79 @@
         <v>101</v>
       </c>
       <c r="C2" s="41" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="D2" s="41" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="E2" s="41" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F2" s="41" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G2" s="41" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="H2" s="41" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="I2" s="41" t="s">
+        <v>303</v>
+      </c>
+      <c r="J2" s="41" t="s">
+        <v>277</v>
+      </c>
+      <c r="K2" s="41" t="s">
+        <v>280</v>
+      </c>
+      <c r="L2" s="41" t="s">
+        <v>284</v>
+      </c>
+      <c r="M2" s="41" t="s">
+        <v>286</v>
+      </c>
+      <c r="N2" s="41" t="s">
+        <v>289</v>
+      </c>
+      <c r="O2" s="41" t="s">
+        <v>292</v>
+      </c>
+      <c r="P2" s="41" t="s">
+        <v>295</v>
+      </c>
+      <c r="Q2" s="41" t="s">
+        <v>298</v>
+      </c>
+      <c r="R2" s="41" t="s">
+        <v>301</v>
+      </c>
+      <c r="S2" s="41" t="s">
+        <v>273</v>
+      </c>
+      <c r="T2" s="41" t="s">
+        <v>272</v>
+      </c>
+      <c r="U2" s="41" t="s">
+        <v>305</v>
+      </c>
+      <c r="V2" s="41" t="s">
+        <v>309</v>
+      </c>
+      <c r="W2" s="41" t="s">
         <v>312</v>
       </c>
-      <c r="J2" s="41" t="s">
-        <v>286</v>
-      </c>
-      <c r="K2" s="41" t="s">
-        <v>289</v>
-      </c>
-      <c r="L2" s="41" t="s">
-        <v>293</v>
-      </c>
-      <c r="M2" s="41" t="s">
-        <v>295</v>
-      </c>
-      <c r="N2" s="41" t="s">
-        <v>298</v>
-      </c>
-      <c r="O2" s="41" t="s">
-        <v>301</v>
-      </c>
-      <c r="P2" s="41" t="s">
-        <v>304</v>
-      </c>
-      <c r="Q2" s="41" t="s">
-        <v>307</v>
-      </c>
-      <c r="R2" s="41" t="s">
-        <v>310</v>
-      </c>
-      <c r="S2" s="41" t="s">
-        <v>173</v>
-      </c>
-      <c r="T2" s="41" t="s">
-        <v>281</v>
-      </c>
-      <c r="U2" s="41" t="s">
-        <v>282</v>
-      </c>
-      <c r="V2" s="41" t="s">
-        <v>280</v>
-      </c>
-      <c r="W2" s="41" t="s">
-        <v>314</v>
-      </c>
       <c r="X2" s="41" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="Y2" s="41" t="s">
-        <v>321</v>
-      </c>
-      <c r="Z2" s="41" t="s">
-        <v>324</v>
-      </c>
-      <c r="AA2" s="41" t="s">
-        <v>327</v>
-      </c>
-      <c r="AB2" s="41" t="s">
-        <v>174</v>
-      </c>
-      <c r="AC2" s="41" t="s">
-        <v>331</v>
-      </c>
-      <c r="AD2" s="41" t="s">
-        <v>335</v>
-      </c>
-      <c r="AE2" s="41" t="s">
-        <v>337</v>
-      </c>
-      <c r="AF2" s="41" t="s">
-        <v>339</v>
-      </c>
-      <c r="AG2" s="41" t="s">
-        <v>342</v>
-      </c>
-      <c r="AH2" s="41" t="s">
-        <v>346</v>
-      </c>
-      <c r="AI2" s="41" t="s">
-        <v>349</v>
-      </c>
-      <c r="AJ2" s="41" t="s">
-        <v>351</v>
-      </c>
-      <c r="AK2" s="41" t="s">
-        <v>353</v>
-      </c>
-      <c r="AL2" s="41" t="s">
-        <v>354</v>
+        <v>170</v>
+      </c>
+      <c r="Z2" s="6" t="s">
+        <v>328</v>
       </c>
     </row>
-    <row r="3" spans="1:38" ht="85">
+    <row r="3" spans="1:26" ht="85">
       <c r="A3" s="42" t="s">
         <v>12</v>
       </c>
@@ -5714,34 +5528,34 @@
         <v>110</v>
       </c>
       <c r="C3" s="43" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="D3" s="43" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="E3" s="43" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="F3" s="43" t="s">
         <v>110</v>
       </c>
       <c r="G3" s="43" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="H3" s="43" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="I3" s="43" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="J3" s="43" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="K3" s="43" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="L3" s="43" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="M3" s="43">
         <v>20</v>
@@ -5750,73 +5564,41 @@
         <v>74</v>
       </c>
       <c r="O3" s="43" t="s">
+        <v>293</v>
+      </c>
+      <c r="P3" s="43" t="s">
+        <v>296</v>
+      </c>
+      <c r="Q3" s="43" t="s">
+        <v>299</v>
+      </c>
+      <c r="R3" s="43" t="s">
         <v>302</v>
       </c>
-      <c r="P3" s="43" t="s">
-        <v>305</v>
-      </c>
-      <c r="Q3" s="43" t="s">
-        <v>308</v>
-      </c>
-      <c r="R3" s="43" t="s">
-        <v>311</v>
-      </c>
       <c r="S3" s="43" t="s">
-        <v>183</v>
+        <v>117</v>
       </c>
       <c r="T3" s="43" t="s">
-        <v>116</v>
+        <v>180</v>
       </c>
       <c r="U3" s="43" t="s">
-        <v>117</v>
+        <v>306</v>
       </c>
       <c r="V3" s="43" t="s">
-        <v>185</v>
+        <v>310</v>
       </c>
       <c r="W3" s="43" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="X3" s="43" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="Y3" s="43" t="s">
-        <v>322</v>
-      </c>
-      <c r="Z3" s="43" t="s">
-        <v>325</v>
-      </c>
-      <c r="AA3" s="43" t="s">
-        <v>328</v>
-      </c>
-      <c r="AB3" s="43" t="s">
-        <v>325</v>
-      </c>
-      <c r="AC3" s="43" t="s">
-        <v>332</v>
-      </c>
-      <c r="AD3" s="43">
-        <v>4.76</v>
-      </c>
-      <c r="AE3" s="43">
-        <v>2.0299999999999998</v>
-      </c>
-      <c r="AF3" s="43" t="s">
-        <v>340</v>
-      </c>
-      <c r="AG3" s="43" t="s">
-        <v>343</v>
-      </c>
-      <c r="AH3" s="43" t="s">
-        <v>74</v>
-      </c>
-      <c r="AI3" s="43" t="s">
-        <v>74</v>
-      </c>
-      <c r="AJ3" s="43"/>
-      <c r="AK3" s="43"/>
-      <c r="AL3" s="43"/>
+        <v>316</v>
+      </c>
+      <c r="Z3" s="7"/>
     </row>
-    <row r="4" spans="1:38" ht="187">
+    <row r="4" spans="1:26" ht="187">
       <c r="A4" s="42" t="s">
         <v>20</v>
       </c>
@@ -5824,13 +5606,13 @@
         <v>91</v>
       </c>
       <c r="C4" s="44" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D4" s="44" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="E4" s="43" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="F4" s="43" t="s">
         <v>91</v>
@@ -5839,100 +5621,64 @@
         <v>91</v>
       </c>
       <c r="H4" s="43" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="I4" s="43" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="J4" s="43" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="K4" s="43" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="L4" s="43" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="M4" s="43" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="N4" s="43" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="O4" s="43" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="P4" s="43" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="Q4" s="43" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="R4" s="43" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="S4" s="43" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="T4" s="43" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="U4" s="43" t="s">
-        <v>125</v>
+        <v>307</v>
       </c>
       <c r="V4" s="43" t="s">
-        <v>123</v>
+        <v>155</v>
       </c>
       <c r="W4" s="43" t="s">
-        <v>316</v>
+        <v>181</v>
       </c>
       <c r="X4" s="43" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="Y4" s="43" t="s">
-        <v>186</v>
-      </c>
-      <c r="Z4" s="43" t="s">
-        <v>158</v>
-      </c>
-      <c r="AA4" s="43" t="s">
-        <v>329</v>
-      </c>
-      <c r="AB4" s="43" t="s">
-        <v>158</v>
-      </c>
-      <c r="AC4" s="43" t="s">
-        <v>333</v>
-      </c>
-      <c r="AD4" s="43" t="s">
-        <v>80</v>
-      </c>
-      <c r="AE4" s="43" t="s">
-        <v>80</v>
-      </c>
-      <c r="AF4" s="43" t="s">
-        <v>137</v>
-      </c>
-      <c r="AG4" s="43" t="s">
-        <v>344</v>
-      </c>
-      <c r="AH4" s="43" t="s">
-        <v>347</v>
-      </c>
-      <c r="AI4" s="43" t="s">
-        <v>347</v>
-      </c>
-      <c r="AJ4" s="43" t="s">
-        <v>344</v>
-      </c>
-      <c r="AK4" s="43" t="s">
-        <v>344</v>
-      </c>
-      <c r="AL4" s="43" t="s">
-        <v>355</v>
+        <v>155</v>
+      </c>
+      <c r="Z4" s="8" t="s">
+        <v>334</v>
       </c>
     </row>
-    <row r="5" spans="1:38" ht="34">
+    <row r="5" spans="1:26" ht="34">
       <c r="A5" s="42" t="s">
         <v>27</v>
       </c>
@@ -5949,10 +5695,10 @@
         <v>28</v>
       </c>
       <c r="F5" s="45" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="G5" s="45" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="H5" s="45" t="s">
         <v>28</v>
@@ -5987,14 +5733,14 @@
       <c r="R5" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="S5" s="45" t="s">
+      <c r="S5" s="46" t="s">
+        <v>29</v>
+      </c>
+      <c r="T5" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="T5" s="46" t="s">
-        <v>29</v>
-      </c>
-      <c r="U5" s="46" t="s">
-        <v>29</v>
+      <c r="U5" s="45" t="s">
+        <v>28</v>
       </c>
       <c r="V5" s="45" t="s">
         <v>28</v>
@@ -6003,256 +5749,194 @@
         <v>28</v>
       </c>
       <c r="X5" s="45" t="s">
+        <v>159</v>
+      </c>
+      <c r="Y5" s="46" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z5" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="Y5" s="45" t="s">
-        <v>28</v>
-      </c>
-      <c r="Z5" s="45" t="s">
-        <v>162</v>
-      </c>
-      <c r="AA5" s="45" t="s">
-        <v>162</v>
-      </c>
-      <c r="AB5" s="46" t="s">
-        <v>29</v>
-      </c>
-      <c r="AC5" s="46" t="s">
-        <v>29</v>
-      </c>
-      <c r="AD5" s="46" t="s">
-        <v>29</v>
-      </c>
-      <c r="AE5" s="46" t="s">
-        <v>29</v>
-      </c>
-      <c r="AF5" s="45" t="s">
-        <v>28</v>
-      </c>
-      <c r="AG5" s="45" t="s">
-        <v>28</v>
-      </c>
-      <c r="AH5" s="45" t="s">
-        <v>28</v>
-      </c>
-      <c r="AI5" s="45" t="s">
-        <v>28</v>
-      </c>
-      <c r="AJ5" s="45" t="s">
-        <v>28</v>
-      </c>
-      <c r="AK5" s="45" t="s">
-        <v>28</v>
-      </c>
-      <c r="AL5" s="46" t="s">
-        <v>29</v>
-      </c>
     </row>
-    <row r="6" spans="1:38">
+    <row r="6" spans="1:26">
       <c r="R6" s="48"/>
       <c r="S6" s="48"/>
       <c r="T6" s="48"/>
       <c r="U6" s="48"/>
       <c r="V6" s="48"/>
       <c r="W6" s="48"/>
-      <c r="X6" s="48"/>
-      <c r="Y6" s="48"/>
     </row>
-    <row r="7" spans="1:38">
+    <row r="7" spans="1:26">
       <c r="R7" s="49"/>
       <c r="S7" s="49"/>
       <c r="T7" s="49"/>
       <c r="U7" s="49"/>
       <c r="V7" s="49"/>
       <c r="W7" s="49"/>
-      <c r="X7" s="49"/>
-      <c r="Y7" s="49"/>
     </row>
-    <row r="8" spans="1:38">
+    <row r="8" spans="1:26">
       <c r="R8" s="49"/>
       <c r="S8" s="49"/>
       <c r="T8" s="49"/>
       <c r="U8" s="49"/>
       <c r="V8" s="49"/>
       <c r="W8" s="49"/>
-      <c r="X8" s="49"/>
-      <c r="Y8" s="49"/>
     </row>
-    <row r="9" spans="1:38">
+    <row r="9" spans="1:26">
       <c r="R9" s="49"/>
       <c r="S9" s="49"/>
       <c r="T9" s="49"/>
-      <c r="U9" s="49"/>
+      <c r="U9" s="48"/>
       <c r="V9" s="49"/>
-      <c r="W9" s="48"/>
+      <c r="W9" s="49"/>
       <c r="X9" s="49"/>
-      <c r="Y9" s="49"/>
-      <c r="Z9" s="49"/>
-      <c r="AA9" s="51"/>
     </row>
-    <row r="10" spans="1:38">
+    <row r="10" spans="1:26">
       <c r="R10" s="51"/>
       <c r="S10" s="51"/>
       <c r="T10" s="51"/>
-      <c r="U10" s="51"/>
-      <c r="V10" s="51"/>
-      <c r="W10" s="48"/>
+      <c r="U10" s="48"/>
+      <c r="V10" s="49"/>
+      <c r="W10" s="49"/>
       <c r="X10" s="49"/>
-      <c r="Y10" s="49"/>
-      <c r="Z10" s="49"/>
-      <c r="AA10" s="51"/>
     </row>
-    <row r="11" spans="1:38">
+    <row r="11" spans="1:26">
       <c r="L11" s="48"/>
       <c r="M11" s="48"/>
       <c r="N11" s="49"/>
       <c r="O11" s="49"/>
       <c r="P11" s="49"/>
       <c r="Q11" s="51"/>
-      <c r="W11" s="48"/>
+      <c r="U11" s="48"/>
+      <c r="V11" s="49"/>
+      <c r="W11" s="52"/>
       <c r="X11" s="49"/>
-      <c r="Y11" s="52"/>
-      <c r="Z11" s="49"/>
-      <c r="AA11" s="51"/>
     </row>
-    <row r="12" spans="1:38">
+    <row r="12" spans="1:26">
       <c r="L12" s="48"/>
       <c r="M12" s="48"/>
       <c r="N12" s="49"/>
       <c r="O12" s="49"/>
       <c r="P12" s="49"/>
       <c r="Q12" s="51"/>
-      <c r="W12" s="48"/>
+      <c r="U12" s="48"/>
+      <c r="V12" s="49"/>
+      <c r="W12" s="49"/>
       <c r="X12" s="49"/>
-      <c r="Y12" s="49"/>
-      <c r="Z12" s="49"/>
-      <c r="AA12" s="51"/>
     </row>
-    <row r="13" spans="1:38">
+    <row r="13" spans="1:26">
       <c r="M13" s="48"/>
       <c r="N13" s="49"/>
       <c r="O13" s="49"/>
       <c r="P13" s="49"/>
       <c r="Q13" s="51"/>
-      <c r="W13" s="48"/>
+      <c r="U13" s="48"/>
+      <c r="V13" s="49"/>
+      <c r="W13" s="49"/>
       <c r="X13" s="49"/>
-      <c r="Y13" s="49"/>
-      <c r="Z13" s="49"/>
-      <c r="AA13" s="51"/>
     </row>
-    <row r="14" spans="1:38">
+    <row r="14" spans="1:26">
       <c r="M14" s="48"/>
       <c r="N14" s="49"/>
       <c r="O14" s="49"/>
       <c r="P14" s="49"/>
       <c r="Q14" s="51"/>
-      <c r="W14" s="48"/>
+      <c r="U14" s="48"/>
+      <c r="V14" s="49"/>
+      <c r="W14" s="49"/>
       <c r="X14" s="49"/>
-      <c r="Y14" s="49"/>
-      <c r="Z14" s="49"/>
-      <c r="AA14" s="50"/>
     </row>
-    <row r="15" spans="1:38">
+    <row r="15" spans="1:26">
       <c r="M15" s="48"/>
       <c r="N15" s="49"/>
       <c r="O15" s="49"/>
       <c r="P15" s="49"/>
       <c r="Q15" s="51"/>
-      <c r="W15" s="48"/>
+      <c r="U15" s="48"/>
+      <c r="V15" s="49"/>
+      <c r="W15" s="49"/>
       <c r="X15" s="49"/>
-      <c r="Y15" s="49"/>
-      <c r="Z15" s="49"/>
-      <c r="AA15" s="50"/>
     </row>
-    <row r="16" spans="1:38">
+    <row r="16" spans="1:26">
       <c r="M16" s="48"/>
       <c r="N16" s="49"/>
       <c r="O16" s="49"/>
       <c r="P16" s="49"/>
       <c r="Q16" s="51"/>
-      <c r="W16" s="48"/>
+      <c r="U16" s="48"/>
+      <c r="V16" s="49"/>
+      <c r="W16" s="49"/>
       <c r="X16" s="49"/>
-      <c r="Y16" s="49"/>
-      <c r="Z16" s="49"/>
-      <c r="AA16" s="50"/>
     </row>
-    <row r="17" spans="13:27">
+    <row r="17" spans="13:24">
       <c r="M17" s="48"/>
       <c r="N17" s="49"/>
       <c r="O17" s="49"/>
       <c r="P17" s="49"/>
       <c r="Q17" s="50"/>
-      <c r="W17" s="48"/>
+      <c r="U17" s="48"/>
+      <c r="V17" s="49"/>
+      <c r="W17" s="49"/>
       <c r="X17" s="49"/>
-      <c r="Y17" s="49"/>
-      <c r="Z17" s="49"/>
-      <c r="AA17" s="50"/>
     </row>
-    <row r="18" spans="13:27">
+    <row r="18" spans="13:24">
       <c r="M18" s="48"/>
       <c r="N18" s="49"/>
       <c r="O18" s="49"/>
       <c r="P18" s="49"/>
       <c r="Q18" s="50"/>
-      <c r="W18" s="48"/>
+      <c r="U18" s="48"/>
+      <c r="V18" s="49"/>
+      <c r="W18" s="49"/>
       <c r="X18" s="49"/>
-      <c r="Y18" s="49"/>
-      <c r="Z18" s="49"/>
-      <c r="AA18" s="51"/>
     </row>
-    <row r="19" spans="13:27">
+    <row r="19" spans="13:24">
       <c r="M19" s="48"/>
       <c r="N19" s="49"/>
       <c r="O19" s="49"/>
       <c r="P19" s="49"/>
       <c r="Q19" s="50"/>
-      <c r="W19" s="48"/>
+      <c r="U19" s="48"/>
+      <c r="V19" s="49"/>
+      <c r="W19" s="49"/>
       <c r="X19" s="49"/>
-      <c r="Y19" s="49"/>
-      <c r="Z19" s="49"/>
-      <c r="AA19" s="51"/>
     </row>
-    <row r="20" spans="13:27">
+    <row r="20" spans="13:24">
       <c r="M20" s="48"/>
       <c r="N20" s="49"/>
       <c r="O20" s="49"/>
       <c r="P20" s="49"/>
       <c r="Q20" s="50"/>
-      <c r="W20" s="48"/>
+      <c r="U20" s="48"/>
+      <c r="V20" s="49"/>
+      <c r="W20" s="49"/>
       <c r="X20" s="49"/>
-      <c r="Y20" s="49"/>
-      <c r="Z20" s="49"/>
-      <c r="AA20" s="51"/>
     </row>
-    <row r="21" spans="13:27">
-      <c r="W21" s="48"/>
+    <row r="21" spans="13:24">
+      <c r="U21" s="48"/>
+      <c r="V21" s="49"/>
+      <c r="W21" s="49"/>
       <c r="X21" s="49"/>
-      <c r="Y21" s="49"/>
-      <c r="Z21" s="49"/>
-      <c r="AA21" s="51"/>
     </row>
-    <row r="22" spans="13:27">
-      <c r="W22" s="48"/>
+    <row r="22" spans="13:24">
+      <c r="U22" s="48"/>
+      <c r="V22" s="49"/>
       <c r="X22" s="49"/>
-      <c r="Z22" s="49"/>
-      <c r="AA22" s="51"/>
     </row>
-    <row r="23" spans="13:27">
-      <c r="W23" s="48"/>
+    <row r="23" spans="13:24">
+      <c r="U23" s="48"/>
+      <c r="V23" s="49"/>
       <c r="X23" s="49"/>
-      <c r="Z23" s="49"/>
-      <c r="AA23" s="51"/>
     </row>
-    <row r="24" spans="13:27">
-      <c r="W24" s="48"/>
+    <row r="24" spans="13:24">
+      <c r="U24" s="48"/>
+      <c r="V24" s="49"/>
+      <c r="W24" s="49"/>
       <c r="X24" s="49"/>
-      <c r="Y24" s="49"/>
-      <c r="Z24" s="49"/>
-      <c r="AA24" s="50"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="Y3" r:id="rId1" xr:uid="{22AA9243-07A0-0147-99D4-61A157066708}"/>
+    <hyperlink ref="W3" r:id="rId1" xr:uid="{22AA9243-07A0-0147-99D4-61A157066708}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6281,28 +5965,28 @@
   <sheetData>
     <row r="1" spans="1:1024" s="4" customFormat="1" ht="34">
       <c r="A1" s="2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>48</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D1" s="33" t="s">
+        <v>139</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="D1" s="33" t="s">
+      <c r="G1" s="34" t="s">
         <v>142</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="H1" s="35" t="s">
         <v>143</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="G1" s="34" t="s">
-        <v>145</v>
-      </c>
-      <c r="H1" s="35" t="s">
-        <v>146</v>
       </c>
       <c r="AMG1"/>
       <c r="AMH1"/>
@@ -6317,22 +6001,22 @@
         <v>101</v>
       </c>
       <c r="C2" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="G2" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="H2" s="6" t="s">
         <v>149</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="3" spans="1:1024" ht="51">
@@ -6343,20 +6027,20 @@
         <v>110</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="G3" s="36" t="s">
+        <v>153</v>
+      </c>
+      <c r="H3" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="G3" s="36" t="s">
-        <v>156</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="4" spans="1:1024" ht="170.75" customHeight="1">
@@ -6364,25 +6048,25 @@
         <v>20</v>
       </c>
       <c r="B4" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="D4" s="37" t="s">
+        <v>157</v>
+      </c>
+      <c r="E4" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="C4" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="D4" s="37" t="s">
-        <v>160</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>161</v>
-      </c>
       <c r="F4" s="8" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="5" spans="1:1024" ht="17">
@@ -6396,7 +6080,7 @@
         <v>28</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E5" s="10" t="s">
         <v>28</v>
@@ -6405,10 +6089,10 @@
         <v>28</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>
@@ -6432,37 +6116,37 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="F1" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="L1" s="3" t="s">
         <v>214</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="2" spans="1:1025" ht="195">
@@ -6470,37 +6154,37 @@
         <v>8</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="D2" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="G2" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="E2" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="G2" s="6" t="s">
+      <c r="H2" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="I2" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="H2" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="I2" s="6" t="s">
+      <c r="J2" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="K2" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="J2" s="6" t="s">
-        <v>220</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>221</v>
-      </c>
       <c r="L2" s="6" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
@@ -7521,37 +7205,37 @@
         <v>12</v>
       </c>
       <c r="B3" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="F3" s="47" t="s">
+        <v>151</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="H3" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="I3" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="J3" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="K3" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="F3" s="47" t="s">
-        <v>154</v>
-      </c>
-      <c r="G3" s="7" t="s">
+      <c r="L3" s="7" t="s">
         <v>229</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="J3" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="K3" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="L3" s="7" t="s">
-        <v>234</v>
       </c>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
@@ -8575,34 +8259,34 @@
         <v>21</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="J4" s="8" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="K4" s="8" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="L4" s="8" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
@@ -10693,13 +10377,13 @@
   <sheetData>
     <row r="1" spans="1:8" ht="17">
       <c r="A1" s="2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>48</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="D1" s="33" t="s">
         <v>127</v>
@@ -10708,13 +10392,13 @@
         <v>97</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="G1" s="34" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="H1" s="35" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="210">
@@ -10725,22 +10409,22 @@
         <v>101</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="D2" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="G2" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="F2" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>196</v>
-      </c>
       <c r="H2" s="6" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="119">
@@ -10748,25 +10432,25 @@
         <v>12</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="C3" s="47" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="F3" s="7" t="s">
         <v>66</v>
       </c>
       <c r="G3" s="36" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="51">
@@ -10774,25 +10458,25 @@
         <v>20</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="D4" s="37" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="17">

--- a/public/static/templates/metadata_template.xlsx
+++ b/public/static/templates/metadata_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tushar/CancerModels/pdxfinder-data/template/active_templates/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{497D5A0A-BFF0-1348-BA2B-31AF0BB4AE4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{001D3A90-D76F-D342-B23C-C5A93E203CAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19260" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19260" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="patient" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="335">
   <si>
     <t>Field</t>
   </si>
@@ -2515,7 +2515,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AMN980"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
+    <sheetView topLeftCell="N1" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
       <selection activeCell="W2" sqref="W2"/>
     </sheetView>
   </sheetViews>
@@ -3928,10 +3928,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:ALY982"/>
+  <dimension ref="A1:AMA982"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
@@ -3945,11 +3945,12 @@
     <col min="7" max="7" width="20.6640625" style="1" customWidth="1"/>
     <col min="8" max="8" width="24.33203125" style="1" customWidth="1"/>
     <col min="9" max="9" width="46.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="18" style="1" customWidth="1"/>
-    <col min="11" max="1013" width="11.1640625" style="1" customWidth="1"/>
+    <col min="10" max="11" width="10.83203125"/>
+    <col min="12" max="12" width="18" style="1" customWidth="1"/>
+    <col min="13" max="1015" width="11.1640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="4" customFormat="1" ht="44" customHeight="1">
+    <row r="1" spans="1:12" s="4" customFormat="1" ht="44" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3977,11 +3978,17 @@
       <c r="I1" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="39" t="s">
+        <v>163</v>
+      </c>
+      <c r="K1" s="39" t="s">
+        <v>164</v>
+      </c>
+      <c r="L1" s="3" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="120">
+    <row r="2" spans="1:12" ht="165">
       <c r="A2" s="5" t="s">
         <v>8</v>
       </c>
@@ -4009,11 +4016,17 @@
       <c r="I2" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="J2" s="41" t="s">
+        <v>169</v>
+      </c>
+      <c r="K2" s="41" t="s">
+        <v>177</v>
+      </c>
+      <c r="L2" s="6" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="34">
+    <row r="3" spans="1:12" ht="34">
       <c r="A3" s="5" t="s">
         <v>12</v>
       </c>
@@ -4041,11 +4054,17 @@
       <c r="I3" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="J3" s="7" t="s">
+      <c r="J3" s="43" t="s">
+        <v>110</v>
+      </c>
+      <c r="K3" s="43" t="s">
+        <v>178</v>
+      </c>
+      <c r="L3" s="7" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="74.5" customHeight="1">
+    <row r="4" spans="1:12" ht="74.5" customHeight="1">
       <c r="A4" s="5" t="s">
         <v>20</v>
       </c>
@@ -4073,11 +4092,17 @@
       <c r="I4" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="J4" s="8" t="s">
+      <c r="J4" s="43" t="s">
+        <v>91</v>
+      </c>
+      <c r="K4" s="43" t="s">
+        <v>91</v>
+      </c>
+      <c r="L4" s="8" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15.75" customHeight="1">
+    <row r="5" spans="1:12" ht="15.75" customHeight="1">
       <c r="A5" s="5" t="s">
         <v>27</v>
       </c>
@@ -4105,21 +4130,27 @@
       <c r="I5" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="J5" s="11" t="s">
+      <c r="J5" s="45" t="s">
+        <v>159</v>
+      </c>
+      <c r="K5" s="45" t="s">
+        <v>159</v>
+      </c>
+      <c r="L5" s="11" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15.75" customHeight="1"/>
-    <row r="7" spans="1:10" ht="15.75" customHeight="1"/>
-    <row r="8" spans="1:10" ht="15.75" customHeight="1"/>
-    <row r="9" spans="1:10" ht="15.75" customHeight="1"/>
-    <row r="10" spans="1:10" ht="15.75" customHeight="1"/>
-    <row r="11" spans="1:10" ht="15.75" customHeight="1"/>
-    <row r="12" spans="1:10" ht="15.75" customHeight="1"/>
-    <row r="13" spans="1:10" ht="15.75" customHeight="1"/>
-    <row r="14" spans="1:10" ht="15.75" customHeight="1"/>
-    <row r="15" spans="1:10" ht="15.75" customHeight="1"/>
-    <row r="16" spans="1:10" ht="15.75" customHeight="1"/>
+    <row r="6" spans="1:12" ht="15.75" customHeight="1"/>
+    <row r="7" spans="1:12" ht="15.75" customHeight="1"/>
+    <row r="8" spans="1:12" ht="15.75" customHeight="1"/>
+    <row r="9" spans="1:12" ht="15.75" customHeight="1"/>
+    <row r="10" spans="1:12" ht="15.75" customHeight="1"/>
+    <row r="11" spans="1:12" ht="15.75" customHeight="1"/>
+    <row r="12" spans="1:12" ht="15.75" customHeight="1"/>
+    <row r="13" spans="1:12" ht="15.75" customHeight="1"/>
+    <row r="14" spans="1:12" ht="15.75" customHeight="1"/>
+    <row r="15" spans="1:12" ht="15.75" customHeight="1"/>
+    <row r="16" spans="1:12" ht="15.75" customHeight="1"/>
     <row r="17" ht="15.75" customHeight="1"/>
     <row r="18" ht="15.75" customHeight="1"/>
     <row r="19" ht="15.75" customHeight="1"/>
@@ -5355,7 +5386,7 @@
   <dimension ref="A1:Z24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="F1" sqref="F1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>

--- a/public/static/templates/metadata_template.xlsx
+++ b/public/static/templates/metadata_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tushar/CancerModels/pdxfinder-data/template/active_templates/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{001D3A90-D76F-D342-B23C-C5A93E203CAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{102DDC67-43DC-D741-BAC7-29A6789B4EB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19260" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="337">
   <si>
     <t>Field</t>
   </si>
@@ -1292,6 +1292,12 @@
   </si>
   <si>
     <t>free text, not collected or not provided</t>
+  </si>
+  <si>
+    <t>Catalogue number of model, if commercial</t>
+  </si>
+  <si>
+    <t>Link to purchasable model, if commercial</t>
   </si>
 </sst>
 </file>
@@ -3928,10 +3934,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:AMA982"/>
+  <dimension ref="A1:ALZ982"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
@@ -3947,10 +3953,10 @@
     <col min="9" max="9" width="46.6640625" style="1" customWidth="1"/>
     <col min="10" max="11" width="10.83203125"/>
     <col min="12" max="12" width="18" style="1" customWidth="1"/>
-    <col min="13" max="1015" width="11.1640625" style="1" customWidth="1"/>
+    <col min="13" max="1014" width="11.1640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="4" customFormat="1" ht="44" customHeight="1">
+    <row r="1" spans="1:17" s="4" customFormat="1" ht="44" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3987,8 +3993,23 @@
       <c r="L1" s="3" t="s">
         <v>100</v>
       </c>
+      <c r="M1" s="39" t="s">
+        <v>166</v>
+      </c>
+      <c r="N1" s="39" t="s">
+        <v>304</v>
+      </c>
+      <c r="O1" s="39" t="s">
+        <v>308</v>
+      </c>
+      <c r="P1" s="39" t="s">
+        <v>311</v>
+      </c>
+      <c r="Q1" s="39" t="s">
+        <v>167</v>
+      </c>
     </row>
-    <row r="2" spans="1:12" ht="165">
+    <row r="2" spans="1:17" ht="165">
       <c r="A2" s="5" t="s">
         <v>8</v>
       </c>
@@ -4025,8 +4046,23 @@
       <c r="L2" s="6" t="s">
         <v>109</v>
       </c>
+      <c r="M2" s="41" t="s">
+        <v>272</v>
+      </c>
+      <c r="N2" s="41" t="s">
+        <v>305</v>
+      </c>
+      <c r="O2" s="41" t="s">
+        <v>335</v>
+      </c>
+      <c r="P2" s="41" t="s">
+        <v>336</v>
+      </c>
+      <c r="Q2" s="41" t="s">
+        <v>170</v>
+      </c>
     </row>
-    <row r="3" spans="1:12" ht="34">
+    <row r="3" spans="1:17" ht="68">
       <c r="A3" s="5" t="s">
         <v>12</v>
       </c>
@@ -4063,8 +4099,23 @@
       <c r="L3" s="7" t="s">
         <v>117</v>
       </c>
+      <c r="M3" s="43" t="s">
+        <v>180</v>
+      </c>
+      <c r="N3" s="43" t="s">
+        <v>306</v>
+      </c>
+      <c r="O3" s="43" t="s">
+        <v>310</v>
+      </c>
+      <c r="P3" s="43" t="s">
+        <v>313</v>
+      </c>
+      <c r="Q3" s="43" t="s">
+        <v>316</v>
+      </c>
     </row>
-    <row r="4" spans="1:12" ht="74.5" customHeight="1">
+    <row r="4" spans="1:17" ht="74.5" customHeight="1">
       <c r="A4" s="5" t="s">
         <v>20</v>
       </c>
@@ -4101,8 +4152,23 @@
       <c r="L4" s="8" t="s">
         <v>125</v>
       </c>
+      <c r="M4" s="43" t="s">
+        <v>122</v>
+      </c>
+      <c r="N4" s="43" t="s">
+        <v>307</v>
+      </c>
+      <c r="O4" s="43" t="s">
+        <v>155</v>
+      </c>
+      <c r="P4" s="43" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q4" s="43" t="s">
+        <v>155</v>
+      </c>
     </row>
-    <row r="5" spans="1:12" ht="15.75" customHeight="1">
+    <row r="5" spans="1:17" ht="15.75" customHeight="1">
       <c r="A5" s="5" t="s">
         <v>27</v>
       </c>
@@ -4139,18 +4205,33 @@
       <c r="L5" s="11" t="s">
         <v>29</v>
       </c>
+      <c r="M5" s="45" t="s">
+        <v>28</v>
+      </c>
+      <c r="N5" s="45" t="s">
+        <v>28</v>
+      </c>
+      <c r="O5" s="45" t="s">
+        <v>28</v>
+      </c>
+      <c r="P5" s="45" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q5" s="46" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="6" spans="1:12" ht="15.75" customHeight="1"/>
-    <row r="7" spans="1:12" ht="15.75" customHeight="1"/>
-    <row r="8" spans="1:12" ht="15.75" customHeight="1"/>
-    <row r="9" spans="1:12" ht="15.75" customHeight="1"/>
-    <row r="10" spans="1:12" ht="15.75" customHeight="1"/>
-    <row r="11" spans="1:12" ht="15.75" customHeight="1"/>
-    <row r="12" spans="1:12" ht="15.75" customHeight="1"/>
-    <row r="13" spans="1:12" ht="15.75" customHeight="1"/>
-    <row r="14" spans="1:12" ht="15.75" customHeight="1"/>
-    <row r="15" spans="1:12" ht="15.75" customHeight="1"/>
-    <row r="16" spans="1:12" ht="15.75" customHeight="1"/>
+    <row r="6" spans="1:17" ht="15.75" customHeight="1"/>
+    <row r="7" spans="1:17" ht="15.75" customHeight="1"/>
+    <row r="8" spans="1:17" ht="15.75" customHeight="1"/>
+    <row r="9" spans="1:17" ht="15.75" customHeight="1"/>
+    <row r="10" spans="1:17" ht="15.75" customHeight="1"/>
+    <row r="11" spans="1:17" ht="15.75" customHeight="1"/>
+    <row r="12" spans="1:17" ht="15.75" customHeight="1"/>
+    <row r="13" spans="1:17" ht="15.75" customHeight="1"/>
+    <row r="14" spans="1:17" ht="15.75" customHeight="1"/>
+    <row r="15" spans="1:17" ht="15.75" customHeight="1"/>
+    <row r="16" spans="1:17" ht="15.75" customHeight="1"/>
     <row r="17" ht="15.75" customHeight="1"/>
     <row r="18" ht="15.75" customHeight="1"/>
     <row r="19" ht="15.75" customHeight="1"/>
@@ -5120,6 +5201,7 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D4" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="P3" r:id="rId2" xr:uid="{ADC2E6C6-9CF9-7446-85D3-9151561F677A}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
@@ -5385,8 +5467,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF6038AA-9EAD-E846-B5BE-A0ADCFA2926F}">
   <dimension ref="A1:Z24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:G1048576"/>
+    <sheetView topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="T1" sqref="T1:Y5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
